--- a/AAII_Financials/Quarterly/UNQL_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/UNQL_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="92">
   <si>
     <t>UNQL</t>
   </si>
@@ -305,7 +305,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -347,7 +347,7 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:K102"/>
+  <dimension ref="A5:L102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,64 +665,68 @@
     <col min="1" max="1" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44255</v>
+      </c>
+      <c r="E7" s="2">
         <v>44165</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44043</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43951</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43861</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43769</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43677</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43585</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43496</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>91000</v>
+      </c>
+      <c r="E8" s="3">
         <v>124600</v>
       </c>
-      <c r="E8" s="3">
-        <v>0</v>
-      </c>
       <c r="F8" s="3">
         <v>0</v>
       </c>
@@ -741,17 +745,20 @@
       <c r="K8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>84200</v>
+      </c>
+      <c r="E9" s="3">
         <v>116300</v>
       </c>
-      <c r="E9" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="F9" s="3" t="s">
         <v>5</v>
       </c>
@@ -770,17 +777,20 @@
       <c r="K9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>6800</v>
+      </c>
+      <c r="E10" s="3">
         <v>8300</v>
       </c>
-      <c r="E10" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="F10" s="3" t="s">
         <v>5</v>
       </c>
@@ -799,8 +809,11 @@
       <c r="K10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -812,8 +825,9 @@
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L11" s="3"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -841,8 +855,11 @@
       <c r="K12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -870,26 +887,29 @@
       <c r="K13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="E14" s="3">
         <v>1100</v>
       </c>
-      <c r="E14" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="F14" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G14" s="3">
+      <c r="G14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H14" s="3">
         <v>200</v>
       </c>
-      <c r="H14" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="I14" s="3" t="s">
         <v>5</v>
       </c>
@@ -899,16 +919,19 @@
       <c r="K14" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L14" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
         <v>200</v>
       </c>
-      <c r="E15" s="3" t="s">
-        <v>5</v>
+      <c r="E15" s="3">
+        <v>200</v>
       </c>
       <c r="F15" s="3" t="s">
         <v>5</v>
@@ -928,8 +951,11 @@
       <c r="K15" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L15" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -938,26 +964,27 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
-    </row>
-    <row r="17" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L16" s="3"/>
+    </row>
+    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>123000</v>
+        <v>89000</v>
       </c>
       <c r="E17" s="3">
-        <v>0</v>
+        <v>122700</v>
       </c>
       <c r="F17" s="3">
         <v>0</v>
       </c>
       <c r="G17" s="3">
+        <v>0</v>
+      </c>
+      <c r="H17" s="3">
         <v>200</v>
       </c>
-      <c r="H17" s="3">
-        <v>0</v>
-      </c>
       <c r="I17" s="3">
         <v>0</v>
       </c>
@@ -965,28 +992,31 @@
         <v>0</v>
       </c>
       <c r="K17" s="3">
+        <v>0</v>
+      </c>
+      <c r="L17" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="18" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>1600</v>
+        <v>2000</v>
       </c>
       <c r="E18" s="3">
-        <v>0</v>
+        <v>1900</v>
       </c>
       <c r="F18" s="3">
         <v>0</v>
       </c>
       <c r="G18" s="3">
+        <v>0</v>
+      </c>
+      <c r="H18" s="3">
         <v>-200</v>
       </c>
-      <c r="H18" s="3">
-        <v>0</v>
-      </c>
       <c r="I18" s="3">
         <v>0</v>
       </c>
@@ -994,10 +1024,13 @@
         <v>0</v>
       </c>
       <c r="K18" s="3">
+        <v>0</v>
+      </c>
+      <c r="L18" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="19" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1009,8 +1042,9 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
-    </row>
-    <row r="20" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L19" s="3"/>
+    </row>
+    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1038,13 +1072,16 @@
       <c r="K20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3" t="s">
-        <v>5</v>
+      <c r="D21" s="3">
+        <v>2100</v>
       </c>
       <c r="E21" s="3" t="s">
         <v>5</v>
@@ -1067,55 +1104,61 @@
       <c r="K21" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="22" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L21" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>0</v>
+        <v>600</v>
       </c>
       <c r="E22" s="3">
-        <v>0</v>
-      </c>
-      <c r="F22" s="3">
-        <v>0</v>
-      </c>
-      <c r="G22" s="3">
-        <v>0</v>
-      </c>
-      <c r="H22" s="3">
-        <v>0</v>
-      </c>
-      <c r="I22" s="3">
-        <v>0</v>
-      </c>
-      <c r="J22" s="3">
-        <v>0</v>
+        <v>200</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J22" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="K22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E23" s="3">
         <v>1700</v>
       </c>
-      <c r="E23" s="3">
-        <v>0</v>
-      </c>
       <c r="F23" s="3">
         <v>0</v>
       </c>
       <c r="G23" s="3">
+        <v>0</v>
+      </c>
+      <c r="H23" s="3">
         <v>-200</v>
       </c>
-      <c r="H23" s="3">
-        <v>0</v>
-      </c>
       <c r="I23" s="3">
         <v>0</v>
       </c>
@@ -1123,19 +1166,22 @@
         <v>0</v>
       </c>
       <c r="K23" s="3">
+        <v>0</v>
+      </c>
+      <c r="L23" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="24" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>100</v>
+      </c>
+      <c r="E24" s="3">
         <v>300</v>
       </c>
-      <c r="E24" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="F24" s="3" t="s">
         <v>5</v>
       </c>
@@ -1154,8 +1200,11 @@
       <c r="K24" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="25" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L24" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1183,26 +1232,29 @@
       <c r="K25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E26" s="3">
         <v>1400</v>
       </c>
-      <c r="E26" s="3">
-        <v>0</v>
-      </c>
       <c r="F26" s="3">
         <v>0</v>
       </c>
       <c r="G26" s="3">
+        <v>0</v>
+      </c>
+      <c r="H26" s="3">
         <v>-200</v>
       </c>
-      <c r="H26" s="3">
-        <v>0</v>
-      </c>
       <c r="I26" s="3">
         <v>0</v>
       </c>
@@ -1210,28 +1262,31 @@
         <v>0</v>
       </c>
       <c r="K26" s="3">
+        <v>0</v>
+      </c>
+      <c r="L26" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="27" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E27" s="3">
         <v>1400</v>
       </c>
-      <c r="E27" s="3">
-        <v>0</v>
-      </c>
       <c r="F27" s="3">
         <v>0</v>
       </c>
       <c r="G27" s="3">
+        <v>0</v>
+      </c>
+      <c r="H27" s="3">
         <v>-200</v>
       </c>
-      <c r="H27" s="3">
-        <v>0</v>
-      </c>
       <c r="I27" s="3">
         <v>0</v>
       </c>
@@ -1239,10 +1294,13 @@
         <v>0</v>
       </c>
       <c r="K27" s="3">
+        <v>0</v>
+      </c>
+      <c r="L27" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="28" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1270,8 +1328,11 @@
       <c r="K28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1299,8 +1360,11 @@
       <c r="K29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1328,8 +1392,11 @@
       <c r="K30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1357,8 +1424,11 @@
       <c r="K31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1386,26 +1456,29 @@
       <c r="K32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E33" s="3">
         <v>1400</v>
       </c>
-      <c r="E33" s="3">
-        <v>0</v>
-      </c>
       <c r="F33" s="3">
         <v>0</v>
       </c>
       <c r="G33" s="3">
+        <v>0</v>
+      </c>
+      <c r="H33" s="3">
         <v>-200</v>
       </c>
-      <c r="H33" s="3">
-        <v>0</v>
-      </c>
       <c r="I33" s="3">
         <v>0</v>
       </c>
@@ -1413,10 +1486,13 @@
         <v>0</v>
       </c>
       <c r="K33" s="3">
+        <v>0</v>
+      </c>
+      <c r="L33" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1444,26 +1520,29 @@
       <c r="K34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E35" s="3">
         <v>1400</v>
       </c>
-      <c r="E35" s="3">
-        <v>0</v>
-      </c>
       <c r="F35" s="3">
         <v>0</v>
       </c>
       <c r="G35" s="3">
+        <v>0</v>
+      </c>
+      <c r="H35" s="3">
         <v>-200</v>
       </c>
-      <c r="H35" s="3">
-        <v>0</v>
-      </c>
       <c r="I35" s="3">
         <v>0</v>
       </c>
@@ -1471,44 +1550,50 @@
         <v>0</v>
       </c>
       <c r="K35" s="3">
+        <v>0</v>
+      </c>
+      <c r="L35" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44255</v>
+      </c>
+      <c r="E38" s="2">
         <v>44165</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44043</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43951</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43861</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43769</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43677</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43585</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43496</v>
       </c>
     </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1520,8 +1605,9 @@
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
-    </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L39" s="3"/>
+    </row>
+    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1533,17 +1619,18 @@
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
-    </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L40" s="3"/>
+    </row>
+    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E41" s="3">
         <v>3500</v>
       </c>
-      <c r="E41" s="3">
-        <v>0</v>
-      </c>
       <c r="F41" s="3">
         <v>0</v>
       </c>
@@ -1562,8 +1649,11 @@
       <c r="K41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1591,17 +1681,20 @@
       <c r="K42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>41100</v>
+      </c>
+      <c r="E43" s="3">
         <v>39600</v>
       </c>
-      <c r="E43" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="F43" s="3" t="s">
         <v>5</v>
       </c>
@@ -1620,8 +1713,11 @@
       <c r="K43" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L43" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1649,19 +1745,22 @@
       <c r="K44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>2500</v>
+      </c>
+      <c r="E45" s="3">
         <v>8300</v>
       </c>
-      <c r="E45" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F45" s="3">
-        <v>0</v>
+      <c r="F45" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="G45" s="3">
         <v>0</v>
@@ -1678,17 +1777,20 @@
       <c r="K45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>45000</v>
+      </c>
+      <c r="E46" s="3">
         <v>51500</v>
       </c>
-      <c r="E46" s="3">
-        <v>0</v>
-      </c>
       <c r="F46" s="3">
         <v>0</v>
       </c>
@@ -1707,8 +1809,11 @@
       <c r="K46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -1721,11 +1826,11 @@
       <c r="F47" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G47" s="3">
-        <v>0</v>
+      <c r="G47" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="H47" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="I47" s="3">
         <v>200</v>
@@ -1736,17 +1841,20 @@
       <c r="K47" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L47" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>4100</v>
+      </c>
+      <c r="E48" s="3">
         <v>4500</v>
       </c>
-      <c r="E48" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="F48" s="3" t="s">
         <v>5</v>
       </c>
@@ -1765,17 +1873,20 @@
       <c r="K48" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="49" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L48" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>12700</v>
+      </c>
+      <c r="E49" s="3">
         <v>13200</v>
       </c>
-      <c r="E49" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="F49" s="3" t="s">
         <v>5</v>
       </c>
@@ -1794,8 +1905,11 @@
       <c r="K49" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="50" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L49" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1823,8 +1937,11 @@
       <c r="K50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1852,17 +1969,20 @@
       <c r="K51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>400</v>
+      </c>
+      <c r="E52" s="3">
         <v>500</v>
       </c>
-      <c r="E52" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="F52" s="3" t="s">
         <v>5</v>
       </c>
@@ -1881,8 +2001,11 @@
       <c r="K52" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="53" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L52" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1910,17 +2033,20 @@
       <c r="K53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>62200</v>
+      </c>
+      <c r="E54" s="3">
         <v>69700</v>
       </c>
-      <c r="E54" s="3">
-        <v>0</v>
-      </c>
       <c r="F54" s="3">
         <v>0</v>
       </c>
@@ -1928,7 +2054,7 @@
         <v>0</v>
       </c>
       <c r="H54" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="I54" s="3">
         <v>200</v>
@@ -1939,8 +2065,11 @@
       <c r="K54" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="55" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L54" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1952,8 +2081,9 @@
       <c r="I55" s="3"/>
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
-    </row>
-    <row r="56" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L55" s="3"/>
+    </row>
+    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -1965,17 +2095,18 @@
       <c r="I56" s="3"/>
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
-    </row>
-    <row r="57" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L56" s="3"/>
+    </row>
+    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>35800</v>
+      </c>
+      <c r="E57" s="3">
         <v>38800</v>
       </c>
-      <c r="E57" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="F57" s="3" t="s">
         <v>5</v>
       </c>
@@ -1994,17 +2125,20 @@
       <c r="K57" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="58" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L57" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>5300</v>
+      </c>
+      <c r="E58" s="3">
         <v>9700</v>
       </c>
-      <c r="E58" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="F58" s="3" t="s">
         <v>5</v>
       </c>
@@ -2023,16 +2157,19 @@
       <c r="K58" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="59" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L58" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>9000</v>
+      </c>
+      <c r="E59" s="3">
         <v>11700</v>
-      </c>
-      <c r="E59" s="3">
-        <v>800</v>
       </c>
       <c r="F59" s="3">
         <v>800</v>
@@ -2047,21 +2184,24 @@
         <v>800</v>
       </c>
       <c r="J59" s="3">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="K59" s="3">
         <v>700</v>
       </c>
-    </row>
-    <row r="60" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L59" s="3">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>50100</v>
+      </c>
+      <c r="E60" s="3">
         <v>60200</v>
-      </c>
-      <c r="E60" s="3">
-        <v>800</v>
       </c>
       <c r="F60" s="3">
         <v>800</v>
@@ -2076,22 +2216,25 @@
         <v>800</v>
       </c>
       <c r="J60" s="3">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="K60" s="3">
         <v>700</v>
       </c>
-    </row>
-    <row r="61" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L60" s="3">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E61" s="3">
         <v>1800</v>
       </c>
-      <c r="E61" s="3">
-        <v>0</v>
-      </c>
       <c r="F61" s="3">
         <v>0</v>
       </c>
@@ -2110,17 +2253,20 @@
       <c r="K61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>3200</v>
+      </c>
+      <c r="E62" s="3">
         <v>3700</v>
       </c>
-      <c r="E62" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="F62" s="3" t="s">
         <v>5</v>
       </c>
@@ -2139,8 +2285,11 @@
       <c r="K62" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="63" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L62" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2168,8 +2317,11 @@
       <c r="K63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2197,8 +2349,11 @@
       <c r="K64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2226,16 +2381,19 @@
       <c r="K65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>55300</v>
+      </c>
+      <c r="E66" s="3">
         <v>65700</v>
-      </c>
-      <c r="E66" s="3">
-        <v>800</v>
       </c>
       <c r="F66" s="3">
         <v>800</v>
@@ -2250,13 +2408,16 @@
         <v>800</v>
       </c>
       <c r="J66" s="3">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="K66" s="3">
         <v>700</v>
       </c>
-    </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L66" s="3">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2268,8 +2429,9 @@
       <c r="I67" s="3"/>
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
-    </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L67" s="3"/>
+    </row>
+    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2297,8 +2459,11 @@
       <c r="K68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2326,8 +2491,11 @@
       <c r="K69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2355,8 +2523,11 @@
       <c r="K70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2384,16 +2555,19 @@
       <c r="K71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>1700</v>
+      </c>
+      <c r="E72" s="3">
         <v>400</v>
-      </c>
-      <c r="E72" s="3">
-        <v>-1700</v>
       </c>
       <c r="F72" s="3">
         <v>-1700</v>
@@ -2402,19 +2576,22 @@
         <v>-1700</v>
       </c>
       <c r="H72" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="I72" s="3">
         <v>-1500</v>
-      </c>
-      <c r="I72" s="3">
-        <v>-1400</v>
       </c>
       <c r="J72" s="3">
         <v>-1400</v>
       </c>
       <c r="K72" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="L72" s="3">
         <v>-1300</v>
       </c>
     </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2442,8 +2619,11 @@
       <c r="K73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2471,8 +2651,11 @@
       <c r="K74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2500,16 +2683,19 @@
       <c r="K75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>6900</v>
+      </c>
+      <c r="E76" s="3">
         <v>3900</v>
-      </c>
-      <c r="E76" s="3">
-        <v>-800</v>
       </c>
       <c r="F76" s="3">
         <v>-800</v>
@@ -2518,19 +2704,22 @@
         <v>-800</v>
       </c>
       <c r="H76" s="3">
-        <v>-600</v>
+        <v>-800</v>
       </c>
       <c r="I76" s="3">
         <v>-600</v>
       </c>
       <c r="J76" s="3">
-        <v>-500</v>
+        <v>-600</v>
       </c>
       <c r="K76" s="3">
         <v>-500</v>
       </c>
-    </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L76" s="3">
+        <v>-500</v>
+      </c>
+    </row>
+    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2558,60 +2747,66 @@
       <c r="K77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44255</v>
+      </c>
+      <c r="E80" s="2">
         <v>44165</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44043</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43951</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43861</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43769</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43677</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43585</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43496</v>
       </c>
     </row>
-    <row r="81" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E81" s="3">
         <v>1400</v>
       </c>
-      <c r="E81" s="3">
-        <v>0</v>
-      </c>
       <c r="F81" s="3">
         <v>0</v>
       </c>
       <c r="G81" s="3">
+        <v>0</v>
+      </c>
+      <c r="H81" s="3">
         <v>-200</v>
       </c>
-      <c r="H81" s="3">
-        <v>0</v>
-      </c>
       <c r="I81" s="3">
         <v>0</v>
       </c>
@@ -2619,10 +2814,13 @@
         <v>0</v>
       </c>
       <c r="K81" s="3">
+        <v>0</v>
+      </c>
+      <c r="L81" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="82" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2634,37 +2832,41 @@
       <c r="I82" s="3"/>
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
-    </row>
-    <row r="83" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L82" s="3"/>
+    </row>
+    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>0</v>
-      </c>
-      <c r="E83" s="3">
-        <v>0</v>
-      </c>
-      <c r="F83" s="3">
-        <v>0</v>
-      </c>
-      <c r="G83" s="3">
-        <v>0</v>
-      </c>
-      <c r="H83" s="3">
-        <v>0</v>
-      </c>
-      <c r="I83" s="3">
-        <v>0</v>
-      </c>
-      <c r="J83" s="3">
-        <v>0</v>
+        <v>200</v>
+      </c>
+      <c r="E83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J83" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="K83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2692,8 +2894,11 @@
       <c r="K84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2721,8 +2926,11 @@
       <c r="K85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2750,8 +2958,11 @@
       <c r="K86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2779,8 +2990,11 @@
       <c r="K87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2808,17 +3022,20 @@
       <c r="K88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="E89" s="3">
         <v>600</v>
       </c>
-      <c r="E89" s="3">
-        <v>0</v>
-      </c>
       <c r="F89" s="3">
         <v>0</v>
       </c>
@@ -2837,8 +3054,11 @@
       <c r="K89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2850,37 +3070,41 @@
       <c r="I90" s="3"/>
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
-    </row>
-    <row r="91" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L90" s="3"/>
+    </row>
+    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
         <v>0</v>
       </c>
-      <c r="E91" s="3">
-        <v>0</v>
-      </c>
-      <c r="F91" s="3">
-        <v>0</v>
-      </c>
-      <c r="G91" s="3">
-        <v>0</v>
-      </c>
-      <c r="H91" s="3">
-        <v>0</v>
-      </c>
-      <c r="I91" s="3">
-        <v>0</v>
-      </c>
-      <c r="J91" s="3">
-        <v>0</v>
+      <c r="E91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J91" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="K91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2908,8 +3132,11 @@
       <c r="K92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -2937,13 +3164,16 @@
       <c r="K93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D94" s="3" t="s">
-        <v>5</v>
+      <c r="D94" s="3">
+        <v>0</v>
       </c>
       <c r="E94" s="3" t="s">
         <v>5</v>
@@ -2963,11 +3193,14 @@
       <c r="J94" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K94" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -2979,8 +3212,9 @@
       <c r="I95" s="3"/>
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
-    </row>
-    <row r="96" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L95" s="3"/>
+    </row>
+    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3008,8 +3242,11 @@
       <c r="K96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3037,8 +3274,11 @@
       <c r="K97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3066,8 +3306,11 @@
       <c r="K98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3095,17 +3338,20 @@
       <c r="K99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="E100" s="3">
         <v>1600</v>
       </c>
-      <c r="E100" s="3">
-        <v>0</v>
-      </c>
       <c r="F100" s="3">
         <v>0</v>
       </c>
@@ -3121,11 +3367,14 @@
       <c r="J100" s="3">
         <v>0</v>
       </c>
-      <c r="K100" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="101" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K100" s="3">
+        <v>0</v>
+      </c>
+      <c r="L100" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3153,17 +3402,20 @@
       <c r="K101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="E102" s="3">
         <v>2200</v>
       </c>
-      <c r="E102" s="3">
-        <v>0</v>
-      </c>
       <c r="F102" s="3">
         <v>0</v>
       </c>
@@ -3180,6 +3432,9 @@
         <v>0</v>
       </c>
       <c r="K102" s="3">
+        <v>0</v>
+      </c>
+      <c r="L102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/UNQL_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/UNQL_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="92">
   <si>
     <t>UNQL</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:L102"/>
+  <dimension ref="A5:N102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,74 +665,82 @@
     <col min="1" max="1" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44439</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44347</v>
+      </c>
+      <c r="F7" s="2">
         <v>44255</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44165</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44043</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43951</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43861</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43769</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43677</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43585</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43496</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>189800</v>
+      </c>
+      <c r="E8" s="3">
+        <v>98900</v>
+      </c>
+      <c r="F8" s="3">
         <v>91000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="G8" s="3">
         <v>124600</v>
       </c>
-      <c r="F8" s="3">
-        <v>0</v>
-      </c>
-      <c r="G8" s="3">
-        <v>0</v>
-      </c>
       <c r="H8" s="3">
         <v>0</v>
       </c>
@@ -748,23 +756,29 @@
       <c r="L8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M8" s="3">
+        <v>0</v>
+      </c>
+      <c r="N8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>181500</v>
+      </c>
+      <c r="E9" s="3">
+        <v>91900</v>
+      </c>
+      <c r="F9" s="3">
         <v>84200</v>
       </c>
-      <c r="E9" s="3">
+      <c r="G9" s="3">
         <v>116300</v>
       </c>
-      <c r="F9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G9" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="H9" s="3" t="s">
         <v>5</v>
       </c>
@@ -780,23 +794,29 @@
       <c r="L9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>8300</v>
+      </c>
+      <c r="E10" s="3">
+        <v>7000</v>
+      </c>
+      <c r="F10" s="3">
         <v>6800</v>
       </c>
-      <c r="E10" s="3">
+      <c r="G10" s="3">
         <v>8300</v>
       </c>
-      <c r="F10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G10" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="H10" s="3" t="s">
         <v>5</v>
       </c>
@@ -812,8 +832,14 @@
       <c r="L10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -826,8 +852,10 @@
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M11" s="3"/>
+      <c r="N11" s="3"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -858,8 +886,14 @@
       <c r="L12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M12" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -890,40 +924,52 @@
       <c r="L13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M13" s="3">
+        <v>0</v>
+      </c>
+      <c r="N13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="E14" s="3">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3">
         <v>-1600</v>
       </c>
-      <c r="E14" s="3">
+      <c r="G14" s="3">
         <v>1100</v>
       </c>
-      <c r="F14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H14" s="3">
+      <c r="H14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J14" s="3">
         <v>200</v>
       </c>
-      <c r="I14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J14" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="K14" s="3" t="s">
         <v>5</v>
       </c>
       <c r="L14" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N14" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -933,11 +979,11 @@
       <c r="E15" s="3">
         <v>200</v>
       </c>
-      <c r="F15" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G15" s="3" t="s">
-        <v>5</v>
+      <c r="F15" s="3">
+        <v>200</v>
+      </c>
+      <c r="G15" s="3">
+        <v>200</v>
       </c>
       <c r="H15" s="3" t="s">
         <v>5</v>
@@ -954,8 +1000,14 @@
       <c r="L15" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M15" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N15" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -965,72 +1017,86 @@
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
-    </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M16" s="3"/>
+      <c r="N16" s="3"/>
+    </row>
+    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>185400</v>
+      </c>
+      <c r="E17" s="3">
+        <v>98200</v>
+      </c>
+      <c r="F17" s="3">
         <v>89000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>122700</v>
       </c>
-      <c r="F17" s="3">
-        <v>0</v>
-      </c>
-      <c r="G17" s="3">
-        <v>0</v>
-      </c>
       <c r="H17" s="3">
+        <v>0</v>
+      </c>
+      <c r="I17" s="3">
+        <v>0</v>
+      </c>
+      <c r="J17" s="3">
         <v>200</v>
       </c>
-      <c r="I17" s="3">
-        <v>0</v>
-      </c>
-      <c r="J17" s="3">
-        <v>0</v>
-      </c>
       <c r="K17" s="3">
         <v>0</v>
       </c>
       <c r="L17" s="3">
+        <v>0</v>
+      </c>
+      <c r="M17" s="3">
+        <v>0</v>
+      </c>
+      <c r="N17" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>4400</v>
+      </c>
+      <c r="E18" s="3">
+        <v>700</v>
+      </c>
+      <c r="F18" s="3">
         <v>2000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="G18" s="3">
         <v>1900</v>
       </c>
-      <c r="F18" s="3">
-        <v>0</v>
-      </c>
-      <c r="G18" s="3">
-        <v>0</v>
-      </c>
       <c r="H18" s="3">
+        <v>0</v>
+      </c>
+      <c r="I18" s="3">
+        <v>0</v>
+      </c>
+      <c r="J18" s="3">
         <v>-200</v>
       </c>
-      <c r="I18" s="3">
-        <v>0</v>
-      </c>
-      <c r="J18" s="3">
-        <v>0</v>
-      </c>
       <c r="K18" s="3">
         <v>0</v>
       </c>
       <c r="L18" s="3">
+        <v>0</v>
+      </c>
+      <c r="M18" s="3">
+        <v>0</v>
+      </c>
+      <c r="N18" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1043,8 +1109,10 @@
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
-    </row>
-    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M19" s="3"/>
+      <c r="N19" s="3"/>
+    </row>
+    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1075,20 +1143,26 @@
       <c r="L20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M20" s="3">
+        <v>0</v>
+      </c>
+      <c r="N20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>4500</v>
+      </c>
+      <c r="E21" s="3">
+        <v>900</v>
+      </c>
+      <c r="F21" s="3">
         <v>2100</v>
       </c>
-      <c r="E21" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F21" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="G21" s="3" t="s">
         <v>5</v>
       </c>
@@ -1107,23 +1181,29 @@
       <c r="L21" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N21" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>1700</v>
+      </c>
+      <c r="E22" s="3">
+        <v>900</v>
+      </c>
+      <c r="F22" s="3">
         <v>600</v>
       </c>
-      <c r="E22" s="3">
+      <c r="G22" s="3">
         <v>200</v>
       </c>
-      <c r="F22" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G22" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="H22" s="3" t="s">
         <v>5</v>
       </c>
@@ -1133,61 +1213,73 @@
       <c r="J22" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K22" s="3">
-        <v>0</v>
-      </c>
-      <c r="L22" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="K22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M22" s="3">
+        <v>0</v>
+      </c>
+      <c r="N22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>2700</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-200</v>
+      </c>
+      <c r="F23" s="3">
         <v>1300</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>1700</v>
       </c>
-      <c r="F23" s="3">
-        <v>0</v>
-      </c>
-      <c r="G23" s="3">
-        <v>0</v>
-      </c>
       <c r="H23" s="3">
+        <v>0</v>
+      </c>
+      <c r="I23" s="3">
+        <v>0</v>
+      </c>
+      <c r="J23" s="3">
         <v>-200</v>
       </c>
-      <c r="I23" s="3">
-        <v>0</v>
-      </c>
-      <c r="J23" s="3">
-        <v>0</v>
-      </c>
       <c r="K23" s="3">
         <v>0</v>
       </c>
       <c r="L23" s="3">
+        <v>0</v>
+      </c>
+      <c r="M23" s="3">
+        <v>0</v>
+      </c>
+      <c r="N23" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>600</v>
+      </c>
+      <c r="E24" s="3">
         <v>100</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
+        <v>100</v>
+      </c>
+      <c r="G24" s="3">
         <v>300</v>
       </c>
-      <c r="F24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G24" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="H24" s="3" t="s">
         <v>5</v>
       </c>
@@ -1203,8 +1295,14 @@
       <c r="L24" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N24" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1235,72 +1333,90 @@
       <c r="L25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M25" s="3">
+        <v>0</v>
+      </c>
+      <c r="N25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-400</v>
+      </c>
+      <c r="F26" s="3">
         <v>1300</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>1400</v>
       </c>
-      <c r="F26" s="3">
-        <v>0</v>
-      </c>
-      <c r="G26" s="3">
-        <v>0</v>
-      </c>
       <c r="H26" s="3">
+        <v>0</v>
+      </c>
+      <c r="I26" s="3">
+        <v>0</v>
+      </c>
+      <c r="J26" s="3">
         <v>-200</v>
       </c>
-      <c r="I26" s="3">
-        <v>0</v>
-      </c>
-      <c r="J26" s="3">
-        <v>0</v>
-      </c>
       <c r="K26" s="3">
         <v>0</v>
       </c>
       <c r="L26" s="3">
+        <v>0</v>
+      </c>
+      <c r="M26" s="3">
+        <v>0</v>
+      </c>
+      <c r="N26" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-400</v>
+      </c>
+      <c r="F27" s="3">
         <v>1300</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>1400</v>
       </c>
-      <c r="F27" s="3">
-        <v>0</v>
-      </c>
-      <c r="G27" s="3">
-        <v>0</v>
-      </c>
       <c r="H27" s="3">
+        <v>0</v>
+      </c>
+      <c r="I27" s="3">
+        <v>0</v>
+      </c>
+      <c r="J27" s="3">
         <v>-200</v>
       </c>
-      <c r="I27" s="3">
-        <v>0</v>
-      </c>
-      <c r="J27" s="3">
-        <v>0</v>
-      </c>
       <c r="K27" s="3">
         <v>0</v>
       </c>
       <c r="L27" s="3">
+        <v>0</v>
+      </c>
+      <c r="M27" s="3">
+        <v>0</v>
+      </c>
+      <c r="N27" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1331,8 +1447,14 @@
       <c r="L28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M28" s="3">
+        <v>0</v>
+      </c>
+      <c r="N28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1363,8 +1485,14 @@
       <c r="L29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M29" s="3">
+        <v>0</v>
+      </c>
+      <c r="N29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1395,8 +1523,14 @@
       <c r="L30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M30" s="3">
+        <v>0</v>
+      </c>
+      <c r="N30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1427,8 +1561,14 @@
       <c r="L31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M31" s="3">
+        <v>0</v>
+      </c>
+      <c r="N31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1459,40 +1599,52 @@
       <c r="L32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M32" s="3">
+        <v>0</v>
+      </c>
+      <c r="N32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-400</v>
+      </c>
+      <c r="F33" s="3">
         <v>1300</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>1400</v>
       </c>
-      <c r="F33" s="3">
-        <v>0</v>
-      </c>
-      <c r="G33" s="3">
-        <v>0</v>
-      </c>
       <c r="H33" s="3">
+        <v>0</v>
+      </c>
+      <c r="I33" s="3">
+        <v>0</v>
+      </c>
+      <c r="J33" s="3">
         <v>-200</v>
       </c>
-      <c r="I33" s="3">
-        <v>0</v>
-      </c>
-      <c r="J33" s="3">
-        <v>0</v>
-      </c>
       <c r="K33" s="3">
         <v>0</v>
       </c>
       <c r="L33" s="3">
+        <v>0</v>
+      </c>
+      <c r="M33" s="3">
+        <v>0</v>
+      </c>
+      <c r="N33" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1523,77 +1675,95 @@
       <c r="L34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M34" s="3">
+        <v>0</v>
+      </c>
+      <c r="N34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-400</v>
+      </c>
+      <c r="F35" s="3">
         <v>1300</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>1400</v>
       </c>
-      <c r="F35" s="3">
-        <v>0</v>
-      </c>
-      <c r="G35" s="3">
-        <v>0</v>
-      </c>
       <c r="H35" s="3">
+        <v>0</v>
+      </c>
+      <c r="I35" s="3">
+        <v>0</v>
+      </c>
+      <c r="J35" s="3">
         <v>-200</v>
       </c>
-      <c r="I35" s="3">
-        <v>0</v>
-      </c>
-      <c r="J35" s="3">
-        <v>0</v>
-      </c>
       <c r="K35" s="3">
         <v>0</v>
       </c>
       <c r="L35" s="3">
+        <v>0</v>
+      </c>
+      <c r="M35" s="3">
+        <v>0</v>
+      </c>
+      <c r="N35" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44439</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44347</v>
+      </c>
+      <c r="F38" s="2">
         <v>44255</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44165</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44043</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43951</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43861</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43769</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43677</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43585</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43496</v>
       </c>
     </row>
-    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1606,8 +1776,10 @@
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
-    </row>
-    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M39" s="3"/>
+      <c r="N39" s="3"/>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1620,23 +1792,25 @@
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
-    </row>
-    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M40" s="3"/>
+      <c r="N40" s="3"/>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>300</v>
+      </c>
+      <c r="E41" s="3">
+        <v>300</v>
+      </c>
+      <c r="F41" s="3">
         <v>1400</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>3500</v>
       </c>
-      <c r="F41" s="3">
-        <v>0</v>
-      </c>
-      <c r="G41" s="3">
-        <v>0</v>
-      </c>
       <c r="H41" s="3">
         <v>0</v>
       </c>
@@ -1652,8 +1826,14 @@
       <c r="L41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M41" s="3">
+        <v>0</v>
+      </c>
+      <c r="N41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1684,23 +1864,29 @@
       <c r="L42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M42" s="3">
+        <v>0</v>
+      </c>
+      <c r="N42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>118600</v>
+      </c>
+      <c r="E43" s="3">
+        <v>43800</v>
+      </c>
+      <c r="F43" s="3">
         <v>41100</v>
       </c>
-      <c r="E43" s="3">
+      <c r="G43" s="3">
         <v>39600</v>
       </c>
-      <c r="F43" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G43" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="H43" s="3" t="s">
         <v>5</v>
       </c>
@@ -1716,8 +1902,14 @@
       <c r="L43" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N43" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1748,25 +1940,31 @@
       <c r="L44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M44" s="3">
+        <v>0</v>
+      </c>
+      <c r="N44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>600</v>
+      </c>
+      <c r="E45" s="3">
+        <v>8400</v>
+      </c>
+      <c r="F45" s="3">
         <v>2500</v>
       </c>
-      <c r="E45" s="3">
+      <c r="G45" s="3">
         <v>8300</v>
       </c>
-      <c r="F45" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G45" s="3">
-        <v>0</v>
-      </c>
-      <c r="H45" s="3">
-        <v>0</v>
+      <c r="H45" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="I45" s="3">
         <v>0</v>
@@ -1780,23 +1978,29 @@
       <c r="L45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M45" s="3">
+        <v>0</v>
+      </c>
+      <c r="N45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>119600</v>
+      </c>
+      <c r="E46" s="3">
+        <v>52400</v>
+      </c>
+      <c r="F46" s="3">
         <v>45000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>51500</v>
       </c>
-      <c r="F46" s="3">
-        <v>0</v>
-      </c>
-      <c r="G46" s="3">
-        <v>0</v>
-      </c>
       <c r="H46" s="3">
         <v>0</v>
       </c>
@@ -1812,8 +2016,14 @@
       <c r="L46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M46" s="3">
+        <v>0</v>
+      </c>
+      <c r="N46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -1829,14 +2039,14 @@
       <c r="G47" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H47" s="3">
-        <v>0</v>
-      </c>
-      <c r="I47" s="3">
-        <v>200</v>
+      <c r="H47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I47" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="J47" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="K47" s="3">
         <v>200</v>
@@ -1844,23 +2054,29 @@
       <c r="L47" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M47" s="3">
+        <v>200</v>
+      </c>
+      <c r="N47" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>3600</v>
+      </c>
+      <c r="E48" s="3">
+        <v>4000</v>
+      </c>
+      <c r="F48" s="3">
         <v>4100</v>
       </c>
-      <c r="E48" s="3">
+      <c r="G48" s="3">
         <v>4500</v>
       </c>
-      <c r="F48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G48" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="H48" s="3" t="s">
         <v>5</v>
       </c>
@@ -1876,23 +2092,29 @@
       <c r="L48" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N48" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>12300</v>
+      </c>
+      <c r="E49" s="3">
+        <v>12500</v>
+      </c>
+      <c r="F49" s="3">
         <v>12700</v>
       </c>
-      <c r="E49" s="3">
+      <c r="G49" s="3">
         <v>13200</v>
       </c>
-      <c r="F49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G49" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="H49" s="3" t="s">
         <v>5</v>
       </c>
@@ -1908,8 +2130,14 @@
       <c r="L49" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N49" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1940,8 +2168,14 @@
       <c r="L50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M50" s="3">
+        <v>0</v>
+      </c>
+      <c r="N50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1972,23 +2206,29 @@
       <c r="L51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M51" s="3">
+        <v>0</v>
+      </c>
+      <c r="N51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>500</v>
+      </c>
+      <c r="E52" s="3">
+        <v>600</v>
+      </c>
+      <c r="F52" s="3">
         <v>400</v>
       </c>
-      <c r="E52" s="3">
+      <c r="G52" s="3">
         <v>500</v>
       </c>
-      <c r="F52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G52" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="H52" s="3" t="s">
         <v>5</v>
       </c>
@@ -2004,8 +2244,14 @@
       <c r="L52" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N52" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2036,31 +2282,37 @@
       <c r="L53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M53" s="3">
+        <v>0</v>
+      </c>
+      <c r="N53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>136000</v>
+      </c>
+      <c r="E54" s="3">
+        <v>69500</v>
+      </c>
+      <c r="F54" s="3">
         <v>62200</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>69700</v>
       </c>
-      <c r="F54" s="3">
-        <v>0</v>
-      </c>
-      <c r="G54" s="3">
-        <v>0</v>
-      </c>
       <c r="H54" s="3">
         <v>0</v>
       </c>
       <c r="I54" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="J54" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="K54" s="3">
         <v>200</v>
@@ -2068,8 +2320,14 @@
       <c r="L54" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M54" s="3">
+        <v>200</v>
+      </c>
+      <c r="N54" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2082,8 +2340,10 @@
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
-    </row>
-    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M55" s="3"/>
+      <c r="N55" s="3"/>
+    </row>
+    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2096,23 +2356,25 @@
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
-    </row>
-    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M56" s="3"/>
+      <c r="N56" s="3"/>
+    </row>
+    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>48500</v>
+      </c>
+      <c r="E57" s="3">
+        <v>41400</v>
+      </c>
+      <c r="F57" s="3">
         <v>35800</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>38800</v>
       </c>
-      <c r="F57" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G57" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="H57" s="3" t="s">
         <v>5</v>
       </c>
@@ -2128,31 +2390,37 @@
       <c r="L57" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N57" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>42900</v>
+      </c>
+      <c r="E58" s="3">
+        <v>2700</v>
+      </c>
+      <c r="F58" s="3">
         <v>5300</v>
       </c>
-      <c r="E58" s="3">
+      <c r="G58" s="3">
         <v>9700</v>
       </c>
-      <c r="F58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J58" s="3" t="s">
-        <v>5</v>
+      <c r="H58" s="3">
+        <v>300</v>
+      </c>
+      <c r="I58" s="3">
+        <v>300</v>
+      </c>
+      <c r="J58" s="3">
+        <v>200</v>
       </c>
       <c r="K58" s="3" t="s">
         <v>5</v>
@@ -2160,54 +2428,66 @@
       <c r="L58" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N58" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>29900</v>
+      </c>
+      <c r="E59" s="3">
+        <v>11900</v>
+      </c>
+      <c r="F59" s="3">
         <v>9000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>11700</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
+        <v>600</v>
+      </c>
+      <c r="I59" s="3">
+        <v>600</v>
+      </c>
+      <c r="J59" s="3">
+        <v>600</v>
+      </c>
+      <c r="K59" s="3">
         <v>800</v>
       </c>
-      <c r="G59" s="3">
+      <c r="L59" s="3">
         <v>800</v>
       </c>
-      <c r="H59" s="3">
-        <v>800</v>
-      </c>
-      <c r="I59" s="3">
-        <v>800</v>
-      </c>
-      <c r="J59" s="3">
-        <v>800</v>
-      </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>700</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>121300</v>
+      </c>
+      <c r="E60" s="3">
+        <v>55900</v>
+      </c>
+      <c r="F60" s="3">
         <v>50100</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>60200</v>
-      </c>
-      <c r="F60" s="3">
-        <v>800</v>
-      </c>
-      <c r="G60" s="3">
-        <v>800</v>
       </c>
       <c r="H60" s="3">
         <v>800</v>
@@ -2219,28 +2499,34 @@
         <v>800</v>
       </c>
       <c r="K60" s="3">
+        <v>800</v>
+      </c>
+      <c r="L60" s="3">
+        <v>800</v>
+      </c>
+      <c r="M60" s="3">
         <v>700</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>3400</v>
+      </c>
+      <c r="E61" s="3">
+        <v>3900</v>
+      </c>
+      <c r="F61" s="3">
         <v>2000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="G61" s="3">
         <v>1800</v>
       </c>
-      <c r="F61" s="3">
-        <v>0</v>
-      </c>
-      <c r="G61" s="3">
-        <v>0</v>
-      </c>
       <c r="H61" s="3">
         <v>0</v>
       </c>
@@ -2256,23 +2542,29 @@
       <c r="L61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M61" s="3">
+        <v>0</v>
+      </c>
+      <c r="N61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>2600</v>
+      </c>
+      <c r="E62" s="3">
+        <v>3000</v>
+      </c>
+      <c r="F62" s="3">
         <v>3200</v>
       </c>
-      <c r="E62" s="3">
+      <c r="G62" s="3">
         <v>3700</v>
       </c>
-      <c r="F62" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G62" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="H62" s="3" t="s">
         <v>5</v>
       </c>
@@ -2288,8 +2580,14 @@
       <c r="L62" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N62" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2320,8 +2618,14 @@
       <c r="L63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M63" s="3">
+        <v>0</v>
+      </c>
+      <c r="N63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2352,8 +2656,14 @@
       <c r="L64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M64" s="3">
+        <v>0</v>
+      </c>
+      <c r="N64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2384,22 +2694,28 @@
       <c r="L65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M65" s="3">
+        <v>0</v>
+      </c>
+      <c r="N65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>127200</v>
+      </c>
+      <c r="E66" s="3">
+        <v>62800</v>
+      </c>
+      <c r="F66" s="3">
         <v>55300</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>65700</v>
-      </c>
-      <c r="F66" s="3">
-        <v>800</v>
-      </c>
-      <c r="G66" s="3">
-        <v>800</v>
       </c>
       <c r="H66" s="3">
         <v>800</v>
@@ -2411,13 +2727,19 @@
         <v>800</v>
       </c>
       <c r="K66" s="3">
+        <v>800</v>
+      </c>
+      <c r="L66" s="3">
+        <v>800</v>
+      </c>
+      <c r="M66" s="3">
         <v>700</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2430,8 +2752,10 @@
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
-    </row>
-    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M67" s="3"/>
+      <c r="N67" s="3"/>
+    </row>
+    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2462,8 +2786,14 @@
       <c r="L68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M68" s="3">
+        <v>0</v>
+      </c>
+      <c r="N68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2494,8 +2824,14 @@
       <c r="L69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M69" s="3">
+        <v>0</v>
+      </c>
+      <c r="N69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2526,8 +2862,14 @@
       <c r="L70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M70" s="3">
+        <v>0</v>
+      </c>
+      <c r="N70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2558,40 +2900,52 @@
       <c r="L71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M71" s="3">
+        <v>0</v>
+      </c>
+      <c r="N71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>3300</v>
+      </c>
+      <c r="E72" s="3">
+        <v>1300</v>
+      </c>
+      <c r="F72" s="3">
         <v>1700</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>400</v>
-      </c>
-      <c r="F72" s="3">
-        <v>-1700</v>
-      </c>
-      <c r="G72" s="3">
-        <v>-1700</v>
       </c>
       <c r="H72" s="3">
         <v>-1700</v>
       </c>
       <c r="I72" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="J72" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="K72" s="3">
         <v>-1500</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-1400</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-1400</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>-1300</v>
       </c>
     </row>
-    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2622,8 +2976,14 @@
       <c r="L73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M73" s="3">
+        <v>0</v>
+      </c>
+      <c r="N73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2654,8 +3014,14 @@
       <c r="L74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M74" s="3">
+        <v>0</v>
+      </c>
+      <c r="N74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2686,40 +3052,52 @@
       <c r="L75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M75" s="3">
+        <v>0</v>
+      </c>
+      <c r="N75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>8800</v>
+      </c>
+      <c r="E76" s="3">
+        <v>6600</v>
+      </c>
+      <c r="F76" s="3">
         <v>6900</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>3900</v>
-      </c>
-      <c r="F76" s="3">
-        <v>-800</v>
-      </c>
-      <c r="G76" s="3">
-        <v>-800</v>
       </c>
       <c r="H76" s="3">
         <v>-800</v>
       </c>
       <c r="I76" s="3">
+        <v>-800</v>
+      </c>
+      <c r="J76" s="3">
+        <v>-800</v>
+      </c>
+      <c r="K76" s="3">
         <v>-600</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>-600</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>-500</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2750,77 +3128,95 @@
       <c r="L77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M77" s="3">
+        <v>0</v>
+      </c>
+      <c r="N77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44439</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44347</v>
+      </c>
+      <c r="F80" s="2">
         <v>44255</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44165</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44043</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43951</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43861</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43769</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43677</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43585</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43496</v>
       </c>
     </row>
-    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E81" s="3">
+        <v>-400</v>
+      </c>
+      <c r="F81" s="3">
         <v>1300</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>1400</v>
       </c>
-      <c r="F81" s="3">
-        <v>0</v>
-      </c>
-      <c r="G81" s="3">
-        <v>0</v>
-      </c>
       <c r="H81" s="3">
+        <v>0</v>
+      </c>
+      <c r="I81" s="3">
+        <v>0</v>
+      </c>
+      <c r="J81" s="3">
         <v>-200</v>
       </c>
-      <c r="I81" s="3">
-        <v>0</v>
-      </c>
-      <c r="J81" s="3">
-        <v>0</v>
-      </c>
       <c r="K81" s="3">
         <v>0</v>
       </c>
       <c r="L81" s="3">
+        <v>0</v>
+      </c>
+      <c r="M81" s="3">
+        <v>0</v>
+      </c>
+      <c r="N81" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2833,19 +3229,21 @@
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
-    </row>
-    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M82" s="3"/>
+      <c r="N82" s="3"/>
+    </row>
+    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
         <v>200</v>
       </c>
-      <c r="E83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F83" s="3" t="s">
-        <v>5</v>
+      <c r="E83" s="3">
+        <v>200</v>
+      </c>
+      <c r="F83" s="3">
+        <v>200</v>
       </c>
       <c r="G83" s="3" t="s">
         <v>5</v>
@@ -2859,14 +3257,20 @@
       <c r="J83" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K83" s="3">
-        <v>0</v>
-      </c>
-      <c r="L83" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="K83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M83" s="3">
+        <v>0</v>
+      </c>
+      <c r="N83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2897,8 +3301,14 @@
       <c r="L84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M84" s="3">
+        <v>0</v>
+      </c>
+      <c r="N84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2929,8 +3339,14 @@
       <c r="L85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M85" s="3">
+        <v>0</v>
+      </c>
+      <c r="N85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2961,8 +3377,14 @@
       <c r="L86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M86" s="3">
+        <v>0</v>
+      </c>
+      <c r="N86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2993,8 +3415,14 @@
       <c r="L87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M87" s="3">
+        <v>0</v>
+      </c>
+      <c r="N87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3025,23 +3453,29 @@
       <c r="L88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M88" s="3">
+        <v>0</v>
+      </c>
+      <c r="N88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-40400</v>
+      </c>
+      <c r="E89" s="3">
+        <v>400</v>
+      </c>
+      <c r="F89" s="3">
         <v>-1200</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>600</v>
       </c>
-      <c r="F89" s="3">
-        <v>0</v>
-      </c>
-      <c r="G89" s="3">
-        <v>0</v>
-      </c>
       <c r="H89" s="3">
         <v>0</v>
       </c>
@@ -3057,8 +3491,14 @@
       <c r="L89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M89" s="3">
+        <v>0</v>
+      </c>
+      <c r="N89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3071,19 +3511,21 @@
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
-    </row>
-    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M90" s="3"/>
+      <c r="N90" s="3"/>
+    </row>
+    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
         <v>0</v>
       </c>
-      <c r="E91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F91" s="3" t="s">
-        <v>5</v>
+      <c r="E91" s="3">
+        <v>0</v>
+      </c>
+      <c r="F91" s="3">
+        <v>0</v>
       </c>
       <c r="G91" s="3" t="s">
         <v>5</v>
@@ -3097,14 +3539,20 @@
       <c r="J91" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K91" s="3">
-        <v>0</v>
-      </c>
-      <c r="L91" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="K91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M91" s="3">
+        <v>0</v>
+      </c>
+      <c r="N91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3135,8 +3583,14 @@
       <c r="L92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M92" s="3">
+        <v>0</v>
+      </c>
+      <c r="N92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3167,19 +3621,25 @@
       <c r="L93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M93" s="3">
+        <v>0</v>
+      </c>
+      <c r="N93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
         <v>0</v>
       </c>
-      <c r="E94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F94" s="3" t="s">
-        <v>5</v>
+      <c r="E94" s="3">
+        <v>0</v>
+      </c>
+      <c r="F94" s="3">
+        <v>0</v>
       </c>
       <c r="G94" s="3" t="s">
         <v>5</v>
@@ -3196,11 +3656,17 @@
       <c r="K94" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="L94" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3213,8 +3679,10 @@
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
-    </row>
-    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M95" s="3"/>
+      <c r="N95" s="3"/>
+    </row>
+    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3245,8 +3713,14 @@
       <c r="L96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M96" s="3">
+        <v>0</v>
+      </c>
+      <c r="N96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3277,8 +3751,14 @@
       <c r="L97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M97" s="3">
+        <v>0</v>
+      </c>
+      <c r="N97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3309,8 +3789,14 @@
       <c r="L98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M98" s="3">
+        <v>0</v>
+      </c>
+      <c r="N98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3341,23 +3827,29 @@
       <c r="L99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M99" s="3">
+        <v>0</v>
+      </c>
+      <c r="N99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>40500</v>
+      </c>
+      <c r="E100" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="F100" s="3">
         <v>-1000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="G100" s="3">
         <v>1600</v>
       </c>
-      <c r="F100" s="3">
-        <v>0</v>
-      </c>
-      <c r="G100" s="3">
-        <v>0</v>
-      </c>
       <c r="H100" s="3">
         <v>0</v>
       </c>
@@ -3370,11 +3862,17 @@
       <c r="K100" s="3">
         <v>0</v>
       </c>
-      <c r="L100" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L100" s="3">
+        <v>0</v>
+      </c>
+      <c r="M100" s="3">
+        <v>0</v>
+      </c>
+      <c r="N100" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3405,23 +3903,29 @@
       <c r="L101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M101" s="3">
+        <v>0</v>
+      </c>
+      <c r="N101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>0</v>
+      </c>
+      <c r="E102" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="F102" s="3">
         <v>-2100</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>2200</v>
       </c>
-      <c r="F102" s="3">
-        <v>0</v>
-      </c>
-      <c r="G102" s="3">
-        <v>0</v>
-      </c>
       <c r="H102" s="3">
         <v>0</v>
       </c>
@@ -3435,6 +3939,12 @@
         <v>0</v>
       </c>
       <c r="L102" s="3">
+        <v>0</v>
+      </c>
+      <c r="M102" s="3">
+        <v>0</v>
+      </c>
+      <c r="N102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/UNQL_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/UNQL_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="92">
   <si>
     <t>UNQL</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:N102"/>
+  <dimension ref="A5:O102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,85 +665,88 @@
     <col min="1" max="1" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44530</v>
+      </c>
+      <c r="E7" s="2">
         <v>44439</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44347</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44255</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44165</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44043</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43951</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43861</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43769</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43677</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43585</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43496</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>405400</v>
+      </c>
+      <c r="E8" s="3">
         <v>189800</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>98900</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>91000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>124600</v>
       </c>
-      <c r="H8" s="3">
-        <v>0</v>
-      </c>
       <c r="I8" s="3">
         <v>0</v>
       </c>
@@ -762,26 +765,29 @@
       <c r="N8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>389300</v>
+      </c>
+      <c r="E9" s="3">
         <v>181500</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>91900</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>84200</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>116300</v>
       </c>
-      <c r="H9" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="I9" s="3" t="s">
         <v>5</v>
       </c>
@@ -800,26 +806,29 @@
       <c r="N9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>16100</v>
+      </c>
+      <c r="E10" s="3">
         <v>8300</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>7000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>6800</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>8300</v>
       </c>
-      <c r="H10" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="I10" s="3" t="s">
         <v>5</v>
       </c>
@@ -838,8 +847,11 @@
       <c r="N10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -854,8 +866,9 @@
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O11" s="3"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -892,8 +905,11 @@
       <c r="N12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -930,35 +946,38 @@
       <c r="N13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>0</v>
+      </c>
+      <c r="E14" s="3">
         <v>-1100</v>
       </c>
-      <c r="E14" s="3">
-        <v>0</v>
-      </c>
       <c r="F14" s="3">
+        <v>0</v>
+      </c>
+      <c r="G14" s="3">
         <v>-1600</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>1100</v>
       </c>
-      <c r="H14" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="I14" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="J14" s="3">
+      <c r="J14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K14" s="3">
         <v>200</v>
       </c>
-      <c r="K14" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="L14" s="3" t="s">
         <v>5</v>
       </c>
@@ -968,8 +987,11 @@
       <c r="N14" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O14" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -985,8 +1007,8 @@
       <c r="G15" s="3">
         <v>200</v>
       </c>
-      <c r="H15" s="3" t="s">
-        <v>5</v>
+      <c r="H15" s="3">
+        <v>200</v>
       </c>
       <c r="I15" s="3" t="s">
         <v>5</v>
@@ -1006,8 +1028,11 @@
       <c r="N15" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O15" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1019,35 +1044,36 @@
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
-    </row>
-    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O16" s="3"/>
+    </row>
+    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>396800</v>
+      </c>
+      <c r="E17" s="3">
         <v>185400</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>98200</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>89000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>122700</v>
       </c>
-      <c r="H17" s="3">
-        <v>0</v>
-      </c>
       <c r="I17" s="3">
         <v>0</v>
       </c>
       <c r="J17" s="3">
+        <v>0</v>
+      </c>
+      <c r="K17" s="3">
         <v>200</v>
       </c>
-      <c r="K17" s="3">
-        <v>0</v>
-      </c>
       <c r="L17" s="3">
         <v>0</v>
       </c>
@@ -1055,37 +1081,40 @@
         <v>0</v>
       </c>
       <c r="N17" s="3">
+        <v>0</v>
+      </c>
+      <c r="O17" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>8600</v>
+      </c>
+      <c r="E18" s="3">
         <v>4400</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>700</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>2000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>1900</v>
       </c>
-      <c r="H18" s="3">
-        <v>0</v>
-      </c>
       <c r="I18" s="3">
         <v>0</v>
       </c>
       <c r="J18" s="3">
+        <v>0</v>
+      </c>
+      <c r="K18" s="3">
         <v>-200</v>
       </c>
-      <c r="K18" s="3">
-        <v>0</v>
-      </c>
       <c r="L18" s="3">
         <v>0</v>
       </c>
@@ -1093,10 +1122,13 @@
         <v>0</v>
       </c>
       <c r="N18" s="3">
+        <v>0</v>
+      </c>
+      <c r="O18" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1111,8 +1143,9 @@
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
-    </row>
-    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O19" s="3"/>
+    </row>
+    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1149,23 +1182,26 @@
       <c r="N20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>8900</v>
+      </c>
+      <c r="E21" s="3">
         <v>4500</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>900</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>2100</v>
       </c>
-      <c r="G21" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="H21" s="3" t="s">
         <v>5</v>
       </c>
@@ -1187,26 +1223,29 @@
       <c r="N21" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O21" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>2300</v>
+      </c>
+      <c r="E22" s="3">
         <v>1700</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>900</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>600</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>200</v>
       </c>
-      <c r="H22" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="I22" s="3" t="s">
         <v>5</v>
       </c>
@@ -1219,41 +1258,44 @@
       <c r="L22" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="M22" s="3">
-        <v>0</v>
+      <c r="M22" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="N22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>6400</v>
+      </c>
+      <c r="E23" s="3">
         <v>2700</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-200</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>1300</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>1700</v>
       </c>
-      <c r="H23" s="3">
-        <v>0</v>
-      </c>
       <c r="I23" s="3">
         <v>0</v>
       </c>
       <c r="J23" s="3">
+        <v>0</v>
+      </c>
+      <c r="K23" s="3">
         <v>-200</v>
       </c>
-      <c r="K23" s="3">
-        <v>0</v>
-      </c>
       <c r="L23" s="3">
         <v>0</v>
       </c>
@@ -1261,28 +1303,31 @@
         <v>0</v>
       </c>
       <c r="N23" s="3">
+        <v>0</v>
+      </c>
+      <c r="O23" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>1900</v>
+      </c>
+      <c r="E24" s="3">
         <v>600</v>
-      </c>
-      <c r="E24" s="3">
-        <v>100</v>
       </c>
       <c r="F24" s="3">
         <v>100</v>
       </c>
       <c r="G24" s="3">
+        <v>100</v>
+      </c>
+      <c r="H24" s="3">
         <v>300</v>
       </c>
-      <c r="H24" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="I24" s="3" t="s">
         <v>5</v>
       </c>
@@ -1301,8 +1346,11 @@
       <c r="N24" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O24" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1339,35 +1387,38 @@
       <c r="N25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>4500</v>
+      </c>
+      <c r="E26" s="3">
         <v>2000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-400</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>1300</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>1400</v>
       </c>
-      <c r="H26" s="3">
-        <v>0</v>
-      </c>
       <c r="I26" s="3">
         <v>0</v>
       </c>
       <c r="J26" s="3">
+        <v>0</v>
+      </c>
+      <c r="K26" s="3">
         <v>-200</v>
       </c>
-      <c r="K26" s="3">
-        <v>0</v>
-      </c>
       <c r="L26" s="3">
         <v>0</v>
       </c>
@@ -1375,37 +1426,40 @@
         <v>0</v>
       </c>
       <c r="N26" s="3">
+        <v>0</v>
+      </c>
+      <c r="O26" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>4500</v>
+      </c>
+      <c r="E27" s="3">
         <v>2000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-400</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>1300</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>1400</v>
       </c>
-      <c r="H27" s="3">
-        <v>0</v>
-      </c>
       <c r="I27" s="3">
         <v>0</v>
       </c>
       <c r="J27" s="3">
+        <v>0</v>
+      </c>
+      <c r="K27" s="3">
         <v>-200</v>
       </c>
-      <c r="K27" s="3">
-        <v>0</v>
-      </c>
       <c r="L27" s="3">
         <v>0</v>
       </c>
@@ -1413,10 +1467,13 @@
         <v>0</v>
       </c>
       <c r="N27" s="3">
+        <v>0</v>
+      </c>
+      <c r="O27" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1453,8 +1510,11 @@
       <c r="N28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1491,8 +1551,11 @@
       <c r="N29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1529,8 +1592,11 @@
       <c r="N30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1567,8 +1633,11 @@
       <c r="N31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1605,35 +1674,38 @@
       <c r="N32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>4500</v>
+      </c>
+      <c r="E33" s="3">
         <v>2000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-400</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>1300</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>1400</v>
       </c>
-      <c r="H33" s="3">
-        <v>0</v>
-      </c>
       <c r="I33" s="3">
         <v>0</v>
       </c>
       <c r="J33" s="3">
+        <v>0</v>
+      </c>
+      <c r="K33" s="3">
         <v>-200</v>
       </c>
-      <c r="K33" s="3">
-        <v>0</v>
-      </c>
       <c r="L33" s="3">
         <v>0</v>
       </c>
@@ -1641,10 +1713,13 @@
         <v>0</v>
       </c>
       <c r="N33" s="3">
+        <v>0</v>
+      </c>
+      <c r="O33" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1681,35 +1756,38 @@
       <c r="N34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>4500</v>
+      </c>
+      <c r="E35" s="3">
         <v>2000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-400</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>1300</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>1400</v>
       </c>
-      <c r="H35" s="3">
-        <v>0</v>
-      </c>
       <c r="I35" s="3">
         <v>0</v>
       </c>
       <c r="J35" s="3">
+        <v>0</v>
+      </c>
+      <c r="K35" s="3">
         <v>-200</v>
       </c>
-      <c r="K35" s="3">
-        <v>0</v>
-      </c>
       <c r="L35" s="3">
         <v>0</v>
       </c>
@@ -1717,53 +1795,59 @@
         <v>0</v>
       </c>
       <c r="N35" s="3">
+        <v>0</v>
+      </c>
+      <c r="O35" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44530</v>
+      </c>
+      <c r="E38" s="2">
         <v>44439</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44347</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44255</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44165</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44043</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43951</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43861</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43769</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43677</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43585</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43496</v>
       </c>
     </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1778,8 +1862,9 @@
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
-    </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O39" s="3"/>
+    </row>
+    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1794,26 +1879,27 @@
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
-    </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O40" s="3"/>
+    </row>
+    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>300</v>
+        <v>800</v>
       </c>
       <c r="E41" s="3">
         <v>300</v>
       </c>
       <c r="F41" s="3">
+        <v>300</v>
+      </c>
+      <c r="G41" s="3">
         <v>1400</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>3500</v>
       </c>
-      <c r="H41" s="3">
-        <v>0</v>
-      </c>
       <c r="I41" s="3">
         <v>0</v>
       </c>
@@ -1832,8 +1918,11 @@
       <c r="N41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1870,26 +1959,29 @@
       <c r="N42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>192600</v>
+      </c>
+      <c r="E43" s="3">
         <v>118600</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>43800</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>41100</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>39600</v>
       </c>
-      <c r="H43" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="I43" s="3" t="s">
         <v>5</v>
       </c>
@@ -1908,8 +2000,11 @@
       <c r="N43" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O43" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1946,28 +2041,31 @@
       <c r="N44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E45" s="3">
         <v>600</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>8400</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>2500</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>8300</v>
       </c>
-      <c r="H45" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I45" s="3">
-        <v>0</v>
+      <c r="I45" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="J45" s="3">
         <v>0</v>
@@ -1984,26 +2082,29 @@
       <c r="N45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>194400</v>
+      </c>
+      <c r="E46" s="3">
         <v>119600</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>52400</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>45000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>51500</v>
       </c>
-      <c r="H46" s="3">
-        <v>0</v>
-      </c>
       <c r="I46" s="3">
         <v>0</v>
       </c>
@@ -2022,34 +2123,37 @@
       <c r="N46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D47" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E47" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F47" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G47" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H47" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I47" s="3" t="s">
-        <v>5</v>
+      <c r="D47" s="3">
+        <v>0</v>
+      </c>
+      <c r="E47" s="3">
+        <v>0</v>
+      </c>
+      <c r="F47" s="3">
+        <v>0</v>
+      </c>
+      <c r="G47" s="3">
+        <v>0</v>
+      </c>
+      <c r="H47" s="3">
+        <v>0</v>
+      </c>
+      <c r="I47" s="3">
+        <v>0</v>
       </c>
       <c r="J47" s="3">
         <v>0</v>
       </c>
       <c r="K47" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="L47" s="3">
         <v>200</v>
@@ -2060,26 +2164,29 @@
       <c r="N47" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O47" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>3300</v>
+      </c>
+      <c r="E48" s="3">
         <v>3600</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>4000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>4100</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>4500</v>
       </c>
-      <c r="H48" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="I48" s="3" t="s">
         <v>5</v>
       </c>
@@ -2098,26 +2205,29 @@
       <c r="N48" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O48" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>12200</v>
+      </c>
+      <c r="E49" s="3">
         <v>12300</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>12500</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>12700</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>13200</v>
       </c>
-      <c r="H49" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="I49" s="3" t="s">
         <v>5</v>
       </c>
@@ -2136,8 +2246,11 @@
       <c r="N49" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O49" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2174,8 +2287,11 @@
       <c r="N50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2212,26 +2328,29 @@
       <c r="N51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>900</v>
+      </c>
+      <c r="E52" s="3">
         <v>500</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>600</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>400</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>500</v>
       </c>
-      <c r="H52" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="I52" s="3" t="s">
         <v>5</v>
       </c>
@@ -2250,8 +2369,11 @@
       <c r="N52" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O52" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2288,26 +2410,29 @@
       <c r="N53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>210700</v>
+      </c>
+      <c r="E54" s="3">
         <v>136000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>69500</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>62200</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>69700</v>
       </c>
-      <c r="H54" s="3">
-        <v>0</v>
-      </c>
       <c r="I54" s="3">
         <v>0</v>
       </c>
@@ -2315,7 +2440,7 @@
         <v>0</v>
       </c>
       <c r="K54" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="L54" s="3">
         <v>200</v>
@@ -2326,8 +2451,11 @@
       <c r="N54" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O54" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2342,8 +2470,9 @@
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
-    </row>
-    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O55" s="3"/>
+    </row>
+    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2358,26 +2487,27 @@
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
-    </row>
-    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O56" s="3"/>
+    </row>
+    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>76000</v>
+      </c>
+      <c r="E57" s="3">
         <v>48500</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>41400</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>35800</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>38800</v>
       </c>
-      <c r="H57" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="I57" s="3" t="s">
         <v>5</v>
       </c>
@@ -2396,35 +2526,38 @@
       <c r="N57" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O57" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>34000</v>
+      </c>
+      <c r="E58" s="3">
         <v>42900</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>2700</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>5300</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>9700</v>
-      </c>
-      <c r="H58" s="3">
-        <v>300</v>
       </c>
       <c r="I58" s="3">
         <v>300</v>
       </c>
       <c r="J58" s="3">
+        <v>300</v>
+      </c>
+      <c r="K58" s="3">
         <v>200</v>
       </c>
-      <c r="K58" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="L58" s="3" t="s">
         <v>5</v>
       </c>
@@ -2434,25 +2567,28 @@
       <c r="N58" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O58" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>81700</v>
+      </c>
+      <c r="E59" s="3">
         <v>29900</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>11900</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>9000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>11700</v>
-      </c>
-      <c r="H59" s="3">
-        <v>600</v>
       </c>
       <c r="I59" s="3">
         <v>600</v>
@@ -2461,36 +2597,39 @@
         <v>600</v>
       </c>
       <c r="K59" s="3">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="L59" s="3">
         <v>800</v>
       </c>
       <c r="M59" s="3">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="N59" s="3">
         <v>700</v>
       </c>
-    </row>
-    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O59" s="3">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>191600</v>
+      </c>
+      <c r="E60" s="3">
         <v>121300</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>55900</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>50100</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>60200</v>
-      </c>
-      <c r="H60" s="3">
-        <v>800</v>
       </c>
       <c r="I60" s="3">
         <v>800</v>
@@ -2505,31 +2644,34 @@
         <v>800</v>
       </c>
       <c r="M60" s="3">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="N60" s="3">
         <v>700</v>
       </c>
-    </row>
-    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O60" s="3">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>3500</v>
+      </c>
+      <c r="E61" s="3">
         <v>3400</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>3900</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>2000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>1800</v>
       </c>
-      <c r="H61" s="3">
-        <v>0</v>
-      </c>
       <c r="I61" s="3">
         <v>0</v>
       </c>
@@ -2548,26 +2690,29 @@
       <c r="N61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>2200</v>
+      </c>
+      <c r="E62" s="3">
         <v>2600</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>3000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>3200</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>3700</v>
       </c>
-      <c r="H62" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="I62" s="3" t="s">
         <v>5</v>
       </c>
@@ -2586,8 +2731,11 @@
       <c r="N62" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O62" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2624,8 +2772,11 @@
       <c r="N63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2662,8 +2813,11 @@
       <c r="N64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2700,25 +2854,28 @@
       <c r="N65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>197400</v>
+      </c>
+      <c r="E66" s="3">
         <v>127200</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>62800</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>55300</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>65700</v>
-      </c>
-      <c r="H66" s="3">
-        <v>800</v>
       </c>
       <c r="I66" s="3">
         <v>800</v>
@@ -2733,13 +2890,16 @@
         <v>800</v>
       </c>
       <c r="M66" s="3">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="N66" s="3">
         <v>700</v>
       </c>
-    </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O66" s="3">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2754,8 +2914,9 @@
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
-    </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O67" s="3"/>
+    </row>
+    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2792,8 +2953,11 @@
       <c r="N68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2830,8 +2994,11 @@
       <c r="N69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2868,8 +3035,11 @@
       <c r="N70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2906,25 +3076,28 @@
       <c r="N71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>7800</v>
+      </c>
+      <c r="E72" s="3">
         <v>3300</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>1300</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>1700</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>400</v>
-      </c>
-      <c r="H72" s="3">
-        <v>-1700</v>
       </c>
       <c r="I72" s="3">
         <v>-1700</v>
@@ -2933,19 +3106,22 @@
         <v>-1700</v>
       </c>
       <c r="K72" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="L72" s="3">
         <v>-1500</v>
-      </c>
-      <c r="L72" s="3">
-        <v>-1400</v>
       </c>
       <c r="M72" s="3">
         <v>-1400</v>
       </c>
       <c r="N72" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="O72" s="3">
         <v>-1300</v>
       </c>
     </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2982,8 +3158,11 @@
       <c r="N73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3020,8 +3199,11 @@
       <c r="N74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3058,25 +3240,28 @@
       <c r="N75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>13400</v>
+      </c>
+      <c r="E76" s="3">
         <v>8800</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>6600</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>6900</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>3900</v>
-      </c>
-      <c r="H76" s="3">
-        <v>-800</v>
       </c>
       <c r="I76" s="3">
         <v>-800</v>
@@ -3085,19 +3270,22 @@
         <v>-800</v>
       </c>
       <c r="K76" s="3">
-        <v>-600</v>
+        <v>-800</v>
       </c>
       <c r="L76" s="3">
         <v>-600</v>
       </c>
       <c r="M76" s="3">
-        <v>-500</v>
+        <v>-600</v>
       </c>
       <c r="N76" s="3">
         <v>-500</v>
       </c>
-    </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O76" s="3">
+        <v>-500</v>
+      </c>
+    </row>
+    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3134,78 +3322,84 @@
       <c r="N77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44530</v>
+      </c>
+      <c r="E80" s="2">
         <v>44439</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44347</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44255</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44165</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44043</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43951</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43861</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43769</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43677</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43585</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43496</v>
       </c>
     </row>
-    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>4500</v>
+      </c>
+      <c r="E81" s="3">
         <v>2000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-400</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>1300</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>1400</v>
       </c>
-      <c r="H81" s="3">
-        <v>0</v>
-      </c>
       <c r="I81" s="3">
         <v>0</v>
       </c>
       <c r="J81" s="3">
+        <v>0</v>
+      </c>
+      <c r="K81" s="3">
         <v>-200</v>
       </c>
-      <c r="K81" s="3">
-        <v>0</v>
-      </c>
       <c r="L81" s="3">
         <v>0</v>
       </c>
@@ -3213,10 +3407,13 @@
         <v>0</v>
       </c>
       <c r="N81" s="3">
+        <v>0</v>
+      </c>
+      <c r="O81" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3231,8 +3428,9 @@
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
-    </row>
-    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O82" s="3"/>
+    </row>
+    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3245,8 +3443,8 @@
       <c r="F83" s="3">
         <v>200</v>
       </c>
-      <c r="G83" s="3" t="s">
-        <v>5</v>
+      <c r="G83" s="3">
+        <v>200</v>
       </c>
       <c r="H83" s="3" t="s">
         <v>5</v>
@@ -3263,14 +3461,17 @@
       <c r="L83" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="M83" s="3">
-        <v>0</v>
+      <c r="M83" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="N83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3307,8 +3508,11 @@
       <c r="N84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3345,8 +3549,11 @@
       <c r="N85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3383,8 +3590,11 @@
       <c r="N86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3421,8 +3631,11 @@
       <c r="N87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3459,26 +3672,29 @@
       <c r="N88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>10000</v>
+      </c>
+      <c r="E89" s="3">
         <v>-40400</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>400</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-1200</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>600</v>
       </c>
-      <c r="H89" s="3">
-        <v>0</v>
-      </c>
       <c r="I89" s="3">
         <v>0</v>
       </c>
@@ -3497,8 +3713,11 @@
       <c r="N89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3513,8 +3732,9 @@
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
-    </row>
-    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O90" s="3"/>
+    </row>
+    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3527,8 +3747,8 @@
       <c r="F91" s="3">
         <v>0</v>
       </c>
-      <c r="G91" s="3" t="s">
-        <v>5</v>
+      <c r="G91" s="3">
+        <v>0</v>
       </c>
       <c r="H91" s="3" t="s">
         <v>5</v>
@@ -3545,14 +3765,17 @@
       <c r="L91" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="M91" s="3">
-        <v>0</v>
+      <c r="M91" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="N91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3589,8 +3812,11 @@
       <c r="N92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3627,8 +3853,11 @@
       <c r="N93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -3641,8 +3870,8 @@
       <c r="F94" s="3">
         <v>0</v>
       </c>
-      <c r="G94" s="3" t="s">
-        <v>5</v>
+      <c r="G94" s="3">
+        <v>0</v>
       </c>
       <c r="H94" s="3" t="s">
         <v>5</v>
@@ -3662,11 +3891,14 @@
       <c r="M94" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="N94" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3681,8 +3913,9 @@
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
-    </row>
-    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O95" s="3"/>
+    </row>
+    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3719,8 +3952,11 @@
       <c r="N96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3757,8 +3993,11 @@
       <c r="N97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3795,8 +4034,11 @@
       <c r="N98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3833,26 +4075,29 @@
       <c r="N99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-9400</v>
+      </c>
+      <c r="E100" s="3">
         <v>40500</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-1500</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-1000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>1600</v>
       </c>
-      <c r="H100" s="3">
-        <v>0</v>
-      </c>
       <c r="I100" s="3">
         <v>0</v>
       </c>
@@ -3868,11 +4113,14 @@
       <c r="M100" s="3">
         <v>0</v>
       </c>
-      <c r="N100" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N100" s="3">
+        <v>0</v>
+      </c>
+      <c r="O100" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3909,26 +4157,29 @@
       <c r="N101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="E102" s="3">
+        <v>0</v>
+      </c>
+      <c r="F102" s="3">
         <v>-1100</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-2100</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>2200</v>
       </c>
-      <c r="H102" s="3">
-        <v>0</v>
-      </c>
       <c r="I102" s="3">
         <v>0</v>
       </c>
@@ -3945,6 +4196,9 @@
         <v>0</v>
       </c>
       <c r="N102" s="3">
+        <v>0</v>
+      </c>
+      <c r="O102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/UNQL_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/UNQL_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="92">
   <si>
     <t>UNQL</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:O102"/>
+  <dimension ref="A5:P102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,91 +665,95 @@
     <col min="1" max="1" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44620</v>
+      </c>
+      <c r="E7" s="2">
         <v>44530</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44439</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44347</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44255</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44165</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44043</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43951</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43861</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43769</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43677</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43585</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43496</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>250400</v>
+      </c>
+      <c r="E8" s="3">
         <v>405400</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>189800</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>98900</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>91000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>124600</v>
       </c>
-      <c r="I8" s="3">
-        <v>0</v>
-      </c>
       <c r="J8" s="3">
         <v>0</v>
       </c>
@@ -768,29 +772,32 @@
       <c r="O8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>243300</v>
+      </c>
+      <c r="E9" s="3">
         <v>389300</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>181500</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>91900</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>84200</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>116300</v>
       </c>
-      <c r="I9" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="J9" s="3" t="s">
         <v>5</v>
       </c>
@@ -809,29 +816,32 @@
       <c r="O9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>7100</v>
+      </c>
+      <c r="E10" s="3">
         <v>16100</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>8300</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>7000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>6800</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>8300</v>
       </c>
-      <c r="I10" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="J10" s="3" t="s">
         <v>5</v>
       </c>
@@ -850,8 +860,11 @@
       <c r="O10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -867,8 +880,9 @@
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P11" s="3"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -908,8 +922,11 @@
       <c r="O12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -949,38 +966,41 @@
       <c r="O13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>0</v>
+        <v>1300</v>
       </c>
       <c r="E14" s="3">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3">
         <v>-1100</v>
       </c>
-      <c r="F14" s="3">
-        <v>0</v>
-      </c>
       <c r="G14" s="3">
+        <v>0</v>
+      </c>
+      <c r="H14" s="3">
         <v>-1600</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>1100</v>
       </c>
-      <c r="I14" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="J14" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K14" s="3">
+      <c r="K14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L14" s="3">
         <v>200</v>
       </c>
-      <c r="L14" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="M14" s="3" t="s">
         <v>5</v>
       </c>
@@ -990,8 +1010,11 @@
       <c r="O14" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P14" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1010,8 +1033,8 @@
       <c r="H15" s="3">
         <v>200</v>
       </c>
-      <c r="I15" s="3" t="s">
-        <v>5</v>
+      <c r="I15" s="3">
+        <v>200</v>
       </c>
       <c r="J15" s="3" t="s">
         <v>5</v>
@@ -1031,8 +1054,11 @@
       <c r="O15" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P15" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1045,38 +1071,39 @@
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
-    </row>
-    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P16" s="3"/>
+    </row>
+    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>249500</v>
+      </c>
+      <c r="E17" s="3">
         <v>396800</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>185400</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>98200</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>89000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>122700</v>
       </c>
-      <c r="I17" s="3">
-        <v>0</v>
-      </c>
       <c r="J17" s="3">
         <v>0</v>
       </c>
       <c r="K17" s="3">
+        <v>0</v>
+      </c>
+      <c r="L17" s="3">
         <v>200</v>
       </c>
-      <c r="L17" s="3">
-        <v>0</v>
-      </c>
       <c r="M17" s="3">
         <v>0</v>
       </c>
@@ -1084,40 +1111,43 @@
         <v>0</v>
       </c>
       <c r="O17" s="3">
+        <v>0</v>
+      </c>
+      <c r="P17" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>900</v>
+      </c>
+      <c r="E18" s="3">
         <v>8600</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>4400</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>700</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>2000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>1900</v>
       </c>
-      <c r="I18" s="3">
-        <v>0</v>
-      </c>
       <c r="J18" s="3">
         <v>0</v>
       </c>
       <c r="K18" s="3">
+        <v>0</v>
+      </c>
+      <c r="L18" s="3">
         <v>-200</v>
       </c>
-      <c r="L18" s="3">
-        <v>0</v>
-      </c>
       <c r="M18" s="3">
         <v>0</v>
       </c>
@@ -1125,10 +1155,13 @@
         <v>0</v>
       </c>
       <c r="O18" s="3">
+        <v>0</v>
+      </c>
+      <c r="P18" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1144,13 +1177,14 @@
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
-    </row>
-    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P19" s="3"/>
+    </row>
+    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>0</v>
+        <v>-4200</v>
       </c>
       <c r="E20" s="3">
         <v>0</v>
@@ -1185,26 +1219,29 @@
       <c r="O20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-3100</v>
+      </c>
+      <c r="E21" s="3">
         <v>8900</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>4500</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>900</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>2100</v>
       </c>
-      <c r="H21" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="I21" s="3" t="s">
         <v>5</v>
       </c>
@@ -1226,29 +1263,32 @@
       <c r="O21" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P21" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E22" s="3">
         <v>2300</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>1700</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>900</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>600</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>200</v>
       </c>
-      <c r="I22" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="J22" s="3" t="s">
         <v>5</v>
       </c>
@@ -1261,44 +1301,47 @@
       <c r="M22" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="N22" s="3">
-        <v>0</v>
+      <c r="N22" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="O22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-4700</v>
+      </c>
+      <c r="E23" s="3">
         <v>6400</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>2700</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-200</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>1300</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>1700</v>
       </c>
-      <c r="I23" s="3">
-        <v>0</v>
-      </c>
       <c r="J23" s="3">
         <v>0</v>
       </c>
       <c r="K23" s="3">
+        <v>0</v>
+      </c>
+      <c r="L23" s="3">
         <v>-200</v>
       </c>
-      <c r="L23" s="3">
-        <v>0</v>
-      </c>
       <c r="M23" s="3">
         <v>0</v>
       </c>
@@ -1306,31 +1349,34 @@
         <v>0</v>
       </c>
       <c r="O23" s="3">
+        <v>0</v>
+      </c>
+      <c r="P23" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>200</v>
+      </c>
+      <c r="E24" s="3">
         <v>1900</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>600</v>
-      </c>
-      <c r="F24" s="3">
-        <v>100</v>
       </c>
       <c r="G24" s="3">
         <v>100</v>
       </c>
       <c r="H24" s="3">
+        <v>100</v>
+      </c>
+      <c r="I24" s="3">
         <v>300</v>
       </c>
-      <c r="I24" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="J24" s="3" t="s">
         <v>5</v>
       </c>
@@ -1349,8 +1395,11 @@
       <c r="O24" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P24" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1390,38 +1439,41 @@
       <c r="O25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-4900</v>
+      </c>
+      <c r="E26" s="3">
         <v>4500</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>2000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-400</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>1300</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>1400</v>
       </c>
-      <c r="I26" s="3">
-        <v>0</v>
-      </c>
       <c r="J26" s="3">
         <v>0</v>
       </c>
       <c r="K26" s="3">
+        <v>0</v>
+      </c>
+      <c r="L26" s="3">
         <v>-200</v>
       </c>
-      <c r="L26" s="3">
-        <v>0</v>
-      </c>
       <c r="M26" s="3">
         <v>0</v>
       </c>
@@ -1429,40 +1481,43 @@
         <v>0</v>
       </c>
       <c r="O26" s="3">
+        <v>0</v>
+      </c>
+      <c r="P26" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-9500</v>
+      </c>
+      <c r="E27" s="3">
         <v>4500</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>2000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-400</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>1300</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>1400</v>
       </c>
-      <c r="I27" s="3">
-        <v>0</v>
-      </c>
       <c r="J27" s="3">
         <v>0</v>
       </c>
       <c r="K27" s="3">
+        <v>0</v>
+      </c>
+      <c r="L27" s="3">
         <v>-200</v>
       </c>
-      <c r="L27" s="3">
-        <v>0</v>
-      </c>
       <c r="M27" s="3">
         <v>0</v>
       </c>
@@ -1470,10 +1525,13 @@
         <v>0</v>
       </c>
       <c r="O27" s="3">
+        <v>0</v>
+      </c>
+      <c r="P27" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1513,8 +1571,11 @@
       <c r="O28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1554,8 +1615,11 @@
       <c r="O29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1595,8 +1659,11 @@
       <c r="O30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1636,13 +1703,16 @@
       <c r="O31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>0</v>
+        <v>4200</v>
       </c>
       <c r="E32" s="3">
         <v>0</v>
@@ -1677,38 +1747,41 @@
       <c r="O32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-9500</v>
+      </c>
+      <c r="E33" s="3">
         <v>4500</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>2000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-400</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>1300</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>1400</v>
       </c>
-      <c r="I33" s="3">
-        <v>0</v>
-      </c>
       <c r="J33" s="3">
         <v>0</v>
       </c>
       <c r="K33" s="3">
+        <v>0</v>
+      </c>
+      <c r="L33" s="3">
         <v>-200</v>
       </c>
-      <c r="L33" s="3">
-        <v>0</v>
-      </c>
       <c r="M33" s="3">
         <v>0</v>
       </c>
@@ -1716,10 +1789,13 @@
         <v>0</v>
       </c>
       <c r="O33" s="3">
+        <v>0</v>
+      </c>
+      <c r="P33" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1759,38 +1835,41 @@
       <c r="O34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-9500</v>
+      </c>
+      <c r="E35" s="3">
         <v>4500</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>2000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-400</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>1300</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>1400</v>
       </c>
-      <c r="I35" s="3">
-        <v>0</v>
-      </c>
       <c r="J35" s="3">
         <v>0</v>
       </c>
       <c r="K35" s="3">
+        <v>0</v>
+      </c>
+      <c r="L35" s="3">
         <v>-200</v>
       </c>
-      <c r="L35" s="3">
-        <v>0</v>
-      </c>
       <c r="M35" s="3">
         <v>0</v>
       </c>
@@ -1798,56 +1877,62 @@
         <v>0</v>
       </c>
       <c r="O35" s="3">
+        <v>0</v>
+      </c>
+      <c r="P35" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44620</v>
+      </c>
+      <c r="E38" s="2">
         <v>44530</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44439</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44347</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44255</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44165</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44043</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43951</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43861</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43769</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43677</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43585</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43496</v>
       </c>
     </row>
-    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1863,8 +1948,9 @@
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
-    </row>
-    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P39" s="3"/>
+    </row>
+    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1880,29 +1966,30 @@
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
-    </row>
-    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P40" s="3"/>
+    </row>
+    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E41" s="3">
         <v>800</v>
-      </c>
-      <c r="E41" s="3">
-        <v>300</v>
       </c>
       <c r="F41" s="3">
         <v>300</v>
       </c>
       <c r="G41" s="3">
+        <v>300</v>
+      </c>
+      <c r="H41" s="3">
         <v>1400</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>3500</v>
       </c>
-      <c r="I41" s="3">
-        <v>0</v>
-      </c>
       <c r="J41" s="3">
         <v>0</v>
       </c>
@@ -1921,8 +2008,11 @@
       <c r="O41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1962,29 +2052,32 @@
       <c r="O42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>138500</v>
+      </c>
+      <c r="E43" s="3">
         <v>192600</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>118600</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>43800</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>41100</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>39600</v>
       </c>
-      <c r="I43" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="J43" s="3" t="s">
         <v>5</v>
       </c>
@@ -2003,8 +2096,11 @@
       <c r="O43" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P43" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2044,31 +2140,34 @@
       <c r="O44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>500</v>
+      </c>
+      <c r="E45" s="3">
         <v>1000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>600</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>8400</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>2500</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>8300</v>
       </c>
-      <c r="I45" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J45" s="3">
-        <v>0</v>
+      <c r="J45" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="K45" s="3">
         <v>0</v>
@@ -2085,29 +2184,32 @@
       <c r="O45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>140000</v>
+      </c>
+      <c r="E46" s="3">
         <v>194400</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>119600</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>52400</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>45000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>51500</v>
       </c>
-      <c r="I46" s="3">
-        <v>0</v>
-      </c>
       <c r="J46" s="3">
         <v>0</v>
       </c>
@@ -2126,8 +2228,11 @@
       <c r="O46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2156,7 +2261,7 @@
         <v>0</v>
       </c>
       <c r="L47" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="M47" s="3">
         <v>200</v>
@@ -2167,29 +2272,32 @@
       <c r="O47" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P47" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>2900</v>
+      </c>
+      <c r="E48" s="3">
         <v>3300</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>3600</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>4000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>4100</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>4500</v>
       </c>
-      <c r="I48" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="J48" s="3" t="s">
         <v>5</v>
       </c>
@@ -2208,29 +2316,32 @@
       <c r="O48" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P48" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>12000</v>
+      </c>
+      <c r="E49" s="3">
         <v>12200</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>12300</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>12500</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>12700</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>13200</v>
       </c>
-      <c r="I49" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="J49" s="3" t="s">
         <v>5</v>
       </c>
@@ -2249,8 +2360,11 @@
       <c r="O49" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P49" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2290,8 +2404,11 @@
       <c r="O50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2331,29 +2448,32 @@
       <c r="O51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>500</v>
+      </c>
+      <c r="E52" s="3">
         <v>900</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>500</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>600</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>400</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>500</v>
       </c>
-      <c r="I52" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="J52" s="3" t="s">
         <v>5</v>
       </c>
@@ -2372,8 +2492,11 @@
       <c r="O52" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P52" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2413,29 +2536,32 @@
       <c r="O53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>155400</v>
+      </c>
+      <c r="E54" s="3">
         <v>210700</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>136000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>69500</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>62200</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>69700</v>
       </c>
-      <c r="I54" s="3">
-        <v>0</v>
-      </c>
       <c r="J54" s="3">
         <v>0</v>
       </c>
@@ -2443,7 +2569,7 @@
         <v>0</v>
       </c>
       <c r="L54" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="M54" s="3">
         <v>200</v>
@@ -2454,8 +2580,11 @@
       <c r="O54" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P54" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2471,8 +2600,9 @@
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
-    </row>
-    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P55" s="3"/>
+    </row>
+    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2488,29 +2618,30 @@
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
-    </row>
-    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P56" s="3"/>
+    </row>
+    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>59000</v>
+      </c>
+      <c r="E57" s="3">
         <v>76000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>48500</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>41400</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>35800</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>38800</v>
       </c>
-      <c r="I57" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="J57" s="3" t="s">
         <v>5</v>
       </c>
@@ -2529,38 +2660,41 @@
       <c r="O57" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P57" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>45700</v>
+      </c>
+      <c r="E58" s="3">
         <v>34000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>42900</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>2700</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>5300</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>9700</v>
-      </c>
-      <c r="I58" s="3">
-        <v>300</v>
       </c>
       <c r="J58" s="3">
         <v>300</v>
       </c>
       <c r="K58" s="3">
+        <v>300</v>
+      </c>
+      <c r="L58" s="3">
         <v>200</v>
       </c>
-      <c r="L58" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="M58" s="3" t="s">
         <v>5</v>
       </c>
@@ -2570,28 +2704,31 @@
       <c r="O58" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P58" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>43500</v>
+      </c>
+      <c r="E59" s="3">
         <v>81700</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>29900</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>11900</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>9000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>11700</v>
-      </c>
-      <c r="I59" s="3">
-        <v>600</v>
       </c>
       <c r="J59" s="3">
         <v>600</v>
@@ -2600,39 +2737,42 @@
         <v>600</v>
       </c>
       <c r="L59" s="3">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="M59" s="3">
         <v>800</v>
       </c>
       <c r="N59" s="3">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="O59" s="3">
         <v>700</v>
       </c>
-    </row>
-    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P59" s="3">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>148200</v>
+      </c>
+      <c r="E60" s="3">
         <v>191600</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>121300</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>55900</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>50100</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>60200</v>
-      </c>
-      <c r="I60" s="3">
-        <v>800</v>
       </c>
       <c r="J60" s="3">
         <v>800</v>
@@ -2647,34 +2787,37 @@
         <v>800</v>
       </c>
       <c r="N60" s="3">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="O60" s="3">
         <v>700</v>
       </c>
-    </row>
-    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P60" s="3">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E61" s="3">
         <v>3500</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>3400</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>3900</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>2000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>1800</v>
       </c>
-      <c r="I61" s="3">
-        <v>0</v>
-      </c>
       <c r="J61" s="3">
         <v>0</v>
       </c>
@@ -2693,29 +2836,32 @@
       <c r="O61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E62" s="3">
         <v>2200</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>2600</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>3000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>3200</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>3700</v>
       </c>
-      <c r="I62" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="J62" s="3" t="s">
         <v>5</v>
       </c>
@@ -2734,8 +2880,11 @@
       <c r="O62" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P62" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2775,8 +2924,11 @@
       <c r="O63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2816,8 +2968,11 @@
       <c r="O64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2857,28 +3012,31 @@
       <c r="O65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>151500</v>
+      </c>
+      <c r="E66" s="3">
         <v>197400</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>127200</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>62800</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>55300</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>65700</v>
-      </c>
-      <c r="I66" s="3">
-        <v>800</v>
       </c>
       <c r="J66" s="3">
         <v>800</v>
@@ -2893,13 +3051,16 @@
         <v>800</v>
       </c>
       <c r="N66" s="3">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="O66" s="3">
         <v>700</v>
       </c>
-    </row>
-    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P66" s="3">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2915,8 +3076,9 @@
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
-    </row>
-    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P67" s="3"/>
+    </row>
+    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2956,8 +3118,11 @@
       <c r="O68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2997,8 +3162,11 @@
       <c r="O69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3038,8 +3206,11 @@
       <c r="O70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3079,28 +3250,31 @@
       <c r="O71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>2900</v>
+      </c>
+      <c r="E72" s="3">
         <v>7800</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>3300</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>1300</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>1700</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>400</v>
-      </c>
-      <c r="I72" s="3">
-        <v>-1700</v>
       </c>
       <c r="J72" s="3">
         <v>-1700</v>
@@ -3109,19 +3283,22 @@
         <v>-1700</v>
       </c>
       <c r="L72" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="M72" s="3">
         <v>-1500</v>
-      </c>
-      <c r="M72" s="3">
-        <v>-1400</v>
       </c>
       <c r="N72" s="3">
         <v>-1400</v>
       </c>
       <c r="O72" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="P72" s="3">
         <v>-1300</v>
       </c>
     </row>
-    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3161,8 +3338,11 @@
       <c r="O73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3202,8 +3382,11 @@
       <c r="O74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3243,28 +3426,31 @@
       <c r="O75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>3900</v>
+      </c>
+      <c r="E76" s="3">
         <v>13400</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>8800</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>6600</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>6900</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>3900</v>
-      </c>
-      <c r="I76" s="3">
-        <v>-800</v>
       </c>
       <c r="J76" s="3">
         <v>-800</v>
@@ -3273,19 +3459,22 @@
         <v>-800</v>
       </c>
       <c r="L76" s="3">
-        <v>-600</v>
+        <v>-800</v>
       </c>
       <c r="M76" s="3">
         <v>-600</v>
       </c>
       <c r="N76" s="3">
-        <v>-500</v>
+        <v>-600</v>
       </c>
       <c r="O76" s="3">
         <v>-500</v>
       </c>
-    </row>
-    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P76" s="3">
+        <v>-500</v>
+      </c>
+    </row>
+    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3325,84 +3514,90 @@
       <c r="O77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44620</v>
+      </c>
+      <c r="E80" s="2">
         <v>44530</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44439</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44347</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44255</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44165</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44043</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43951</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43861</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43769</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43677</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43585</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43496</v>
       </c>
     </row>
-    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-9500</v>
+      </c>
+      <c r="E81" s="3">
         <v>4500</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>2000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-400</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>1300</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>1400</v>
       </c>
-      <c r="I81" s="3">
-        <v>0</v>
-      </c>
       <c r="J81" s="3">
         <v>0</v>
       </c>
       <c r="K81" s="3">
+        <v>0</v>
+      </c>
+      <c r="L81" s="3">
         <v>-200</v>
       </c>
-      <c r="L81" s="3">
-        <v>0</v>
-      </c>
       <c r="M81" s="3">
         <v>0</v>
       </c>
@@ -3410,10 +3605,13 @@
         <v>0</v>
       </c>
       <c r="O81" s="3">
+        <v>0</v>
+      </c>
+      <c r="P81" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3429,8 +3627,9 @@
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
-    </row>
-    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P82" s="3"/>
+    </row>
+    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3446,8 +3645,8 @@
       <c r="G83" s="3">
         <v>200</v>
       </c>
-      <c r="H83" s="3" t="s">
-        <v>5</v>
+      <c r="H83" s="3">
+        <v>200</v>
       </c>
       <c r="I83" s="3" t="s">
         <v>5</v>
@@ -3464,14 +3663,17 @@
       <c r="M83" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="N83" s="3">
-        <v>0</v>
+      <c r="N83" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="O83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3511,8 +3713,11 @@
       <c r="O84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3552,8 +3757,11 @@
       <c r="O85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3593,8 +3801,11 @@
       <c r="O86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3634,8 +3845,11 @@
       <c r="O87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3675,29 +3889,32 @@
       <c r="O88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-11600</v>
+      </c>
+      <c r="E89" s="3">
         <v>10000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-40400</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>400</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-1200</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>600</v>
       </c>
-      <c r="I89" s="3">
-        <v>0</v>
-      </c>
       <c r="J89" s="3">
         <v>0</v>
       </c>
@@ -3716,8 +3933,11 @@
       <c r="O89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3733,8 +3953,9 @@
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
-    </row>
-    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P90" s="3"/>
+    </row>
+    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3750,8 +3971,8 @@
       <c r="G91" s="3">
         <v>0</v>
       </c>
-      <c r="H91" s="3" t="s">
-        <v>5</v>
+      <c r="H91" s="3">
+        <v>0</v>
       </c>
       <c r="I91" s="3" t="s">
         <v>5</v>
@@ -3768,14 +3989,17 @@
       <c r="M91" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="N91" s="3">
-        <v>0</v>
+      <c r="N91" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="O91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3815,8 +4039,11 @@
       <c r="O92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3856,8 +4083,11 @@
       <c r="O93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -3873,8 +4103,8 @@
       <c r="G94" s="3">
         <v>0</v>
       </c>
-      <c r="H94" s="3" t="s">
-        <v>5</v>
+      <c r="H94" s="3">
+        <v>0</v>
       </c>
       <c r="I94" s="3" t="s">
         <v>5</v>
@@ -3894,11 +4124,14 @@
       <c r="N94" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="O94" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3914,8 +4147,9 @@
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
-    </row>
-    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P95" s="3"/>
+    </row>
+    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3955,8 +4189,11 @@
       <c r="O96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3996,8 +4233,11 @@
       <c r="O97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4037,8 +4277,11 @@
       <c r="O98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4078,29 +4321,32 @@
       <c r="O99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>11800</v>
+      </c>
+      <c r="E100" s="3">
         <v>-9400</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>40500</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-1500</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-1000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>1600</v>
       </c>
-      <c r="I100" s="3">
-        <v>0</v>
-      </c>
       <c r="J100" s="3">
         <v>0</v>
       </c>
@@ -4116,11 +4362,14 @@
       <c r="N100" s="3">
         <v>0</v>
       </c>
-      <c r="O100" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O100" s="3">
+        <v>0</v>
+      </c>
+      <c r="P100" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4160,29 +4409,32 @@
       <c r="O101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>200</v>
+      </c>
+      <c r="E102" s="3">
         <v>500</v>
       </c>
-      <c r="E102" s="3">
-        <v>0</v>
-      </c>
       <c r="F102" s="3">
+        <v>0</v>
+      </c>
+      <c r="G102" s="3">
         <v>-1100</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-2100</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>2200</v>
       </c>
-      <c r="I102" s="3">
-        <v>0</v>
-      </c>
       <c r="J102" s="3">
         <v>0</v>
       </c>
@@ -4199,6 +4451,9 @@
         <v>0</v>
       </c>
       <c r="O102" s="3">
+        <v>0</v>
+      </c>
+      <c r="P102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/UNQL_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/UNQL_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="92">
   <si>
     <t>UNQL</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:P102"/>
+  <dimension ref="A5:R102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,101 +665,109 @@
     <col min="1" max="1" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44804</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44712</v>
+      </c>
+      <c r="F7" s="2">
         <v>44620</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44530</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44439</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44347</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44255</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44165</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>44043</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43951</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43861</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43769</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43677</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43585</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43496</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>136500</v>
+      </c>
+      <c r="E8" s="3">
+        <v>168800</v>
+      </c>
+      <c r="F8" s="3">
         <v>250400</v>
       </c>
-      <c r="E8" s="3">
+      <c r="G8" s="3">
         <v>405400</v>
       </c>
-      <c r="F8" s="3">
+      <c r="H8" s="3">
         <v>189800</v>
       </c>
-      <c r="G8" s="3">
+      <c r="I8" s="3">
         <v>98900</v>
       </c>
-      <c r="H8" s="3">
+      <c r="J8" s="3">
         <v>91000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="K8" s="3">
         <v>124600</v>
       </c>
-      <c r="J8" s="3">
-        <v>0</v>
-      </c>
-      <c r="K8" s="3">
-        <v>0</v>
-      </c>
       <c r="L8" s="3">
         <v>0</v>
       </c>
@@ -775,35 +783,41 @@
       <c r="P8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q8" s="3">
+        <v>0</v>
+      </c>
+      <c r="R8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>126400</v>
+      </c>
+      <c r="E9" s="3">
+        <v>157500</v>
+      </c>
+      <c r="F9" s="3">
         <v>243300</v>
       </c>
-      <c r="E9" s="3">
+      <c r="G9" s="3">
         <v>389300</v>
       </c>
-      <c r="F9" s="3">
+      <c r="H9" s="3">
         <v>181500</v>
       </c>
-      <c r="G9" s="3">
+      <c r="I9" s="3">
         <v>91900</v>
       </c>
-      <c r="H9" s="3">
+      <c r="J9" s="3">
         <v>84200</v>
       </c>
-      <c r="I9" s="3">
+      <c r="K9" s="3">
         <v>116300</v>
       </c>
-      <c r="J9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K9" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="L9" s="3" t="s">
         <v>5</v>
       </c>
@@ -819,35 +833,41 @@
       <c r="P9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>10100</v>
+      </c>
+      <c r="E10" s="3">
+        <v>11300</v>
+      </c>
+      <c r="F10" s="3">
         <v>7100</v>
       </c>
-      <c r="E10" s="3">
+      <c r="G10" s="3">
         <v>16100</v>
       </c>
-      <c r="F10" s="3">
+      <c r="H10" s="3">
         <v>8300</v>
       </c>
-      <c r="G10" s="3">
+      <c r="I10" s="3">
         <v>7000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="J10" s="3">
         <v>6800</v>
       </c>
-      <c r="I10" s="3">
+      <c r="K10" s="3">
         <v>8300</v>
       </c>
-      <c r="J10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K10" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="L10" s="3" t="s">
         <v>5</v>
       </c>
@@ -863,8 +883,14 @@
       <c r="P10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -881,8 +907,10 @@
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q11" s="3"/>
+      <c r="R11" s="3"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -925,8 +953,14 @@
       <c r="P12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q12" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -969,52 +1003,64 @@
       <c r="P13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>0</v>
+      </c>
+      <c r="E14" s="3">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3">
         <v>1300</v>
       </c>
-      <c r="E14" s="3">
-        <v>0</v>
-      </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
+        <v>0</v>
+      </c>
+      <c r="H14" s="3">
         <v>-1100</v>
       </c>
-      <c r="G14" s="3">
-        <v>0</v>
-      </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
+        <v>0</v>
+      </c>
+      <c r="J14" s="3">
         <v>-1600</v>
       </c>
-      <c r="I14" s="3">
+      <c r="K14" s="3">
         <v>1100</v>
       </c>
-      <c r="J14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L14" s="3">
+      <c r="L14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N14" s="3">
         <v>200</v>
       </c>
-      <c r="M14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N14" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="O14" s="3" t="s">
         <v>5</v>
       </c>
       <c r="P14" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R14" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1036,11 +1082,11 @@
       <c r="I15" s="3">
         <v>200</v>
       </c>
-      <c r="J15" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K15" s="3" t="s">
-        <v>5</v>
+      <c r="J15" s="3">
+        <v>200</v>
+      </c>
+      <c r="K15" s="3">
+        <v>200</v>
       </c>
       <c r="L15" s="3" t="s">
         <v>5</v>
@@ -1057,8 +1103,14 @@
       <c r="P15" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q15" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R15" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1072,96 +1124,110 @@
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
-    </row>
-    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q16" s="3"/>
+      <c r="R16" s="3"/>
+    </row>
+    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>131700</v>
+      </c>
+      <c r="E17" s="3">
+        <v>166400</v>
+      </c>
+      <c r="F17" s="3">
         <v>249500</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>396800</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>185400</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>98200</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>89000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>122700</v>
       </c>
-      <c r="J17" s="3">
-        <v>0</v>
-      </c>
-      <c r="K17" s="3">
-        <v>0</v>
-      </c>
       <c r="L17" s="3">
+        <v>0</v>
+      </c>
+      <c r="M17" s="3">
+        <v>0</v>
+      </c>
+      <c r="N17" s="3">
         <v>200</v>
       </c>
-      <c r="M17" s="3">
-        <v>0</v>
-      </c>
-      <c r="N17" s="3">
-        <v>0</v>
-      </c>
       <c r="O17" s="3">
         <v>0</v>
       </c>
       <c r="P17" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q17" s="3">
+        <v>0</v>
+      </c>
+      <c r="R17" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>4800</v>
+      </c>
+      <c r="E18" s="3">
+        <v>2400</v>
+      </c>
+      <c r="F18" s="3">
         <v>900</v>
       </c>
-      <c r="E18" s="3">
+      <c r="G18" s="3">
         <v>8600</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>4400</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>700</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>2000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>1900</v>
       </c>
-      <c r="J18" s="3">
-        <v>0</v>
-      </c>
-      <c r="K18" s="3">
-        <v>0</v>
-      </c>
       <c r="L18" s="3">
+        <v>0</v>
+      </c>
+      <c r="M18" s="3">
+        <v>0</v>
+      </c>
+      <c r="N18" s="3">
         <v>-200</v>
       </c>
-      <c r="M18" s="3">
-        <v>0</v>
-      </c>
-      <c r="N18" s="3">
-        <v>0</v>
-      </c>
       <c r="O18" s="3">
         <v>0</v>
       </c>
       <c r="P18" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q18" s="3">
+        <v>0</v>
+      </c>
+      <c r="R18" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1178,20 +1244,22 @@
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
-    </row>
-    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q19" s="3"/>
+      <c r="R19" s="3"/>
+    </row>
+    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>600</v>
+      </c>
+      <c r="E20" s="3">
+        <v>300</v>
+      </c>
+      <c r="F20" s="3">
         <v>-4200</v>
       </c>
-      <c r="E20" s="3">
-        <v>0</v>
-      </c>
-      <c r="F20" s="3">
-        <v>0</v>
-      </c>
       <c r="G20" s="3">
         <v>0</v>
       </c>
@@ -1222,32 +1290,38 @@
       <c r="P20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q20" s="3">
+        <v>0</v>
+      </c>
+      <c r="R20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>5700</v>
+      </c>
+      <c r="E21" s="3">
+        <v>2900</v>
+      </c>
+      <c r="F21" s="3">
         <v>-3100</v>
       </c>
-      <c r="E21" s="3">
+      <c r="G21" s="3">
         <v>8900</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>4500</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>900</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <v>2100</v>
       </c>
-      <c r="I21" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J21" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="K21" s="3" t="s">
         <v>5</v>
       </c>
@@ -1266,8 +1340,14 @@
       <c r="P21" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R21" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1275,26 +1355,26 @@
         <v>1400</v>
       </c>
       <c r="E22" s="3">
+        <v>1100</v>
+      </c>
+      <c r="F22" s="3">
+        <v>1400</v>
+      </c>
+      <c r="G22" s="3">
         <v>2300</v>
       </c>
-      <c r="F22" s="3">
+      <c r="H22" s="3">
         <v>1700</v>
       </c>
-      <c r="G22" s="3">
+      <c r="I22" s="3">
         <v>900</v>
       </c>
-      <c r="H22" s="3">
+      <c r="J22" s="3">
         <v>600</v>
       </c>
-      <c r="I22" s="3">
+      <c r="K22" s="3">
         <v>200</v>
       </c>
-      <c r="J22" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K22" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="L22" s="3" t="s">
         <v>5</v>
       </c>
@@ -1304,85 +1384,97 @@
       <c r="N22" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="O22" s="3">
-        <v>0</v>
-      </c>
-      <c r="P22" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="O22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q22" s="3">
+        <v>0</v>
+      </c>
+      <c r="R22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>4100</v>
+      </c>
+      <c r="E23" s="3">
+        <v>1600</v>
+      </c>
+      <c r="F23" s="3">
         <v>-4700</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>6400</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>2700</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>-200</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>1300</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>1700</v>
       </c>
-      <c r="J23" s="3">
-        <v>0</v>
-      </c>
-      <c r="K23" s="3">
-        <v>0</v>
-      </c>
       <c r="L23" s="3">
+        <v>0</v>
+      </c>
+      <c r="M23" s="3">
+        <v>0</v>
+      </c>
+      <c r="N23" s="3">
         <v>-200</v>
       </c>
-      <c r="M23" s="3">
-        <v>0</v>
-      </c>
-      <c r="N23" s="3">
-        <v>0</v>
-      </c>
       <c r="O23" s="3">
         <v>0</v>
       </c>
       <c r="P23" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q23" s="3">
+        <v>0</v>
+      </c>
+      <c r="R23" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>800</v>
+      </c>
+      <c r="E24" s="3">
+        <v>-400</v>
+      </c>
+      <c r="F24" s="3">
         <v>200</v>
       </c>
-      <c r="E24" s="3">
+      <c r="G24" s="3">
         <v>1900</v>
       </c>
-      <c r="F24" s="3">
+      <c r="H24" s="3">
         <v>600</v>
       </c>
-      <c r="G24" s="3">
+      <c r="I24" s="3">
         <v>100</v>
       </c>
-      <c r="H24" s="3">
+      <c r="J24" s="3">
         <v>100</v>
       </c>
-      <c r="I24" s="3">
+      <c r="K24" s="3">
         <v>300</v>
       </c>
-      <c r="J24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K24" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="L24" s="3" t="s">
         <v>5</v>
       </c>
@@ -1398,8 +1490,14 @@
       <c r="P24" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R24" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1442,96 +1540,114 @@
       <c r="P25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>3300</v>
+      </c>
+      <c r="E26" s="3">
+        <v>2000</v>
+      </c>
+      <c r="F26" s="3">
         <v>-4900</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>4500</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>2000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>-400</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>1300</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>1400</v>
       </c>
-      <c r="J26" s="3">
-        <v>0</v>
-      </c>
-      <c r="K26" s="3">
-        <v>0</v>
-      </c>
       <c r="L26" s="3">
+        <v>0</v>
+      </c>
+      <c r="M26" s="3">
+        <v>0</v>
+      </c>
+      <c r="N26" s="3">
         <v>-200</v>
       </c>
-      <c r="M26" s="3">
-        <v>0</v>
-      </c>
-      <c r="N26" s="3">
-        <v>0</v>
-      </c>
       <c r="O26" s="3">
         <v>0</v>
       </c>
       <c r="P26" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q26" s="3">
+        <v>0</v>
+      </c>
+      <c r="R26" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>3300</v>
+      </c>
+      <c r="E27" s="3">
+        <v>2000</v>
+      </c>
+      <c r="F27" s="3">
         <v>-9500</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>4500</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>2000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>-400</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>1300</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>1400</v>
       </c>
-      <c r="J27" s="3">
-        <v>0</v>
-      </c>
-      <c r="K27" s="3">
-        <v>0</v>
-      </c>
       <c r="L27" s="3">
+        <v>0</v>
+      </c>
+      <c r="M27" s="3">
+        <v>0</v>
+      </c>
+      <c r="N27" s="3">
         <v>-200</v>
       </c>
-      <c r="M27" s="3">
-        <v>0</v>
-      </c>
-      <c r="N27" s="3">
-        <v>0</v>
-      </c>
       <c r="O27" s="3">
         <v>0</v>
       </c>
       <c r="P27" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q27" s="3">
+        <v>0</v>
+      </c>
+      <c r="R27" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1574,8 +1690,14 @@
       <c r="P28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1618,8 +1740,14 @@
       <c r="P29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+      <c r="R29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1662,8 +1790,14 @@
       <c r="P30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1706,20 +1840,26 @@
       <c r="P31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-600</v>
+      </c>
+      <c r="E32" s="3">
+        <v>-300</v>
+      </c>
+      <c r="F32" s="3">
         <v>4200</v>
       </c>
-      <c r="E32" s="3">
-        <v>0</v>
-      </c>
-      <c r="F32" s="3">
-        <v>0</v>
-      </c>
       <c r="G32" s="3">
         <v>0</v>
       </c>
@@ -1750,52 +1890,64 @@
       <c r="P32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q32" s="3">
+        <v>0</v>
+      </c>
+      <c r="R32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>3300</v>
+      </c>
+      <c r="E33" s="3">
+        <v>2000</v>
+      </c>
+      <c r="F33" s="3">
         <v>-9500</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>4500</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>2000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>-400</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>1300</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>1400</v>
       </c>
-      <c r="J33" s="3">
-        <v>0</v>
-      </c>
-      <c r="K33" s="3">
-        <v>0</v>
-      </c>
       <c r="L33" s="3">
+        <v>0</v>
+      </c>
+      <c r="M33" s="3">
+        <v>0</v>
+      </c>
+      <c r="N33" s="3">
         <v>-200</v>
       </c>
-      <c r="M33" s="3">
-        <v>0</v>
-      </c>
-      <c r="N33" s="3">
-        <v>0</v>
-      </c>
       <c r="O33" s="3">
         <v>0</v>
       </c>
       <c r="P33" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q33" s="3">
+        <v>0</v>
+      </c>
+      <c r="R33" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1838,101 +1990,119 @@
       <c r="P34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>3300</v>
+      </c>
+      <c r="E35" s="3">
+        <v>2000</v>
+      </c>
+      <c r="F35" s="3">
         <v>-9500</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>4500</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>2000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>-400</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>1300</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>1400</v>
       </c>
-      <c r="J35" s="3">
-        <v>0</v>
-      </c>
-      <c r="K35" s="3">
-        <v>0</v>
-      </c>
       <c r="L35" s="3">
+        <v>0</v>
+      </c>
+      <c r="M35" s="3">
+        <v>0</v>
+      </c>
+      <c r="N35" s="3">
         <v>-200</v>
       </c>
-      <c r="M35" s="3">
-        <v>0</v>
-      </c>
-      <c r="N35" s="3">
-        <v>0</v>
-      </c>
       <c r="O35" s="3">
         <v>0</v>
       </c>
       <c r="P35" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q35" s="3">
+        <v>0</v>
+      </c>
+      <c r="R35" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44804</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44712</v>
+      </c>
+      <c r="F38" s="2">
         <v>44620</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44530</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44439</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44347</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44255</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44165</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>44043</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43951</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43861</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43769</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43677</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43585</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43496</v>
       </c>
     </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1949,8 +2119,10 @@
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
-    </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q39" s="3"/>
+      <c r="R39" s="3"/>
+    </row>
+    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1967,35 +2139,37 @@
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
-    </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q40" s="3"/>
+      <c r="R40" s="3"/>
+    </row>
+    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>300</v>
+      </c>
+      <c r="E41" s="3">
+        <v>1400</v>
+      </c>
+      <c r="F41" s="3">
         <v>1000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>800</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>300</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>300</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>1400</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>3500</v>
       </c>
-      <c r="J41" s="3">
-        <v>0</v>
-      </c>
-      <c r="K41" s="3">
-        <v>0</v>
-      </c>
       <c r="L41" s="3">
         <v>0</v>
       </c>
@@ -2011,8 +2185,14 @@
       <c r="P41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q41" s="3">
+        <v>0</v>
+      </c>
+      <c r="R41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2055,35 +2235,41 @@
       <c r="P42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q42" s="3">
+        <v>0</v>
+      </c>
+      <c r="R42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>92300</v>
+      </c>
+      <c r="E43" s="3">
+        <v>105700</v>
+      </c>
+      <c r="F43" s="3">
         <v>138500</v>
       </c>
-      <c r="E43" s="3">
+      <c r="G43" s="3">
         <v>192600</v>
       </c>
-      <c r="F43" s="3">
+      <c r="H43" s="3">
         <v>118600</v>
       </c>
-      <c r="G43" s="3">
+      <c r="I43" s="3">
         <v>43800</v>
       </c>
-      <c r="H43" s="3">
+      <c r="J43" s="3">
         <v>41100</v>
       </c>
-      <c r="I43" s="3">
+      <c r="K43" s="3">
         <v>39600</v>
       </c>
-      <c r="J43" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K43" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="L43" s="3" t="s">
         <v>5</v>
       </c>
@@ -2099,8 +2285,14 @@
       <c r="P43" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R43" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2143,37 +2335,43 @@
       <c r="P44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q44" s="3">
+        <v>0</v>
+      </c>
+      <c r="R44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>2300</v>
+      </c>
+      <c r="E45" s="3">
+        <v>1400</v>
+      </c>
+      <c r="F45" s="3">
         <v>500</v>
       </c>
-      <c r="E45" s="3">
+      <c r="G45" s="3">
         <v>1000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="H45" s="3">
         <v>600</v>
       </c>
-      <c r="G45" s="3">
+      <c r="I45" s="3">
         <v>8400</v>
       </c>
-      <c r="H45" s="3">
+      <c r="J45" s="3">
         <v>2500</v>
       </c>
-      <c r="I45" s="3">
+      <c r="K45" s="3">
         <v>8300</v>
       </c>
-      <c r="J45" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K45" s="3">
-        <v>0</v>
-      </c>
-      <c r="L45" s="3">
-        <v>0</v>
+      <c r="L45" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="M45" s="3">
         <v>0</v>
@@ -2187,35 +2385,41 @@
       <c r="P45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q45" s="3">
+        <v>0</v>
+      </c>
+      <c r="R45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>94900</v>
+      </c>
+      <c r="E46" s="3">
+        <v>108500</v>
+      </c>
+      <c r="F46" s="3">
         <v>140000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>194400</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>119600</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>52400</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>45000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>51500</v>
       </c>
-      <c r="J46" s="3">
-        <v>0</v>
-      </c>
-      <c r="K46" s="3">
-        <v>0</v>
-      </c>
       <c r="L46" s="3">
         <v>0</v>
       </c>
@@ -2231,8 +2435,14 @@
       <c r="P46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q46" s="3">
+        <v>0</v>
+      </c>
+      <c r="R46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2264,10 +2474,10 @@
         <v>0</v>
       </c>
       <c r="M47" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="N47" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="O47" s="3">
         <v>200</v>
@@ -2275,35 +2485,41 @@
       <c r="P47" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q47" s="3">
+        <v>200</v>
+      </c>
+      <c r="R47" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>2700</v>
+      </c>
+      <c r="E48" s="3">
+        <v>2600</v>
+      </c>
+      <c r="F48" s="3">
         <v>2900</v>
       </c>
-      <c r="E48" s="3">
+      <c r="G48" s="3">
         <v>3300</v>
       </c>
-      <c r="F48" s="3">
+      <c r="H48" s="3">
         <v>3600</v>
       </c>
-      <c r="G48" s="3">
+      <c r="I48" s="3">
         <v>4000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="J48" s="3">
         <v>4100</v>
       </c>
-      <c r="I48" s="3">
+      <c r="K48" s="3">
         <v>4500</v>
       </c>
-      <c r="J48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K48" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="L48" s="3" t="s">
         <v>5</v>
       </c>
@@ -2319,35 +2535,41 @@
       <c r="P48" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R48" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>11600</v>
+      </c>
+      <c r="E49" s="3">
+        <v>11800</v>
+      </c>
+      <c r="F49" s="3">
         <v>12000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="G49" s="3">
         <v>12200</v>
       </c>
-      <c r="F49" s="3">
+      <c r="H49" s="3">
         <v>12300</v>
       </c>
-      <c r="G49" s="3">
+      <c r="I49" s="3">
         <v>12500</v>
       </c>
-      <c r="H49" s="3">
+      <c r="J49" s="3">
         <v>12700</v>
       </c>
-      <c r="I49" s="3">
+      <c r="K49" s="3">
         <v>13200</v>
       </c>
-      <c r="J49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K49" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="L49" s="3" t="s">
         <v>5</v>
       </c>
@@ -2363,8 +2585,14 @@
       <c r="P49" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R49" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2407,8 +2635,14 @@
       <c r="P50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2451,35 +2685,41 @@
       <c r="P51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>500</v>
+        <v>2500</v>
       </c>
       <c r="E52" s="3">
-        <v>900</v>
+        <v>2000</v>
       </c>
       <c r="F52" s="3">
         <v>500</v>
       </c>
       <c r="G52" s="3">
+        <v>900</v>
+      </c>
+      <c r="H52" s="3">
+        <v>500</v>
+      </c>
+      <c r="I52" s="3">
         <v>600</v>
       </c>
-      <c r="H52" s="3">
+      <c r="J52" s="3">
         <v>400</v>
       </c>
-      <c r="I52" s="3">
+      <c r="K52" s="3">
         <v>500</v>
       </c>
-      <c r="J52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K52" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="L52" s="3" t="s">
         <v>5</v>
       </c>
@@ -2495,8 +2735,14 @@
       <c r="P52" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R52" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2539,43 +2785,49 @@
       <c r="P53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>111700</v>
+      </c>
+      <c r="E54" s="3">
+        <v>124900</v>
+      </c>
+      <c r="F54" s="3">
         <v>155400</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>210700</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>136000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>69500</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>62200</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>69700</v>
       </c>
-      <c r="J54" s="3">
-        <v>0</v>
-      </c>
-      <c r="K54" s="3">
-        <v>0</v>
-      </c>
       <c r="L54" s="3">
         <v>0</v>
       </c>
       <c r="M54" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="N54" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="O54" s="3">
         <v>200</v>
@@ -2583,8 +2835,14 @@
       <c r="P54" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q54" s="3">
+        <v>200</v>
+      </c>
+      <c r="R54" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2601,8 +2859,10 @@
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
-    </row>
-    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q55" s="3"/>
+      <c r="R55" s="3"/>
+    </row>
+    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2619,35 +2879,37 @@
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
-    </row>
-    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q56" s="3"/>
+      <c r="R56" s="3"/>
+    </row>
+    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>41700</v>
+      </c>
+      <c r="E57" s="3">
+        <v>49000</v>
+      </c>
+      <c r="F57" s="3">
         <v>59000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>76000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>48500</v>
       </c>
-      <c r="G57" s="3">
+      <c r="I57" s="3">
         <v>41400</v>
       </c>
-      <c r="H57" s="3">
+      <c r="J57" s="3">
         <v>35800</v>
       </c>
-      <c r="I57" s="3">
+      <c r="K57" s="3">
         <v>38800</v>
       </c>
-      <c r="J57" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K57" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="L57" s="3" t="s">
         <v>5</v>
       </c>
@@ -2663,122 +2925,140 @@
       <c r="P57" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R57" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>37800</v>
+      </c>
+      <c r="E58" s="3">
+        <v>39100</v>
+      </c>
+      <c r="F58" s="3">
         <v>45700</v>
       </c>
-      <c r="E58" s="3">
+      <c r="G58" s="3">
         <v>34000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="H58" s="3">
         <v>42900</v>
       </c>
-      <c r="G58" s="3">
+      <c r="I58" s="3">
         <v>2700</v>
       </c>
-      <c r="H58" s="3">
+      <c r="J58" s="3">
         <v>5300</v>
       </c>
-      <c r="I58" s="3">
+      <c r="K58" s="3">
         <v>9700</v>
       </c>
-      <c r="J58" s="3">
+      <c r="L58" s="3">
         <v>300</v>
       </c>
-      <c r="K58" s="3">
+      <c r="M58" s="3">
         <v>300</v>
       </c>
-      <c r="L58" s="3">
+      <c r="N58" s="3">
         <v>200</v>
       </c>
-      <c r="M58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N58" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="O58" s="3" t="s">
         <v>5</v>
       </c>
       <c r="P58" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R58" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>9000</v>
+      </c>
+      <c r="E59" s="3">
+        <v>16300</v>
+      </c>
+      <c r="F59" s="3">
         <v>43500</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>81700</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>29900</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>11900</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>9000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>11700</v>
-      </c>
-      <c r="J59" s="3">
-        <v>600</v>
-      </c>
-      <c r="K59" s="3">
-        <v>600</v>
       </c>
       <c r="L59" s="3">
         <v>600</v>
       </c>
       <c r="M59" s="3">
+        <v>600</v>
+      </c>
+      <c r="N59" s="3">
+        <v>600</v>
+      </c>
+      <c r="O59" s="3">
         <v>800</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>800</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>700</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>88400</v>
+      </c>
+      <c r="E60" s="3">
+        <v>104400</v>
+      </c>
+      <c r="F60" s="3">
         <v>148200</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>191600</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>121300</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>55900</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>50100</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>60200</v>
-      </c>
-      <c r="J60" s="3">
-        <v>800</v>
-      </c>
-      <c r="K60" s="3">
-        <v>800</v>
       </c>
       <c r="L60" s="3">
         <v>800</v>
@@ -2790,40 +3070,46 @@
         <v>800</v>
       </c>
       <c r="O60" s="3">
+        <v>800</v>
+      </c>
+      <c r="P60" s="3">
+        <v>800</v>
+      </c>
+      <c r="Q60" s="3">
         <v>700</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>300</v>
+      </c>
+      <c r="E61" s="3">
+        <v>400</v>
+      </c>
+      <c r="F61" s="3">
         <v>1300</v>
       </c>
-      <c r="E61" s="3">
+      <c r="G61" s="3">
         <v>3500</v>
       </c>
-      <c r="F61" s="3">
+      <c r="H61" s="3">
         <v>3400</v>
       </c>
-      <c r="G61" s="3">
+      <c r="I61" s="3">
         <v>3900</v>
       </c>
-      <c r="H61" s="3">
+      <c r="J61" s="3">
         <v>2000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="K61" s="3">
         <v>1800</v>
       </c>
-      <c r="J61" s="3">
-        <v>0</v>
-      </c>
-      <c r="K61" s="3">
-        <v>0</v>
-      </c>
       <c r="L61" s="3">
         <v>0</v>
       </c>
@@ -2839,35 +3125,41 @@
       <c r="P61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q61" s="3">
+        <v>0</v>
+      </c>
+      <c r="R61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>13800</v>
+      </c>
+      <c r="E62" s="3">
+        <v>14300</v>
+      </c>
+      <c r="F62" s="3">
         <v>2000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="G62" s="3">
         <v>2200</v>
       </c>
-      <c r="F62" s="3">
+      <c r="H62" s="3">
         <v>2600</v>
       </c>
-      <c r="G62" s="3">
+      <c r="I62" s="3">
         <v>3000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="J62" s="3">
         <v>3200</v>
       </c>
-      <c r="I62" s="3">
+      <c r="K62" s="3">
         <v>3700</v>
       </c>
-      <c r="J62" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K62" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="L62" s="3" t="s">
         <v>5</v>
       </c>
@@ -2883,8 +3175,14 @@
       <c r="P62" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R62" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2927,8 +3225,14 @@
       <c r="P63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2971,8 +3275,14 @@
       <c r="P64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3015,34 +3325,40 @@
       <c r="P65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>102500</v>
+      </c>
+      <c r="E66" s="3">
+        <v>119100</v>
+      </c>
+      <c r="F66" s="3">
         <v>151500</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>197400</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>127200</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>62800</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>55300</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>65700</v>
-      </c>
-      <c r="J66" s="3">
-        <v>800</v>
-      </c>
-      <c r="K66" s="3">
-        <v>800</v>
       </c>
       <c r="L66" s="3">
         <v>800</v>
@@ -3054,13 +3370,19 @@
         <v>800</v>
       </c>
       <c r="O66" s="3">
+        <v>800</v>
+      </c>
+      <c r="P66" s="3">
+        <v>800</v>
+      </c>
+      <c r="Q66" s="3">
         <v>700</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3077,8 +3399,10 @@
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
-    </row>
-    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q67" s="3"/>
+      <c r="R67" s="3"/>
+    </row>
+    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3121,8 +3445,14 @@
       <c r="P68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3165,8 +3495,14 @@
       <c r="P69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3209,8 +3545,14 @@
       <c r="P70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3253,52 +3595,64 @@
       <c r="P71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>8200</v>
+      </c>
+      <c r="E72" s="3">
+        <v>4900</v>
+      </c>
+      <c r="F72" s="3">
         <v>2900</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>7800</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>3300</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>1300</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>1700</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>400</v>
-      </c>
-      <c r="J72" s="3">
-        <v>-1700</v>
-      </c>
-      <c r="K72" s="3">
-        <v>-1700</v>
       </c>
       <c r="L72" s="3">
         <v>-1700</v>
       </c>
       <c r="M72" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="N72" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="O72" s="3">
         <v>-1500</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>-1400</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>-1400</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>-1300</v>
       </c>
     </row>
-    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3341,8 +3695,14 @@
       <c r="P73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3385,8 +3745,14 @@
       <c r="P74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3429,52 +3795,64 @@
       <c r="P75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>9200</v>
+      </c>
+      <c r="E76" s="3">
+        <v>5800</v>
+      </c>
+      <c r="F76" s="3">
         <v>3900</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>13400</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>8800</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>6600</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>6900</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>3900</v>
-      </c>
-      <c r="J76" s="3">
-        <v>-800</v>
-      </c>
-      <c r="K76" s="3">
-        <v>-800</v>
       </c>
       <c r="L76" s="3">
         <v>-800</v>
       </c>
       <c r="M76" s="3">
+        <v>-800</v>
+      </c>
+      <c r="N76" s="3">
+        <v>-800</v>
+      </c>
+      <c r="O76" s="3">
         <v>-600</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>-600</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>-500</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3517,101 +3895,119 @@
       <c r="P77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44804</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44712</v>
+      </c>
+      <c r="F80" s="2">
         <v>44620</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44530</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44439</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44347</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44255</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44165</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>44043</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43951</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43861</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43769</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43677</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43585</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43496</v>
       </c>
     </row>
-    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>3300</v>
+      </c>
+      <c r="E81" s="3">
+        <v>2000</v>
+      </c>
+      <c r="F81" s="3">
         <v>-9500</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>4500</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>2000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>-400</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>1300</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>1400</v>
       </c>
-      <c r="J81" s="3">
-        <v>0</v>
-      </c>
-      <c r="K81" s="3">
-        <v>0</v>
-      </c>
       <c r="L81" s="3">
+        <v>0</v>
+      </c>
+      <c r="M81" s="3">
+        <v>0</v>
+      </c>
+      <c r="N81" s="3">
         <v>-200</v>
       </c>
-      <c r="M81" s="3">
-        <v>0</v>
-      </c>
-      <c r="N81" s="3">
-        <v>0</v>
-      </c>
       <c r="O81" s="3">
         <v>0</v>
       </c>
       <c r="P81" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q81" s="3">
+        <v>0</v>
+      </c>
+      <c r="R81" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3628,8 +4024,10 @@
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
-    </row>
-    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q82" s="3"/>
+      <c r="R82" s="3"/>
+    </row>
+    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3648,11 +4046,11 @@
       <c r="H83" s="3">
         <v>200</v>
       </c>
-      <c r="I83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J83" s="3" t="s">
-        <v>5</v>
+      <c r="I83" s="3">
+        <v>200</v>
+      </c>
+      <c r="J83" s="3">
+        <v>200</v>
       </c>
       <c r="K83" s="3" t="s">
         <v>5</v>
@@ -3666,14 +4064,20 @@
       <c r="N83" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="O83" s="3">
-        <v>0</v>
-      </c>
-      <c r="P83" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="O83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q83" s="3">
+        <v>0</v>
+      </c>
+      <c r="R83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3716,8 +4120,14 @@
       <c r="P84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3760,8 +4170,14 @@
       <c r="P85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3804,8 +4220,14 @@
       <c r="P86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3848,8 +4270,14 @@
       <c r="P87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3892,35 +4320,41 @@
       <c r="P88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>300</v>
+      </c>
+      <c r="E89" s="3">
+        <v>8000</v>
+      </c>
+      <c r="F89" s="3">
         <v>-11600</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>10000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>-40400</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>400</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>-1200</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>600</v>
       </c>
-      <c r="J89" s="3">
-        <v>0</v>
-      </c>
-      <c r="K89" s="3">
-        <v>0</v>
-      </c>
       <c r="L89" s="3">
         <v>0</v>
       </c>
@@ -3936,8 +4370,14 @@
       <c r="P89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q89" s="3">
+        <v>0</v>
+      </c>
+      <c r="R89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3954,13 +4394,15 @@
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
-    </row>
-    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q90" s="3"/>
+      <c r="R90" s="3"/>
+    </row>
+    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E91" s="3">
         <v>0</v>
@@ -3974,11 +4416,11 @@
       <c r="H91" s="3">
         <v>0</v>
       </c>
-      <c r="I91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J91" s="3" t="s">
-        <v>5</v>
+      <c r="I91" s="3">
+        <v>0</v>
+      </c>
+      <c r="J91" s="3">
+        <v>0</v>
       </c>
       <c r="K91" s="3" t="s">
         <v>5</v>
@@ -3992,14 +4434,20 @@
       <c r="N91" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="O91" s="3">
-        <v>0</v>
-      </c>
-      <c r="P91" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="O91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q91" s="3">
+        <v>0</v>
+      </c>
+      <c r="R91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4042,8 +4490,14 @@
       <c r="P92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4086,13 +4540,19 @@
       <c r="P93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E94" s="3">
         <v>0</v>
@@ -4106,11 +4566,11 @@
       <c r="H94" s="3">
         <v>0</v>
       </c>
-      <c r="I94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J94" s="3" t="s">
-        <v>5</v>
+      <c r="I94" s="3">
+        <v>0</v>
+      </c>
+      <c r="J94" s="3">
+        <v>0</v>
       </c>
       <c r="K94" s="3" t="s">
         <v>5</v>
@@ -4127,11 +4587,17 @@
       <c r="O94" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="P94" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="P94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4148,8 +4614,10 @@
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
-    </row>
-    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q95" s="3"/>
+      <c r="R95" s="3"/>
+    </row>
+    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4192,8 +4660,14 @@
       <c r="P96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+      <c r="R96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4236,8 +4710,14 @@
       <c r="P97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4280,8 +4760,14 @@
       <c r="P98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4324,35 +4810,41 @@
       <c r="P99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="E100" s="3">
+        <v>-7600</v>
+      </c>
+      <c r="F100" s="3">
         <v>11800</v>
       </c>
-      <c r="E100" s="3">
+      <c r="G100" s="3">
         <v>-9400</v>
       </c>
-      <c r="F100" s="3">
+      <c r="H100" s="3">
         <v>40500</v>
       </c>
-      <c r="G100" s="3">
+      <c r="I100" s="3">
         <v>-1500</v>
       </c>
-      <c r="H100" s="3">
+      <c r="J100" s="3">
         <v>-1000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="K100" s="3">
         <v>1600</v>
       </c>
-      <c r="J100" s="3">
-        <v>0</v>
-      </c>
-      <c r="K100" s="3">
-        <v>0</v>
-      </c>
       <c r="L100" s="3">
         <v>0</v>
       </c>
@@ -4365,11 +4857,17 @@
       <c r="O100" s="3">
         <v>0</v>
       </c>
-      <c r="P100" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="P100" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q100" s="3">
+        <v>0</v>
+      </c>
+      <c r="R100" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4412,35 +4910,41 @@
       <c r="P101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q101" s="3">
+        <v>0</v>
+      </c>
+      <c r="R101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="E102" s="3">
+        <v>400</v>
+      </c>
+      <c r="F102" s="3">
         <v>200</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>500</v>
       </c>
-      <c r="F102" s="3">
-        <v>0</v>
-      </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
+        <v>0</v>
+      </c>
+      <c r="I102" s="3">
         <v>-1100</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>-2100</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>2200</v>
       </c>
-      <c r="J102" s="3">
-        <v>0</v>
-      </c>
-      <c r="K102" s="3">
-        <v>0</v>
-      </c>
       <c r="L102" s="3">
         <v>0</v>
       </c>
@@ -4454,6 +4958,12 @@
         <v>0</v>
       </c>
       <c r="P102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q102" s="3">
+        <v>0</v>
+      </c>
+      <c r="R102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/UNQL_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/UNQL_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="92">
   <si>
     <t>UNQL</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:R102"/>
+  <dimension ref="A5:S102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,112 +665,115 @@
     <col min="1" max="1" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44895</v>
+      </c>
+      <c r="E7" s="2">
         <v>44804</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44712</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44620</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44530</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44439</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44347</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44255</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44165</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44043</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43951</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43861</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43769</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43677</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43585</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43496</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>88800</v>
+      </c>
+      <c r="E8" s="3">
         <v>136500</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>168800</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>250400</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>405400</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>189800</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>98900</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>91000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>124600</v>
       </c>
-      <c r="L8" s="3">
-        <v>0</v>
-      </c>
       <c r="M8" s="3">
         <v>0</v>
       </c>
@@ -789,38 +792,41 @@
       <c r="R8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>78100</v>
+      </c>
+      <c r="E9" s="3">
         <v>126400</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>157500</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>243300</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>389300</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>181500</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>91900</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>84200</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>116300</v>
       </c>
-      <c r="L9" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="M9" s="3" t="s">
         <v>5</v>
       </c>
@@ -839,38 +845,41 @@
       <c r="R9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>10700</v>
+      </c>
+      <c r="E10" s="3">
         <v>10100</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>11300</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>7100</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>16100</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>8300</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>7000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>6800</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>8300</v>
       </c>
-      <c r="L10" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="M10" s="3" t="s">
         <v>5</v>
       </c>
@@ -889,8 +898,11 @@
       <c r="R10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -909,8 +921,9 @@
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -959,8 +972,11 @@
       <c r="R12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1009,8 +1025,11 @@
       <c r="R13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1021,35 +1040,35 @@
         <v>0</v>
       </c>
       <c r="F14" s="3">
+        <v>0</v>
+      </c>
+      <c r="G14" s="3">
         <v>1300</v>
       </c>
-      <c r="G14" s="3">
-        <v>0</v>
-      </c>
       <c r="H14" s="3">
+        <v>0</v>
+      </c>
+      <c r="I14" s="3">
         <v>-1100</v>
       </c>
-      <c r="I14" s="3">
-        <v>0</v>
-      </c>
       <c r="J14" s="3">
+        <v>0</v>
+      </c>
+      <c r="K14" s="3">
         <v>-1600</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>1100</v>
       </c>
-      <c r="L14" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="M14" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="N14" s="3">
+      <c r="N14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O14" s="3">
         <v>200</v>
       </c>
-      <c r="O14" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="P14" s="3" t="s">
         <v>5</v>
       </c>
@@ -1059,8 +1078,11 @@
       <c r="R14" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S14" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1088,8 +1110,8 @@
       <c r="K15" s="3">
         <v>200</v>
       </c>
-      <c r="L15" s="3" t="s">
-        <v>5</v>
+      <c r="L15" s="3">
+        <v>200</v>
       </c>
       <c r="M15" s="3" t="s">
         <v>5</v>
@@ -1109,8 +1131,11 @@
       <c r="R15" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S15" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1126,47 +1151,48 @@
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
-    </row>
-    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S16" s="3"/>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>83800</v>
+      </c>
+      <c r="E17" s="3">
         <v>131700</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>166400</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>249500</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>396800</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>185400</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>98200</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>89000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>122700</v>
       </c>
-      <c r="L17" s="3">
-        <v>0</v>
-      </c>
       <c r="M17" s="3">
         <v>0</v>
       </c>
       <c r="N17" s="3">
+        <v>0</v>
+      </c>
+      <c r="O17" s="3">
         <v>200</v>
       </c>
-      <c r="O17" s="3">
-        <v>0</v>
-      </c>
       <c r="P17" s="3">
         <v>0</v>
       </c>
@@ -1174,49 +1200,52 @@
         <v>0</v>
       </c>
       <c r="R17" s="3">
+        <v>0</v>
+      </c>
+      <c r="S17" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>5000</v>
+      </c>
+      <c r="E18" s="3">
         <v>4800</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>2400</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>900</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>8600</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>4400</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>700</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>2000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>1900</v>
       </c>
-      <c r="L18" s="3">
-        <v>0</v>
-      </c>
       <c r="M18" s="3">
         <v>0</v>
       </c>
       <c r="N18" s="3">
+        <v>0</v>
+      </c>
+      <c r="O18" s="3">
         <v>-200</v>
       </c>
-      <c r="O18" s="3">
-        <v>0</v>
-      </c>
       <c r="P18" s="3">
         <v>0</v>
       </c>
@@ -1224,10 +1253,13 @@
         <v>0</v>
       </c>
       <c r="R18" s="3">
+        <v>0</v>
+      </c>
+      <c r="S18" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1246,23 +1278,24 @@
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
-    </row>
-    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S19" s="3"/>
+    </row>
+    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>200</v>
+      </c>
+      <c r="E20" s="3">
         <v>600</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>300</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-4200</v>
       </c>
-      <c r="G20" s="3">
-        <v>0</v>
-      </c>
       <c r="H20" s="3">
         <v>0</v>
       </c>
@@ -1296,35 +1329,38 @@
       <c r="R20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>5300</v>
+      </c>
+      <c r="E21" s="3">
         <v>5700</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>2900</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-3100</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>8900</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>4500</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>900</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>2100</v>
       </c>
-      <c r="K21" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="L21" s="3" t="s">
         <v>5</v>
       </c>
@@ -1346,38 +1382,41 @@
       <c r="R21" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S21" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E22" s="3">
         <v>1400</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>1100</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>1400</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>2300</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>1700</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>900</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>600</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>200</v>
       </c>
-      <c r="L22" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="M22" s="3" t="s">
         <v>5</v>
       </c>
@@ -1390,14 +1429,17 @@
       <c r="P22" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Q22" s="3">
-        <v>0</v>
+      <c r="Q22" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="R22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
@@ -1405,38 +1447,38 @@
         <v>4100</v>
       </c>
       <c r="E23" s="3">
+        <v>4100</v>
+      </c>
+      <c r="F23" s="3">
         <v>1600</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-4700</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>6400</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>2700</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-200</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>1300</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>1700</v>
       </c>
-      <c r="L23" s="3">
-        <v>0</v>
-      </c>
       <c r="M23" s="3">
         <v>0</v>
       </c>
       <c r="N23" s="3">
+        <v>0</v>
+      </c>
+      <c r="O23" s="3">
         <v>-200</v>
       </c>
-      <c r="O23" s="3">
-        <v>0</v>
-      </c>
       <c r="P23" s="3">
         <v>0</v>
       </c>
@@ -1444,40 +1486,43 @@
         <v>0</v>
       </c>
       <c r="R23" s="3">
+        <v>0</v>
+      </c>
+      <c r="S23" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>900</v>
+      </c>
+      <c r="E24" s="3">
         <v>800</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>-400</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>200</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>1900</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>600</v>
-      </c>
-      <c r="I24" s="3">
-        <v>100</v>
       </c>
       <c r="J24" s="3">
         <v>100</v>
       </c>
       <c r="K24" s="3">
+        <v>100</v>
+      </c>
+      <c r="L24" s="3">
         <v>300</v>
       </c>
-      <c r="L24" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="M24" s="3" t="s">
         <v>5</v>
       </c>
@@ -1496,8 +1541,11 @@
       <c r="R24" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S24" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1546,8 +1594,11 @@
       <c r="R25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
@@ -1555,38 +1606,38 @@
         <v>3300</v>
       </c>
       <c r="E26" s="3">
+        <v>3300</v>
+      </c>
+      <c r="F26" s="3">
         <v>2000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-4900</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>4500</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>2000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-400</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>1300</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>1400</v>
       </c>
-      <c r="L26" s="3">
-        <v>0</v>
-      </c>
       <c r="M26" s="3">
         <v>0</v>
       </c>
       <c r="N26" s="3">
+        <v>0</v>
+      </c>
+      <c r="O26" s="3">
         <v>-200</v>
       </c>
-      <c r="O26" s="3">
-        <v>0</v>
-      </c>
       <c r="P26" s="3">
         <v>0</v>
       </c>
@@ -1594,10 +1645,13 @@
         <v>0</v>
       </c>
       <c r="R26" s="3">
+        <v>0</v>
+      </c>
+      <c r="S26" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
@@ -1605,38 +1659,38 @@
         <v>3300</v>
       </c>
       <c r="E27" s="3">
+        <v>3300</v>
+      </c>
+      <c r="F27" s="3">
         <v>2000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-9500</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>4500</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>2000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-400</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>1300</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>1400</v>
       </c>
-      <c r="L27" s="3">
-        <v>0</v>
-      </c>
       <c r="M27" s="3">
         <v>0</v>
       </c>
       <c r="N27" s="3">
+        <v>0</v>
+      </c>
+      <c r="O27" s="3">
         <v>-200</v>
       </c>
-      <c r="O27" s="3">
-        <v>0</v>
-      </c>
       <c r="P27" s="3">
         <v>0</v>
       </c>
@@ -1644,10 +1698,13 @@
         <v>0</v>
       </c>
       <c r="R27" s="3">
+        <v>0</v>
+      </c>
+      <c r="S27" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1696,8 +1753,11 @@
       <c r="R28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1746,8 +1806,11 @@
       <c r="R29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1796,8 +1859,11 @@
       <c r="R30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1846,23 +1912,26 @@
       <c r="R31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E32" s="3">
         <v>-600</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-300</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>4200</v>
       </c>
-      <c r="G32" s="3">
-        <v>0</v>
-      </c>
       <c r="H32" s="3">
         <v>0</v>
       </c>
@@ -1896,8 +1965,11 @@
       <c r="R32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
@@ -1905,38 +1977,38 @@
         <v>3300</v>
       </c>
       <c r="E33" s="3">
+        <v>3300</v>
+      </c>
+      <c r="F33" s="3">
         <v>2000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-9500</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>4500</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>2000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-400</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>1300</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>1400</v>
       </c>
-      <c r="L33" s="3">
-        <v>0</v>
-      </c>
       <c r="M33" s="3">
         <v>0</v>
       </c>
       <c r="N33" s="3">
+        <v>0</v>
+      </c>
+      <c r="O33" s="3">
         <v>-200</v>
       </c>
-      <c r="O33" s="3">
-        <v>0</v>
-      </c>
       <c r="P33" s="3">
         <v>0</v>
       </c>
@@ -1944,10 +2016,13 @@
         <v>0</v>
       </c>
       <c r="R33" s="3">
+        <v>0</v>
+      </c>
+      <c r="S33" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1996,8 +2071,11 @@
       <c r="R34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
@@ -2005,38 +2083,38 @@
         <v>3300</v>
       </c>
       <c r="E35" s="3">
+        <v>3300</v>
+      </c>
+      <c r="F35" s="3">
         <v>2000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-9500</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>4500</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>2000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-400</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>1300</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>1400</v>
       </c>
-      <c r="L35" s="3">
-        <v>0</v>
-      </c>
       <c r="M35" s="3">
         <v>0</v>
       </c>
       <c r="N35" s="3">
+        <v>0</v>
+      </c>
+      <c r="O35" s="3">
         <v>-200</v>
       </c>
-      <c r="O35" s="3">
-        <v>0</v>
-      </c>
       <c r="P35" s="3">
         <v>0</v>
       </c>
@@ -2044,65 +2122,71 @@
         <v>0</v>
       </c>
       <c r="R35" s="3">
+        <v>0</v>
+      </c>
+      <c r="S35" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44895</v>
+      </c>
+      <c r="E38" s="2">
         <v>44804</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44712</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44620</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44530</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44439</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44347</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44255</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44165</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44043</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43951</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43861</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43769</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43677</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43585</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43496</v>
       </c>
     </row>
-    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2121,8 +2205,9 @@
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
-    </row>
-    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S39" s="3"/>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2141,38 +2226,39 @@
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
-    </row>
-    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S40" s="3"/>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E41" s="3">
         <v>300</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>1400</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>1000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>800</v>
-      </c>
-      <c r="H41" s="3">
-        <v>300</v>
       </c>
       <c r="I41" s="3">
         <v>300</v>
       </c>
       <c r="J41" s="3">
+        <v>300</v>
+      </c>
+      <c r="K41" s="3">
         <v>1400</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>3500</v>
       </c>
-      <c r="L41" s="3">
-        <v>0</v>
-      </c>
       <c r="M41" s="3">
         <v>0</v>
       </c>
@@ -2191,8 +2277,11 @@
       <c r="R41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2241,38 +2330,41 @@
       <c r="R42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>65200</v>
+      </c>
+      <c r="E43" s="3">
         <v>92300</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>105700</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>138500</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>192600</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>118600</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>43800</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>41100</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>39600</v>
       </c>
-      <c r="L43" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="M43" s="3" t="s">
         <v>5</v>
       </c>
@@ -2291,8 +2383,11 @@
       <c r="R43" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S43" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2341,8 +2436,11 @@
       <c r="R44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2350,31 +2448,31 @@
         <v>2300</v>
       </c>
       <c r="E45" s="3">
+        <v>2300</v>
+      </c>
+      <c r="F45" s="3">
         <v>1400</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>500</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>1000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>600</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>8400</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>2500</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>8300</v>
       </c>
-      <c r="L45" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M45" s="3">
-        <v>0</v>
+      <c r="M45" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="N45" s="3">
         <v>0</v>
@@ -2391,38 +2489,41 @@
       <c r="R45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>68700</v>
+      </c>
+      <c r="E46" s="3">
         <v>94900</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>108500</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>140000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>194400</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>119600</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>52400</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>45000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>51500</v>
       </c>
-      <c r="L46" s="3">
-        <v>0</v>
-      </c>
       <c r="M46" s="3">
         <v>0</v>
       </c>
@@ -2441,8 +2542,11 @@
       <c r="R46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2480,7 +2584,7 @@
         <v>0</v>
       </c>
       <c r="O47" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="P47" s="3">
         <v>200</v>
@@ -2491,38 +2595,41 @@
       <c r="R47" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S47" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>10800</v>
+      </c>
+      <c r="E48" s="3">
         <v>2700</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>2600</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>2900</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>3300</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>3600</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>4000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>4100</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>4500</v>
       </c>
-      <c r="L48" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="M48" s="3" t="s">
         <v>5</v>
       </c>
@@ -2541,38 +2648,41 @@
       <c r="R48" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S48" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>11400</v>
+      </c>
+      <c r="E49" s="3">
         <v>11600</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>11800</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>12000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>12200</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>12300</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>12500</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>12700</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>13200</v>
       </c>
-      <c r="L49" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="M49" s="3" t="s">
         <v>5</v>
       </c>
@@ -2591,8 +2701,11 @@
       <c r="R49" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S49" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2641,8 +2754,11 @@
       <c r="R50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2691,38 +2807,41 @@
       <c r="R51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>2600</v>
+      </c>
+      <c r="E52" s="3">
         <v>2500</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>2000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>500</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>900</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>500</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>600</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>400</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>500</v>
       </c>
-      <c r="L52" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="M52" s="3" t="s">
         <v>5</v>
       </c>
@@ -2741,8 +2860,11 @@
       <c r="R52" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S52" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2791,38 +2913,41 @@
       <c r="R53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>93500</v>
+      </c>
+      <c r="E54" s="3">
         <v>111700</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>124900</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>155400</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>210700</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>136000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>69500</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>62200</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>69700</v>
       </c>
-      <c r="L54" s="3">
-        <v>0</v>
-      </c>
       <c r="M54" s="3">
         <v>0</v>
       </c>
@@ -2830,7 +2955,7 @@
         <v>0</v>
       </c>
       <c r="O54" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="P54" s="3">
         <v>200</v>
@@ -2841,8 +2966,11 @@
       <c r="R54" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S54" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2861,8 +2989,9 @@
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
-    </row>
-    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S55" s="3"/>
+    </row>
+    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2881,38 +3010,39 @@
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
-    </row>
-    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S56" s="3"/>
+    </row>
+    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>31000</v>
+      </c>
+      <c r="E57" s="3">
         <v>41700</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>49000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>59000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>76000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>48500</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>41400</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>35800</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>38800</v>
       </c>
-      <c r="L57" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="M57" s="3" t="s">
         <v>5</v>
       </c>
@@ -2931,47 +3061,50 @@
       <c r="R57" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S57" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>21300</v>
+      </c>
+      <c r="E58" s="3">
         <v>37800</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>39100</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>45700</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>34000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>42900</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>2700</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>5300</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>9700</v>
-      </c>
-      <c r="L58" s="3">
-        <v>300</v>
       </c>
       <c r="M58" s="3">
         <v>300</v>
       </c>
       <c r="N58" s="3">
+        <v>300</v>
+      </c>
+      <c r="O58" s="3">
         <v>200</v>
       </c>
-      <c r="O58" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="P58" s="3" t="s">
         <v>5</v>
       </c>
@@ -2981,37 +3114,40 @@
       <c r="R58" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S58" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>7900</v>
+      </c>
+      <c r="E59" s="3">
         <v>9000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>16300</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>43500</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>81700</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>29900</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>11900</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>9000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>11700</v>
-      </c>
-      <c r="L59" s="3">
-        <v>600</v>
       </c>
       <c r="M59" s="3">
         <v>600</v>
@@ -3020,48 +3156,51 @@
         <v>600</v>
       </c>
       <c r="O59" s="3">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="P59" s="3">
         <v>800</v>
       </c>
       <c r="Q59" s="3">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="R59" s="3">
         <v>700</v>
       </c>
-    </row>
-    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S59" s="3">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>60200</v>
+      </c>
+      <c r="E60" s="3">
         <v>88400</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>104400</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>148200</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>191600</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>121300</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>55900</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>50100</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>60200</v>
-      </c>
-      <c r="L60" s="3">
-        <v>800</v>
       </c>
       <c r="M60" s="3">
         <v>800</v>
@@ -3076,43 +3215,46 @@
         <v>800</v>
       </c>
       <c r="Q60" s="3">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="R60" s="3">
         <v>700</v>
       </c>
-    </row>
-    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S60" s="3">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>200</v>
+      </c>
+      <c r="E61" s="3">
         <v>300</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>400</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>1300</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>3500</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>3400</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>3900</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>2000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>1800</v>
       </c>
-      <c r="L61" s="3">
-        <v>0</v>
-      </c>
       <c r="M61" s="3">
         <v>0</v>
       </c>
@@ -3131,38 +3273,41 @@
       <c r="R61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>20700</v>
+      </c>
+      <c r="E62" s="3">
         <v>13800</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>14300</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>2000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>2200</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>2600</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>3000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>3200</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>3700</v>
       </c>
-      <c r="L62" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="M62" s="3" t="s">
         <v>5</v>
       </c>
@@ -3181,8 +3326,11 @@
       <c r="R62" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S62" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3231,8 +3379,11 @@
       <c r="R63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3281,8 +3432,11 @@
       <c r="R64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3331,37 +3485,40 @@
       <c r="R65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>81100</v>
+      </c>
+      <c r="E66" s="3">
         <v>102500</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>119100</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>151500</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>197400</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>127200</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>62800</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>55300</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>65700</v>
-      </c>
-      <c r="L66" s="3">
-        <v>800</v>
       </c>
       <c r="M66" s="3">
         <v>800</v>
@@ -3376,13 +3533,16 @@
         <v>800</v>
       </c>
       <c r="Q66" s="3">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="R66" s="3">
         <v>700</v>
       </c>
-    </row>
-    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S66" s="3">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3401,8 +3561,9 @@
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
-    </row>
-    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S67" s="3"/>
+    </row>
+    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3451,8 +3612,11 @@
       <c r="R68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3501,8 +3665,11 @@
       <c r="R69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3551,8 +3718,11 @@
       <c r="R70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3601,37 +3771,40 @@
       <c r="R71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>11400</v>
+      </c>
+      <c r="E72" s="3">
         <v>8200</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>4900</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>2900</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>7800</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>3300</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>1300</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>1700</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>400</v>
-      </c>
-      <c r="L72" s="3">
-        <v>-1700</v>
       </c>
       <c r="M72" s="3">
         <v>-1700</v>
@@ -3640,19 +3813,22 @@
         <v>-1700</v>
       </c>
       <c r="O72" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="P72" s="3">
         <v>-1500</v>
-      </c>
-      <c r="P72" s="3">
-        <v>-1400</v>
       </c>
       <c r="Q72" s="3">
         <v>-1400</v>
       </c>
       <c r="R72" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="S72" s="3">
         <v>-1300</v>
       </c>
     </row>
-    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3701,8 +3877,11 @@
       <c r="R73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3751,8 +3930,11 @@
       <c r="R74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3801,37 +3983,40 @@
       <c r="R75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>12400</v>
+      </c>
+      <c r="E76" s="3">
         <v>9200</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>5800</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>3900</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>13400</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>8800</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>6600</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>6900</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>3900</v>
-      </c>
-      <c r="L76" s="3">
-        <v>-800</v>
       </c>
       <c r="M76" s="3">
         <v>-800</v>
@@ -3840,19 +4025,22 @@
         <v>-800</v>
       </c>
       <c r="O76" s="3">
-        <v>-600</v>
+        <v>-800</v>
       </c>
       <c r="P76" s="3">
         <v>-600</v>
       </c>
       <c r="Q76" s="3">
-        <v>-500</v>
+        <v>-600</v>
       </c>
       <c r="R76" s="3">
         <v>-500</v>
       </c>
-    </row>
-    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S76" s="3">
+        <v>-500</v>
+      </c>
+    </row>
+    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3901,63 +4089,69 @@
       <c r="R77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44895</v>
+      </c>
+      <c r="E80" s="2">
         <v>44804</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44712</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44620</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44530</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44439</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44347</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44255</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44165</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44043</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43951</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43861</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43769</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43677</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43585</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43496</v>
       </c>
     </row>
-    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
@@ -3965,38 +4159,38 @@
         <v>3300</v>
       </c>
       <c r="E81" s="3">
+        <v>3300</v>
+      </c>
+      <c r="F81" s="3">
         <v>2000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-9500</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>4500</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>2000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-400</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>1300</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>1400</v>
       </c>
-      <c r="L81" s="3">
-        <v>0</v>
-      </c>
       <c r="M81" s="3">
         <v>0</v>
       </c>
       <c r="N81" s="3">
+        <v>0</v>
+      </c>
+      <c r="O81" s="3">
         <v>-200</v>
       </c>
-      <c r="O81" s="3">
-        <v>0</v>
-      </c>
       <c r="P81" s="3">
         <v>0</v>
       </c>
@@ -4004,10 +4198,13 @@
         <v>0</v>
       </c>
       <c r="R81" s="3">
+        <v>0</v>
+      </c>
+      <c r="S81" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4026,8 +4223,9 @@
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
-    </row>
-    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S82" s="3"/>
+    </row>
+    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4052,8 +4250,8 @@
       <c r="J83" s="3">
         <v>200</v>
       </c>
-      <c r="K83" s="3" t="s">
-        <v>5</v>
+      <c r="K83" s="3">
+        <v>200</v>
       </c>
       <c r="L83" s="3" t="s">
         <v>5</v>
@@ -4070,14 +4268,17 @@
       <c r="P83" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Q83" s="3">
-        <v>0</v>
+      <c r="Q83" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="R83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4126,8 +4327,11 @@
       <c r="R84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4176,8 +4380,11 @@
       <c r="R85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4226,8 +4433,11 @@
       <c r="R86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4276,8 +4486,11 @@
       <c r="R87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4326,38 +4539,41 @@
       <c r="R88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>17600</v>
+      </c>
+      <c r="E89" s="3">
         <v>300</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>8000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-11600</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>10000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-40400</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>400</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-1200</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>600</v>
       </c>
-      <c r="L89" s="3">
-        <v>0</v>
-      </c>
       <c r="M89" s="3">
         <v>0</v>
       </c>
@@ -4376,8 +4592,11 @@
       <c r="R89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4396,17 +4615,18 @@
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
-    </row>
-    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S90" s="3"/>
+    </row>
+    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>0</v>
+      </c>
+      <c r="E91" s="3">
         <v>-100</v>
       </c>
-      <c r="E91" s="3">
-        <v>0</v>
-      </c>
       <c r="F91" s="3">
         <v>0</v>
       </c>
@@ -4422,8 +4642,8 @@
       <c r="J91" s="3">
         <v>0</v>
       </c>
-      <c r="K91" s="3" t="s">
-        <v>5</v>
+      <c r="K91" s="3">
+        <v>0</v>
       </c>
       <c r="L91" s="3" t="s">
         <v>5</v>
@@ -4440,14 +4660,17 @@
       <c r="P91" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Q91" s="3">
-        <v>0</v>
+      <c r="Q91" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="R91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4496,8 +4719,11 @@
       <c r="R92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4546,17 +4772,20 @@
       <c r="R93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>0</v>
+      </c>
+      <c r="E94" s="3">
         <v>-100</v>
       </c>
-      <c r="E94" s="3">
-        <v>0</v>
-      </c>
       <c r="F94" s="3">
         <v>0</v>
       </c>
@@ -4572,8 +4801,8 @@
       <c r="J94" s="3">
         <v>0</v>
       </c>
-      <c r="K94" s="3" t="s">
-        <v>5</v>
+      <c r="K94" s="3">
+        <v>0</v>
       </c>
       <c r="L94" s="3" t="s">
         <v>5</v>
@@ -4593,11 +4822,14 @@
       <c r="Q94" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="R94" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="R94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4616,8 +4848,9 @@
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
-    </row>
-    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S95" s="3"/>
+    </row>
+    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4666,8 +4899,11 @@
       <c r="R96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4716,8 +4952,11 @@
       <c r="R97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4766,8 +5005,11 @@
       <c r="R98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4816,38 +5058,41 @@
       <c r="R99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-16600</v>
+      </c>
+      <c r="E100" s="3">
         <v>-1400</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-7600</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>11800</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-9400</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>40500</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-1500</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-1000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>1600</v>
       </c>
-      <c r="L100" s="3">
-        <v>0</v>
-      </c>
       <c r="M100" s="3">
         <v>0</v>
       </c>
@@ -4863,11 +5108,14 @@
       <c r="Q100" s="3">
         <v>0</v>
       </c>
-      <c r="R100" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="R100" s="3">
+        <v>0</v>
+      </c>
+      <c r="S100" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4916,38 +5164,41 @@
       <c r="R101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E102" s="3">
         <v>-1200</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>400</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>200</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>500</v>
       </c>
-      <c r="H102" s="3">
-        <v>0</v>
-      </c>
       <c r="I102" s="3">
+        <v>0</v>
+      </c>
+      <c r="J102" s="3">
         <v>-1100</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-2100</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>2200</v>
       </c>
-      <c r="L102" s="3">
-        <v>0</v>
-      </c>
       <c r="M102" s="3">
         <v>0</v>
       </c>
@@ -4964,6 +5215,9 @@
         <v>0</v>
       </c>
       <c r="R102" s="3">
+        <v>0</v>
+      </c>
+      <c r="S102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/UNQL_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/UNQL_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="92">
   <si>
     <t>UNQL</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:S102"/>
+  <dimension ref="A5:T102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,118 +665,122 @@
     <col min="1" max="1" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44985</v>
+      </c>
+      <c r="E7" s="2">
         <v>44895</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44804</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44712</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44620</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44530</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44439</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44347</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44255</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44165</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44043</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43951</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43861</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43769</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43677</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43585</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43496</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>49600</v>
+      </c>
+      <c r="E8" s="3">
         <v>88800</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>136500</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>168800</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>250400</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>405400</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>189800</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>98900</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>91000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>124600</v>
       </c>
-      <c r="M8" s="3">
-        <v>0</v>
-      </c>
       <c r="N8" s="3">
         <v>0</v>
       </c>
@@ -795,41 +799,44 @@
       <c r="S8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>43300</v>
+      </c>
+      <c r="E9" s="3">
         <v>78100</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>126400</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>157500</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>243300</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>389300</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>181500</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>91900</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>84200</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>116300</v>
       </c>
-      <c r="M9" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="N9" s="3" t="s">
         <v>5</v>
       </c>
@@ -848,41 +855,44 @@
       <c r="S9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>6300</v>
+      </c>
+      <c r="E10" s="3">
         <v>10700</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>10100</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>11300</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>7100</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>16100</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>8300</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>7000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>6800</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>8300</v>
       </c>
-      <c r="M10" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="N10" s="3" t="s">
         <v>5</v>
       </c>
@@ -901,8 +911,11 @@
       <c r="S10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -922,8 +935,9 @@
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T11" s="3"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -975,8 +989,11 @@
       <c r="S12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1028,8 +1045,11 @@
       <c r="S13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1043,35 +1063,35 @@
         <v>0</v>
       </c>
       <c r="G14" s="3">
+        <v>0</v>
+      </c>
+      <c r="H14" s="3">
         <v>1300</v>
       </c>
-      <c r="H14" s="3">
-        <v>0</v>
-      </c>
       <c r="I14" s="3">
+        <v>0</v>
+      </c>
+      <c r="J14" s="3">
         <v>-1100</v>
       </c>
-      <c r="J14" s="3">
-        <v>0</v>
-      </c>
       <c r="K14" s="3">
+        <v>0</v>
+      </c>
+      <c r="L14" s="3">
         <v>-1600</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>1100</v>
       </c>
-      <c r="M14" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="N14" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="O14" s="3">
+      <c r="O14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P14" s="3">
         <v>200</v>
       </c>
-      <c r="P14" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="Q14" s="3" t="s">
         <v>5</v>
       </c>
@@ -1081,8 +1101,11 @@
       <c r="S14" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T14" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1113,8 +1136,8 @@
       <c r="L15" s="3">
         <v>200</v>
       </c>
-      <c r="M15" s="3" t="s">
-        <v>5</v>
+      <c r="M15" s="3">
+        <v>200</v>
       </c>
       <c r="N15" s="3" t="s">
         <v>5</v>
@@ -1134,8 +1157,11 @@
       <c r="S15" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T15" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1152,50 +1178,51 @@
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
-    </row>
-    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T16" s="3"/>
+    </row>
+    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>49300</v>
+      </c>
+      <c r="E17" s="3">
         <v>83800</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>131700</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>166400</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>249500</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>396800</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>185400</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>98200</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>89000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>122700</v>
       </c>
-      <c r="M17" s="3">
-        <v>0</v>
-      </c>
       <c r="N17" s="3">
         <v>0</v>
       </c>
       <c r="O17" s="3">
+        <v>0</v>
+      </c>
+      <c r="P17" s="3">
         <v>200</v>
       </c>
-      <c r="P17" s="3">
-        <v>0</v>
-      </c>
       <c r="Q17" s="3">
         <v>0</v>
       </c>
@@ -1203,52 +1230,55 @@
         <v>0</v>
       </c>
       <c r="S17" s="3">
+        <v>0</v>
+      </c>
+      <c r="T17" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>300</v>
+      </c>
+      <c r="E18" s="3">
         <v>5000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>4800</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>2400</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>900</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>8600</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>4400</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>700</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>2000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>1900</v>
       </c>
-      <c r="M18" s="3">
-        <v>0</v>
-      </c>
       <c r="N18" s="3">
         <v>0</v>
       </c>
       <c r="O18" s="3">
+        <v>0</v>
+      </c>
+      <c r="P18" s="3">
         <v>-200</v>
       </c>
-      <c r="P18" s="3">
-        <v>0</v>
-      </c>
       <c r="Q18" s="3">
         <v>0</v>
       </c>
@@ -1256,10 +1286,13 @@
         <v>0</v>
       </c>
       <c r="S18" s="3">
+        <v>0</v>
+      </c>
+      <c r="T18" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1279,26 +1312,27 @@
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
-    </row>
-    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T19" s="3"/>
+    </row>
+    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>100</v>
+      </c>
+      <c r="E20" s="3">
         <v>200</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>600</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>300</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-4200</v>
       </c>
-      <c r="H20" s="3">
-        <v>0</v>
-      </c>
       <c r="I20" s="3">
         <v>0</v>
       </c>
@@ -1332,38 +1366,41 @@
       <c r="S20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>600</v>
+      </c>
+      <c r="E21" s="3">
         <v>5300</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>5700</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>2900</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-3100</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>8900</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>4500</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>900</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>2100</v>
       </c>
-      <c r="L21" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="M21" s="3" t="s">
         <v>5</v>
       </c>
@@ -1385,41 +1422,44 @@
       <c r="S21" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T21" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>500</v>
+      </c>
+      <c r="E22" s="3">
         <v>1000</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>1400</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>1100</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>1400</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>2300</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>1700</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>900</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>600</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>200</v>
       </c>
-      <c r="M22" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="N22" s="3" t="s">
         <v>5</v>
       </c>
@@ -1432,56 +1472,59 @@
       <c r="Q22" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="R22" s="3">
-        <v>0</v>
+      <c r="R22" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="S22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>4100</v>
+        <v>-200</v>
       </c>
       <c r="E23" s="3">
         <v>4100</v>
       </c>
       <c r="F23" s="3">
+        <v>4100</v>
+      </c>
+      <c r="G23" s="3">
         <v>1600</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-4700</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>6400</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>2700</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-200</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>1300</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>1700</v>
       </c>
-      <c r="M23" s="3">
-        <v>0</v>
-      </c>
       <c r="N23" s="3">
         <v>0</v>
       </c>
       <c r="O23" s="3">
+        <v>0</v>
+      </c>
+      <c r="P23" s="3">
         <v>-200</v>
       </c>
-      <c r="P23" s="3">
-        <v>0</v>
-      </c>
       <c r="Q23" s="3">
         <v>0</v>
       </c>
@@ -1489,43 +1532,46 @@
         <v>0</v>
       </c>
       <c r="S23" s="3">
+        <v>0</v>
+      </c>
+      <c r="T23" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>-800</v>
+      </c>
+      <c r="E24" s="3">
         <v>900</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>800</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>-400</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>200</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>1900</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>600</v>
-      </c>
-      <c r="J24" s="3">
-        <v>100</v>
       </c>
       <c r="K24" s="3">
         <v>100</v>
       </c>
       <c r="L24" s="3">
+        <v>100</v>
+      </c>
+      <c r="M24" s="3">
         <v>300</v>
       </c>
-      <c r="M24" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="N24" s="3" t="s">
         <v>5</v>
       </c>
@@ -1544,8 +1590,11 @@
       <c r="S24" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T24" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1597,50 +1646,53 @@
       <c r="S25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>3300</v>
+        <v>700</v>
       </c>
       <c r="E26" s="3">
         <v>3300</v>
       </c>
       <c r="F26" s="3">
+        <v>3300</v>
+      </c>
+      <c r="G26" s="3">
         <v>2000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-4900</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>4500</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>2000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-400</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>1300</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>1400</v>
       </c>
-      <c r="M26" s="3">
-        <v>0</v>
-      </c>
       <c r="N26" s="3">
         <v>0</v>
       </c>
       <c r="O26" s="3">
+        <v>0</v>
+      </c>
+      <c r="P26" s="3">
         <v>-200</v>
       </c>
-      <c r="P26" s="3">
-        <v>0</v>
-      </c>
       <c r="Q26" s="3">
         <v>0</v>
       </c>
@@ -1648,52 +1700,55 @@
         <v>0</v>
       </c>
       <c r="S26" s="3">
+        <v>0</v>
+      </c>
+      <c r="T26" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>3300</v>
+        <v>700</v>
       </c>
       <c r="E27" s="3">
         <v>3300</v>
       </c>
       <c r="F27" s="3">
+        <v>3300</v>
+      </c>
+      <c r="G27" s="3">
         <v>2000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-9500</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>4500</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>2000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-400</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>1300</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>1400</v>
       </c>
-      <c r="M27" s="3">
-        <v>0</v>
-      </c>
       <c r="N27" s="3">
         <v>0</v>
       </c>
       <c r="O27" s="3">
+        <v>0</v>
+      </c>
+      <c r="P27" s="3">
         <v>-200</v>
       </c>
-      <c r="P27" s="3">
-        <v>0</v>
-      </c>
       <c r="Q27" s="3">
         <v>0</v>
       </c>
@@ -1701,10 +1756,13 @@
         <v>0</v>
       </c>
       <c r="S27" s="3">
+        <v>0</v>
+      </c>
+      <c r="T27" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1756,8 +1814,11 @@
       <c r="S28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1809,8 +1870,11 @@
       <c r="S29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1862,8 +1926,11 @@
       <c r="S30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1915,26 +1982,29 @@
       <c r="S31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E32" s="3">
         <v>-200</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-600</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-300</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>4200</v>
       </c>
-      <c r="H32" s="3">
-        <v>0</v>
-      </c>
       <c r="I32" s="3">
         <v>0</v>
       </c>
@@ -1968,50 +2038,53 @@
       <c r="S32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>3300</v>
+        <v>700</v>
       </c>
       <c r="E33" s="3">
         <v>3300</v>
       </c>
       <c r="F33" s="3">
+        <v>3300</v>
+      </c>
+      <c r="G33" s="3">
         <v>2000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-9500</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>4500</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>2000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-400</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>1300</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>1400</v>
       </c>
-      <c r="M33" s="3">
-        <v>0</v>
-      </c>
       <c r="N33" s="3">
         <v>0</v>
       </c>
       <c r="O33" s="3">
+        <v>0</v>
+      </c>
+      <c r="P33" s="3">
         <v>-200</v>
       </c>
-      <c r="P33" s="3">
-        <v>0</v>
-      </c>
       <c r="Q33" s="3">
         <v>0</v>
       </c>
@@ -2019,10 +2092,13 @@
         <v>0</v>
       </c>
       <c r="S33" s="3">
+        <v>0</v>
+      </c>
+      <c r="T33" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2074,50 +2150,53 @@
       <c r="S34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>3300</v>
+        <v>700</v>
       </c>
       <c r="E35" s="3">
         <v>3300</v>
       </c>
       <c r="F35" s="3">
+        <v>3300</v>
+      </c>
+      <c r="G35" s="3">
         <v>2000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-9500</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>4500</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>2000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-400</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>1300</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>1400</v>
       </c>
-      <c r="M35" s="3">
-        <v>0</v>
-      </c>
       <c r="N35" s="3">
         <v>0</v>
       </c>
       <c r="O35" s="3">
+        <v>0</v>
+      </c>
+      <c r="P35" s="3">
         <v>-200</v>
       </c>
-      <c r="P35" s="3">
-        <v>0</v>
-      </c>
       <c r="Q35" s="3">
         <v>0</v>
       </c>
@@ -2125,68 +2204,74 @@
         <v>0</v>
       </c>
       <c r="S35" s="3">
+        <v>0</v>
+      </c>
+      <c r="T35" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44985</v>
+      </c>
+      <c r="E38" s="2">
         <v>44895</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44804</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44712</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44620</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44530</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44439</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44347</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44255</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44165</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44043</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43951</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43861</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43769</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43677</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43585</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43496</v>
       </c>
     </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2206,8 +2291,9 @@
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
-    </row>
-    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T39" s="3"/>
+    </row>
+    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2227,41 +2313,42 @@
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
-    </row>
-    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T40" s="3"/>
+    </row>
+    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>14400</v>
+      </c>
+      <c r="E41" s="3">
         <v>1200</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>300</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>1400</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>1000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>800</v>
-      </c>
-      <c r="I41" s="3">
-        <v>300</v>
       </c>
       <c r="J41" s="3">
         <v>300</v>
       </c>
       <c r="K41" s="3">
+        <v>300</v>
+      </c>
+      <c r="L41" s="3">
         <v>1400</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>3500</v>
       </c>
-      <c r="M41" s="3">
-        <v>0</v>
-      </c>
       <c r="N41" s="3">
         <v>0</v>
       </c>
@@ -2280,8 +2367,11 @@
       <c r="S41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2333,41 +2423,44 @@
       <c r="S42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>44300</v>
+      </c>
+      <c r="E43" s="3">
         <v>65200</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>92300</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>105700</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>138500</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>192600</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>118600</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>43800</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>41100</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>39600</v>
       </c>
-      <c r="M43" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="N43" s="3" t="s">
         <v>5</v>
       </c>
@@ -2386,8 +2479,11 @@
       <c r="S43" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T43" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2439,43 +2535,46 @@
       <c r="S44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>2300</v>
+        <v>3800</v>
       </c>
       <c r="E45" s="3">
         <v>2300</v>
       </c>
       <c r="F45" s="3">
+        <v>2300</v>
+      </c>
+      <c r="G45" s="3">
         <v>1400</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>500</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>1000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>600</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>8400</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>2500</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>8300</v>
       </c>
-      <c r="M45" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N45" s="3">
-        <v>0</v>
+      <c r="N45" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="O45" s="3">
         <v>0</v>
@@ -2492,41 +2591,44 @@
       <c r="S45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>62500</v>
+      </c>
+      <c r="E46" s="3">
         <v>68700</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>94900</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>108500</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>140000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>194400</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>119600</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>52400</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>45000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>51500</v>
       </c>
-      <c r="M46" s="3">
-        <v>0</v>
-      </c>
       <c r="N46" s="3">
         <v>0</v>
       </c>
@@ -2545,31 +2647,34 @@
       <c r="S46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>0</v>
-      </c>
-      <c r="E47" s="3">
-        <v>0</v>
-      </c>
-      <c r="F47" s="3">
-        <v>0</v>
-      </c>
-      <c r="G47" s="3">
-        <v>0</v>
-      </c>
-      <c r="H47" s="3">
-        <v>0</v>
-      </c>
-      <c r="I47" s="3">
-        <v>0</v>
-      </c>
-      <c r="J47" s="3">
-        <v>0</v>
+        <v>10900</v>
+      </c>
+      <c r="E47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J47" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="K47" s="3">
         <v>0</v>
@@ -2587,7 +2692,7 @@
         <v>0</v>
       </c>
       <c r="P47" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="Q47" s="3">
         <v>200</v>
@@ -2598,41 +2703,44 @@
       <c r="S47" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T47" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>12600</v>
+      </c>
+      <c r="E48" s="3">
         <v>10800</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>2700</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>2600</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>2900</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>3300</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>3600</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>4000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>4100</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>4500</v>
       </c>
-      <c r="M48" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="N48" s="3" t="s">
         <v>5</v>
       </c>
@@ -2651,41 +2759,44 @@
       <c r="S48" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T48" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>21800</v>
+      </c>
+      <c r="E49" s="3">
         <v>11400</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>11600</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>11800</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>12000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>12200</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>12300</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>12500</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>12700</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>13200</v>
       </c>
-      <c r="M49" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="N49" s="3" t="s">
         <v>5</v>
       </c>
@@ -2704,8 +2815,11 @@
       <c r="S49" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T49" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2757,8 +2871,11 @@
       <c r="S50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2810,41 +2927,44 @@
       <c r="S51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>3200</v>
+      </c>
+      <c r="E52" s="3">
         <v>2600</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>2500</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>2000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>500</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>900</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>500</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>600</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>400</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>500</v>
       </c>
-      <c r="M52" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="N52" s="3" t="s">
         <v>5</v>
       </c>
@@ -2863,8 +2983,11 @@
       <c r="S52" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T52" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2916,41 +3039,44 @@
       <c r="S53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>110900</v>
+      </c>
+      <c r="E54" s="3">
         <v>93500</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>111700</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>124900</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>155400</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>210700</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>136000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>69500</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>62200</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>69700</v>
       </c>
-      <c r="M54" s="3">
-        <v>0</v>
-      </c>
       <c r="N54" s="3">
         <v>0</v>
       </c>
@@ -2958,7 +3084,7 @@
         <v>0</v>
       </c>
       <c r="P54" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="Q54" s="3">
         <v>200</v>
@@ -2969,8 +3095,11 @@
       <c r="S54" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T54" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2990,8 +3119,9 @@
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
-    </row>
-    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T55" s="3"/>
+    </row>
+    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3011,41 +3141,42 @@
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
-    </row>
-    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T56" s="3"/>
+    </row>
+    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>23200</v>
+      </c>
+      <c r="E57" s="3">
         <v>31000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>41700</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>49000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>59000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>76000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>48500</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>41400</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>35800</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>38800</v>
       </c>
-      <c r="M57" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="N57" s="3" t="s">
         <v>5</v>
       </c>
@@ -3064,50 +3195,53 @@
       <c r="S57" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T57" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>28000</v>
+      </c>
+      <c r="E58" s="3">
         <v>21300</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>37800</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>39100</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>45700</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>34000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>42900</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>2700</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>5300</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>9700</v>
-      </c>
-      <c r="M58" s="3">
-        <v>300</v>
       </c>
       <c r="N58" s="3">
         <v>300</v>
       </c>
       <c r="O58" s="3">
+        <v>300</v>
+      </c>
+      <c r="P58" s="3">
         <v>200</v>
       </c>
-      <c r="P58" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="Q58" s="3" t="s">
         <v>5</v>
       </c>
@@ -3117,40 +3251,43 @@
       <c r="S58" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T58" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>21000</v>
+      </c>
+      <c r="E59" s="3">
         <v>7900</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>9000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>16300</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>43500</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>81700</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>29900</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>11900</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>9000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>11700</v>
-      </c>
-      <c r="M59" s="3">
-        <v>600</v>
       </c>
       <c r="N59" s="3">
         <v>600</v>
@@ -3159,51 +3296,54 @@
         <v>600</v>
       </c>
       <c r="P59" s="3">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="Q59" s="3">
         <v>800</v>
       </c>
       <c r="R59" s="3">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="S59" s="3">
         <v>700</v>
       </c>
-    </row>
-    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T59" s="3">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>72200</v>
+      </c>
+      <c r="E60" s="3">
         <v>60200</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>88400</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>104400</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>148200</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>191600</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>121300</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>55900</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>50100</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>60200</v>
-      </c>
-      <c r="M60" s="3">
-        <v>800</v>
       </c>
       <c r="N60" s="3">
         <v>800</v>
@@ -3218,46 +3358,49 @@
         <v>800</v>
       </c>
       <c r="R60" s="3">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="S60" s="3">
         <v>700</v>
       </c>
-    </row>
-    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T60" s="3">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>1700</v>
+      </c>
+      <c r="E61" s="3">
         <v>200</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>300</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>400</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>1300</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>3500</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>3400</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>3900</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>2000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>1800</v>
       </c>
-      <c r="M61" s="3">
-        <v>0</v>
-      </c>
       <c r="N61" s="3">
         <v>0</v>
       </c>
@@ -3276,41 +3419,44 @@
       <c r="S61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>20400</v>
+      </c>
+      <c r="E62" s="3">
         <v>20700</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>13800</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>14300</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>2000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>2200</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>2600</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>3000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>3200</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>3700</v>
       </c>
-      <c r="M62" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="N62" s="3" t="s">
         <v>5</v>
       </c>
@@ -3329,8 +3475,11 @@
       <c r="S62" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T62" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3382,8 +3531,11 @@
       <c r="S63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3435,8 +3587,11 @@
       <c r="S64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3488,40 +3643,43 @@
       <c r="S65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>97900</v>
+      </c>
+      <c r="E66" s="3">
         <v>81100</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>102500</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>119100</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>151500</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>197400</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>127200</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>62800</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>55300</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>65700</v>
-      </c>
-      <c r="M66" s="3">
-        <v>800</v>
       </c>
       <c r="N66" s="3">
         <v>800</v>
@@ -3536,13 +3694,16 @@
         <v>800</v>
       </c>
       <c r="R66" s="3">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="S66" s="3">
         <v>700</v>
       </c>
-    </row>
-    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T66" s="3">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3562,8 +3723,9 @@
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
-    </row>
-    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T67" s="3"/>
+    </row>
+    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3615,8 +3777,11 @@
       <c r="S68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3668,8 +3833,11 @@
       <c r="S69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3721,8 +3889,11 @@
       <c r="S70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3774,40 +3945,43 @@
       <c r="S71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>12100</v>
+      </c>
+      <c r="E72" s="3">
         <v>11400</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>8200</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>4900</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>2900</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>7800</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>3300</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>1300</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>1700</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>400</v>
-      </c>
-      <c r="M72" s="3">
-        <v>-1700</v>
       </c>
       <c r="N72" s="3">
         <v>-1700</v>
@@ -3816,19 +3990,22 @@
         <v>-1700</v>
       </c>
       <c r="P72" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="Q72" s="3">
         <v>-1500</v>
-      </c>
-      <c r="Q72" s="3">
-        <v>-1400</v>
       </c>
       <c r="R72" s="3">
         <v>-1400</v>
       </c>
       <c r="S72" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="T72" s="3">
         <v>-1300</v>
       </c>
     </row>
-    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3880,8 +4057,11 @@
       <c r="S73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3933,8 +4113,11 @@
       <c r="S74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3986,40 +4169,43 @@
       <c r="S75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>13100</v>
+      </c>
+      <c r="E76" s="3">
         <v>12400</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>9200</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>5800</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>3900</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>13400</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>8800</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>6600</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>6900</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>3900</v>
-      </c>
-      <c r="M76" s="3">
-        <v>-800</v>
       </c>
       <c r="N76" s="3">
         <v>-800</v>
@@ -4028,19 +4214,22 @@
         <v>-800</v>
       </c>
       <c r="P76" s="3">
-        <v>-600</v>
+        <v>-800</v>
       </c>
       <c r="Q76" s="3">
         <v>-600</v>
       </c>
       <c r="R76" s="3">
-        <v>-500</v>
+        <v>-600</v>
       </c>
       <c r="S76" s="3">
         <v>-500</v>
       </c>
-    </row>
-    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T76" s="3">
+        <v>-500</v>
+      </c>
+    </row>
+    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4092,108 +4281,114 @@
       <c r="S77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44985</v>
+      </c>
+      <c r="E80" s="2">
         <v>44895</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44804</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44712</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44620</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44530</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44439</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44347</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44255</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44165</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44043</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43951</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43861</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43769</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43677</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43585</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43496</v>
       </c>
     </row>
-    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>3300</v>
+        <v>700</v>
       </c>
       <c r="E81" s="3">
         <v>3300</v>
       </c>
       <c r="F81" s="3">
+        <v>3300</v>
+      </c>
+      <c r="G81" s="3">
         <v>2000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-9500</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>4500</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>2000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-400</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>1300</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>1400</v>
       </c>
-      <c r="M81" s="3">
-        <v>0</v>
-      </c>
       <c r="N81" s="3">
         <v>0</v>
       </c>
       <c r="O81" s="3">
+        <v>0</v>
+      </c>
+      <c r="P81" s="3">
         <v>-200</v>
       </c>
-      <c r="P81" s="3">
-        <v>0</v>
-      </c>
       <c r="Q81" s="3">
         <v>0</v>
       </c>
@@ -4201,10 +4396,13 @@
         <v>0</v>
       </c>
       <c r="S81" s="3">
+        <v>0</v>
+      </c>
+      <c r="T81" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4224,8 +4422,9 @@
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
-    </row>
-    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T82" s="3"/>
+    </row>
+    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4253,8 +4452,8 @@
       <c r="K83" s="3">
         <v>200</v>
       </c>
-      <c r="L83" s="3" t="s">
-        <v>5</v>
+      <c r="L83" s="3">
+        <v>200</v>
       </c>
       <c r="M83" s="3" t="s">
         <v>5</v>
@@ -4271,14 +4470,17 @@
       <c r="Q83" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="R83" s="3">
-        <v>0</v>
+      <c r="R83" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="S83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4330,8 +4532,11 @@
       <c r="S84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4383,8 +4588,11 @@
       <c r="S85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4436,8 +4644,11 @@
       <c r="S86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4489,8 +4700,11 @@
       <c r="S87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4542,41 +4756,44 @@
       <c r="S88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>15200</v>
+      </c>
+      <c r="E89" s="3">
         <v>17600</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>300</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>8000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-11600</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>10000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-40400</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>400</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-1200</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>600</v>
       </c>
-      <c r="M89" s="3">
-        <v>0</v>
-      </c>
       <c r="N89" s="3">
         <v>0</v>
       </c>
@@ -4595,8 +4812,11 @@
       <c r="S89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4616,8 +4836,9 @@
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
-    </row>
-    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T90" s="3"/>
+    </row>
+    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4625,11 +4846,11 @@
         <v>0</v>
       </c>
       <c r="E91" s="3">
+        <v>0</v>
+      </c>
+      <c r="F91" s="3">
         <v>-100</v>
       </c>
-      <c r="F91" s="3">
-        <v>0</v>
-      </c>
       <c r="G91" s="3">
         <v>0</v>
       </c>
@@ -4645,8 +4866,8 @@
       <c r="K91" s="3">
         <v>0</v>
       </c>
-      <c r="L91" s="3" t="s">
-        <v>5</v>
+      <c r="L91" s="3">
+        <v>0</v>
       </c>
       <c r="M91" s="3" t="s">
         <v>5</v>
@@ -4663,14 +4884,17 @@
       <c r="Q91" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="R91" s="3">
-        <v>0</v>
+      <c r="R91" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="S91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4722,8 +4946,11 @@
       <c r="S92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4775,20 +5002,23 @@
       <c r="S93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>0</v>
+        <v>8800</v>
       </c>
       <c r="E94" s="3">
+        <v>0</v>
+      </c>
+      <c r="F94" s="3">
         <v>-100</v>
       </c>
-      <c r="F94" s="3">
-        <v>0</v>
-      </c>
       <c r="G94" s="3">
         <v>0</v>
       </c>
@@ -4804,8 +5034,8 @@
       <c r="K94" s="3">
         <v>0</v>
       </c>
-      <c r="L94" s="3" t="s">
-        <v>5</v>
+      <c r="L94" s="3">
+        <v>0</v>
       </c>
       <c r="M94" s="3" t="s">
         <v>5</v>
@@ -4825,11 +5055,14 @@
       <c r="R94" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="S94" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="S94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4849,8 +5082,9 @@
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
-    </row>
-    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T95" s="3"/>
+    </row>
+    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4902,8 +5136,11 @@
       <c r="S96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4955,8 +5192,11 @@
       <c r="S97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5008,8 +5248,11 @@
       <c r="S98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5061,41 +5304,44 @@
       <c r="S99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-10800</v>
+      </c>
+      <c r="E100" s="3">
         <v>-16600</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-1400</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-7600</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>11800</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-9400</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>40500</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-1500</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-1000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>1600</v>
       </c>
-      <c r="M100" s="3">
-        <v>0</v>
-      </c>
       <c r="N100" s="3">
         <v>0</v>
       </c>
@@ -5111,11 +5357,14 @@
       <c r="R100" s="3">
         <v>0</v>
       </c>
-      <c r="S100" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="S100" s="3">
+        <v>0</v>
+      </c>
+      <c r="T100" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5167,41 +5416,44 @@
       <c r="S101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>13200</v>
+      </c>
+      <c r="E102" s="3">
         <v>1000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-1200</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>400</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>200</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>500</v>
       </c>
-      <c r="I102" s="3">
-        <v>0</v>
-      </c>
       <c r="J102" s="3">
+        <v>0</v>
+      </c>
+      <c r="K102" s="3">
         <v>-1100</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-2100</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>2200</v>
       </c>
-      <c r="M102" s="3">
-        <v>0</v>
-      </c>
       <c r="N102" s="3">
         <v>0</v>
       </c>
@@ -5218,6 +5470,9 @@
         <v>0</v>
       </c>
       <c r="S102" s="3">
+        <v>0</v>
+      </c>
+      <c r="T102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/UNQL_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/UNQL_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="92">
   <si>
     <t>UNQL</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:T102"/>
+  <dimension ref="A5:V102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,128 +665,136 @@
     <col min="1" max="1" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45169</v>
+      </c>
+      <c r="E7" s="2">
+        <v>45077</v>
+      </c>
+      <c r="F7" s="2">
         <v>44985</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44895</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44804</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44712</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44620</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44530</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>44439</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>44347</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>44255</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>44165</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>44043</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43951</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43861</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43769</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>43677</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>43585</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>43496</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>62900</v>
+      </c>
+      <c r="E8" s="3">
+        <v>50600</v>
+      </c>
+      <c r="F8" s="3">
         <v>49600</v>
       </c>
-      <c r="E8" s="3">
+      <c r="G8" s="3">
         <v>88800</v>
       </c>
-      <c r="F8" s="3">
+      <c r="H8" s="3">
         <v>136500</v>
       </c>
-      <c r="G8" s="3">
+      <c r="I8" s="3">
         <v>168800</v>
       </c>
-      <c r="H8" s="3">
+      <c r="J8" s="3">
         <v>250400</v>
       </c>
-      <c r="I8" s="3">
+      <c r="K8" s="3">
         <v>405400</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>189800</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>98900</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>91000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>124600</v>
       </c>
-      <c r="N8" s="3">
-        <v>0</v>
-      </c>
-      <c r="O8" s="3">
-        <v>0</v>
-      </c>
       <c r="P8" s="3">
         <v>0</v>
       </c>
@@ -802,47 +810,53 @@
       <c r="T8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U8" s="3">
+        <v>0</v>
+      </c>
+      <c r="V8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>54600</v>
+      </c>
+      <c r="E9" s="3">
+        <v>41600</v>
+      </c>
+      <c r="F9" s="3">
         <v>43300</v>
       </c>
-      <c r="E9" s="3">
+      <c r="G9" s="3">
         <v>78100</v>
       </c>
-      <c r="F9" s="3">
+      <c r="H9" s="3">
         <v>126400</v>
       </c>
-      <c r="G9" s="3">
+      <c r="I9" s="3">
         <v>157500</v>
       </c>
-      <c r="H9" s="3">
+      <c r="J9" s="3">
         <v>243300</v>
       </c>
-      <c r="I9" s="3">
+      <c r="K9" s="3">
         <v>389300</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>181500</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>91900</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>84200</v>
       </c>
-      <c r="M9" s="3">
+      <c r="O9" s="3">
         <v>116300</v>
       </c>
-      <c r="N9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O9" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="P9" s="3" t="s">
         <v>5</v>
       </c>
@@ -858,47 +872,53 @@
       <c r="T9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>8300</v>
+      </c>
+      <c r="E10" s="3">
+        <v>9000</v>
+      </c>
+      <c r="F10" s="3">
         <v>6300</v>
       </c>
-      <c r="E10" s="3">
+      <c r="G10" s="3">
         <v>10700</v>
       </c>
-      <c r="F10" s="3">
+      <c r="H10" s="3">
         <v>10100</v>
       </c>
-      <c r="G10" s="3">
+      <c r="I10" s="3">
         <v>11300</v>
       </c>
-      <c r="H10" s="3">
+      <c r="J10" s="3">
         <v>7100</v>
       </c>
-      <c r="I10" s="3">
+      <c r="K10" s="3">
         <v>16100</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>8300</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>7000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="N10" s="3">
         <v>6800</v>
       </c>
-      <c r="M10" s="3">
+      <c r="O10" s="3">
         <v>8300</v>
       </c>
-      <c r="N10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O10" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="P10" s="3" t="s">
         <v>5</v>
       </c>
@@ -914,8 +934,14 @@
       <c r="T10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -936,8 +962,10 @@
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U11" s="3"/>
+      <c r="V11" s="3"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -992,8 +1020,14 @@
       <c r="T12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U12" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1048,13 +1082,19 @@
       <c r="T13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U13" s="3">
+        <v>0</v>
+      </c>
+      <c r="V13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3">
-        <v>0</v>
+      <c r="D14" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="E14" s="3">
         <v>0</v>
@@ -1066,54 +1106,60 @@
         <v>0</v>
       </c>
       <c r="H14" s="3">
+        <v>0</v>
+      </c>
+      <c r="I14" s="3">
+        <v>0</v>
+      </c>
+      <c r="J14" s="3">
         <v>1300</v>
       </c>
-      <c r="I14" s="3">
-        <v>0</v>
-      </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
+        <v>0</v>
+      </c>
+      <c r="L14" s="3">
         <v>-1100</v>
       </c>
-      <c r="K14" s="3">
-        <v>0</v>
-      </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
+        <v>0</v>
+      </c>
+      <c r="N14" s="3">
         <v>-1600</v>
       </c>
-      <c r="M14" s="3">
+      <c r="O14" s="3">
         <v>1100</v>
       </c>
-      <c r="N14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P14" s="3">
+      <c r="P14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R14" s="3">
         <v>200</v>
       </c>
-      <c r="Q14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R14" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="S14" s="3" t="s">
         <v>5</v>
       </c>
       <c r="T14" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V14" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>200</v>
+        <v>700</v>
       </c>
       <c r="E15" s="3">
-        <v>200</v>
+        <v>700</v>
       </c>
       <c r="F15" s="3">
         <v>200</v>
@@ -1139,11 +1185,11 @@
       <c r="M15" s="3">
         <v>200</v>
       </c>
-      <c r="N15" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O15" s="3" t="s">
-        <v>5</v>
+      <c r="N15" s="3">
+        <v>200</v>
+      </c>
+      <c r="O15" s="3">
+        <v>200</v>
       </c>
       <c r="P15" s="3" t="s">
         <v>5</v>
@@ -1160,8 +1206,14 @@
       <c r="T15" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U15" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V15" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1179,120 +1231,134 @@
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
-    </row>
-    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U16" s="3"/>
+      <c r="V16" s="3"/>
+    </row>
+    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>64300</v>
+      </c>
+      <c r="E17" s="3">
+        <v>50300</v>
+      </c>
+      <c r="F17" s="3">
         <v>49300</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>83800</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>131700</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>166400</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>249500</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>396800</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>185400</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>98200</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>89000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>122700</v>
       </c>
-      <c r="N17" s="3">
-        <v>0</v>
-      </c>
-      <c r="O17" s="3">
-        <v>0</v>
-      </c>
       <c r="P17" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q17" s="3">
+        <v>0</v>
+      </c>
+      <c r="R17" s="3">
         <v>200</v>
       </c>
-      <c r="Q17" s="3">
-        <v>0</v>
-      </c>
-      <c r="R17" s="3">
-        <v>0</v>
-      </c>
       <c r="S17" s="3">
         <v>0</v>
       </c>
       <c r="T17" s="3">
+        <v>0</v>
+      </c>
+      <c r="U17" s="3">
+        <v>0</v>
+      </c>
+      <c r="V17" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="E18" s="3">
         <v>300</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
+        <v>300</v>
+      </c>
+      <c r="G18" s="3">
         <v>5000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>4800</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>2400</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>900</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>8600</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>4400</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>700</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>2000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>1900</v>
       </c>
-      <c r="N18" s="3">
-        <v>0</v>
-      </c>
-      <c r="O18" s="3">
-        <v>0</v>
-      </c>
       <c r="P18" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q18" s="3">
+        <v>0</v>
+      </c>
+      <c r="R18" s="3">
         <v>-200</v>
       </c>
-      <c r="Q18" s="3">
-        <v>0</v>
-      </c>
-      <c r="R18" s="3">
-        <v>0</v>
-      </c>
       <c r="S18" s="3">
         <v>0</v>
       </c>
       <c r="T18" s="3">
+        <v>0</v>
+      </c>
+      <c r="U18" s="3">
+        <v>0</v>
+      </c>
+      <c r="V18" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1313,32 +1379,34 @@
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
-    </row>
-    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U19" s="3"/>
+      <c r="V19" s="3"/>
+    </row>
+    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E20" s="3">
+        <v>2200</v>
+      </c>
+      <c r="F20" s="3">
         <v>100</v>
       </c>
-      <c r="E20" s="3">
+      <c r="G20" s="3">
         <v>200</v>
       </c>
-      <c r="F20" s="3">
+      <c r="H20" s="3">
         <v>600</v>
       </c>
-      <c r="G20" s="3">
+      <c r="I20" s="3">
         <v>300</v>
       </c>
-      <c r="H20" s="3">
+      <c r="J20" s="3">
         <v>-4200</v>
       </c>
-      <c r="I20" s="3">
-        <v>0</v>
-      </c>
-      <c r="J20" s="3">
-        <v>0</v>
-      </c>
       <c r="K20" s="3">
         <v>0</v>
       </c>
@@ -1369,44 +1437,50 @@
       <c r="T20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U20" s="3">
+        <v>0</v>
+      </c>
+      <c r="V20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-900</v>
+      </c>
+      <c r="E21" s="3">
+        <v>3100</v>
+      </c>
+      <c r="F21" s="3">
         <v>600</v>
       </c>
-      <c r="E21" s="3">
+      <c r="G21" s="3">
         <v>5300</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>5700</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>2900</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <v>-3100</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>8900</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>4500</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>900</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>2100</v>
       </c>
-      <c r="M21" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N21" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="O21" s="3" t="s">
         <v>5</v>
       </c>
@@ -1425,47 +1499,53 @@
       <c r="T21" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V21" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>500</v>
+        <v>1400</v>
       </c>
       <c r="E22" s="3">
         <v>1000</v>
       </c>
       <c r="F22" s="3">
-        <v>1400</v>
+        <v>500</v>
       </c>
       <c r="G22" s="3">
-        <v>1100</v>
+        <v>1000</v>
       </c>
       <c r="H22" s="3">
         <v>1400</v>
       </c>
       <c r="I22" s="3">
+        <v>1100</v>
+      </c>
+      <c r="J22" s="3">
+        <v>1400</v>
+      </c>
+      <c r="K22" s="3">
         <v>2300</v>
       </c>
-      <c r="J22" s="3">
+      <c r="L22" s="3">
         <v>1700</v>
       </c>
-      <c r="K22" s="3">
+      <c r="M22" s="3">
         <v>900</v>
       </c>
-      <c r="L22" s="3">
+      <c r="N22" s="3">
         <v>600</v>
       </c>
-      <c r="M22" s="3">
+      <c r="O22" s="3">
         <v>200</v>
       </c>
-      <c r="N22" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O22" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="P22" s="3" t="s">
         <v>5</v>
       </c>
@@ -1475,109 +1555,121 @@
       <c r="R22" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="S22" s="3">
-        <v>0</v>
-      </c>
-      <c r="T22" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="S22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U22" s="3">
+        <v>0</v>
+      </c>
+      <c r="V22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-2800</v>
+      </c>
+      <c r="E23" s="3">
+        <v>1500</v>
+      </c>
+      <c r="F23" s="3">
         <v>-200</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>4100</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>4100</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>1600</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>-4700</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>6400</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>2700</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>-200</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>1300</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>1700</v>
       </c>
-      <c r="N23" s="3">
-        <v>0</v>
-      </c>
-      <c r="O23" s="3">
-        <v>0</v>
-      </c>
       <c r="P23" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q23" s="3">
+        <v>0</v>
+      </c>
+      <c r="R23" s="3">
         <v>-200</v>
       </c>
-      <c r="Q23" s="3">
-        <v>0</v>
-      </c>
-      <c r="R23" s="3">
-        <v>0</v>
-      </c>
       <c r="S23" s="3">
         <v>0</v>
       </c>
       <c r="T23" s="3">
+        <v>0</v>
+      </c>
+      <c r="U23" s="3">
+        <v>0</v>
+      </c>
+      <c r="V23" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>-500</v>
+      </c>
+      <c r="E24" s="3">
+        <v>500</v>
+      </c>
+      <c r="F24" s="3">
         <v>-800</v>
       </c>
-      <c r="E24" s="3">
+      <c r="G24" s="3">
         <v>900</v>
       </c>
-      <c r="F24" s="3">
+      <c r="H24" s="3">
         <v>800</v>
       </c>
-      <c r="G24" s="3">
+      <c r="I24" s="3">
         <v>-400</v>
       </c>
-      <c r="H24" s="3">
+      <c r="J24" s="3">
         <v>200</v>
       </c>
-      <c r="I24" s="3">
+      <c r="K24" s="3">
         <v>1900</v>
       </c>
-      <c r="J24" s="3">
+      <c r="L24" s="3">
         <v>600</v>
       </c>
-      <c r="K24" s="3">
+      <c r="M24" s="3">
         <v>100</v>
       </c>
-      <c r="L24" s="3">
+      <c r="N24" s="3">
         <v>100</v>
       </c>
-      <c r="M24" s="3">
+      <c r="O24" s="3">
         <v>300</v>
       </c>
-      <c r="N24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O24" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="P24" s="3" t="s">
         <v>5</v>
       </c>
@@ -1593,8 +1685,14 @@
       <c r="T24" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V24" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1649,120 +1747,138 @@
       <c r="T25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U25" s="3">
+        <v>0</v>
+      </c>
+      <c r="V25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="E26" s="3">
+        <v>1000</v>
+      </c>
+      <c r="F26" s="3">
         <v>700</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>3300</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>3300</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>2000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>-4900</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>4500</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>2000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>-400</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>1300</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>1400</v>
       </c>
-      <c r="N26" s="3">
-        <v>0</v>
-      </c>
-      <c r="O26" s="3">
-        <v>0</v>
-      </c>
       <c r="P26" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q26" s="3">
+        <v>0</v>
+      </c>
+      <c r="R26" s="3">
         <v>-200</v>
       </c>
-      <c r="Q26" s="3">
-        <v>0</v>
-      </c>
-      <c r="R26" s="3">
-        <v>0</v>
-      </c>
       <c r="S26" s="3">
         <v>0</v>
       </c>
       <c r="T26" s="3">
+        <v>0</v>
+      </c>
+      <c r="U26" s="3">
+        <v>0</v>
+      </c>
+      <c r="V26" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-2200</v>
+      </c>
+      <c r="E27" s="3">
+        <v>900</v>
+      </c>
+      <c r="F27" s="3">
         <v>700</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>3300</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>3300</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>2000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>-9500</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>4500</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>2000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>-400</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>1300</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>1400</v>
       </c>
-      <c r="N27" s="3">
-        <v>0</v>
-      </c>
-      <c r="O27" s="3">
-        <v>0</v>
-      </c>
       <c r="P27" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q27" s="3">
+        <v>0</v>
+      </c>
+      <c r="R27" s="3">
         <v>-200</v>
       </c>
-      <c r="Q27" s="3">
-        <v>0</v>
-      </c>
-      <c r="R27" s="3">
-        <v>0</v>
-      </c>
       <c r="S27" s="3">
         <v>0</v>
       </c>
       <c r="T27" s="3">
+        <v>0</v>
+      </c>
+      <c r="U27" s="3">
+        <v>0</v>
+      </c>
+      <c r="V27" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1817,8 +1933,14 @@
       <c r="T28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U28" s="3">
+        <v>0</v>
+      </c>
+      <c r="V28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1873,8 +1995,14 @@
       <c r="T29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U29" s="3">
+        <v>0</v>
+      </c>
+      <c r="V29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1929,8 +2057,14 @@
       <c r="T30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U30" s="3">
+        <v>0</v>
+      </c>
+      <c r="V30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1985,32 +2119,38 @@
       <c r="T31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U31" s="3">
+        <v>0</v>
+      </c>
+      <c r="V31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>100</v>
+      </c>
+      <c r="E32" s="3">
+        <v>-2200</v>
+      </c>
+      <c r="F32" s="3">
         <v>-100</v>
       </c>
-      <c r="E32" s="3">
+      <c r="G32" s="3">
         <v>-200</v>
       </c>
-      <c r="F32" s="3">
+      <c r="H32" s="3">
         <v>-600</v>
       </c>
-      <c r="G32" s="3">
+      <c r="I32" s="3">
         <v>-300</v>
       </c>
-      <c r="H32" s="3">
+      <c r="J32" s="3">
         <v>4200</v>
       </c>
-      <c r="I32" s="3">
-        <v>0</v>
-      </c>
-      <c r="J32" s="3">
-        <v>0</v>
-      </c>
       <c r="K32" s="3">
         <v>0</v>
       </c>
@@ -2041,64 +2181,76 @@
       <c r="T32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U32" s="3">
+        <v>0</v>
+      </c>
+      <c r="V32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-2200</v>
+      </c>
+      <c r="E33" s="3">
+        <v>900</v>
+      </c>
+      <c r="F33" s="3">
         <v>700</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>3300</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>3300</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>2000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>-9500</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>4500</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>2000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>-400</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>1300</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>1400</v>
       </c>
-      <c r="N33" s="3">
-        <v>0</v>
-      </c>
-      <c r="O33" s="3">
-        <v>0</v>
-      </c>
       <c r="P33" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q33" s="3">
+        <v>0</v>
+      </c>
+      <c r="R33" s="3">
         <v>-200</v>
       </c>
-      <c r="Q33" s="3">
-        <v>0</v>
-      </c>
-      <c r="R33" s="3">
-        <v>0</v>
-      </c>
       <c r="S33" s="3">
         <v>0</v>
       </c>
       <c r="T33" s="3">
+        <v>0</v>
+      </c>
+      <c r="U33" s="3">
+        <v>0</v>
+      </c>
+      <c r="V33" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2153,125 +2305,143 @@
       <c r="T34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U34" s="3">
+        <v>0</v>
+      </c>
+      <c r="V34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-2200</v>
+      </c>
+      <c r="E35" s="3">
+        <v>900</v>
+      </c>
+      <c r="F35" s="3">
         <v>700</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>3300</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>3300</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>2000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>-9500</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>4500</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>2000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>-400</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>1300</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>1400</v>
       </c>
-      <c r="N35" s="3">
-        <v>0</v>
-      </c>
-      <c r="O35" s="3">
-        <v>0</v>
-      </c>
       <c r="P35" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q35" s="3">
+        <v>0</v>
+      </c>
+      <c r="R35" s="3">
         <v>-200</v>
       </c>
-      <c r="Q35" s="3">
-        <v>0</v>
-      </c>
-      <c r="R35" s="3">
-        <v>0</v>
-      </c>
       <c r="S35" s="3">
         <v>0</v>
       </c>
       <c r="T35" s="3">
+        <v>0</v>
+      </c>
+      <c r="U35" s="3">
+        <v>0</v>
+      </c>
+      <c r="V35" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45169</v>
+      </c>
+      <c r="E38" s="2">
+        <v>45077</v>
+      </c>
+      <c r="F38" s="2">
         <v>44985</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44895</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44804</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44712</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44620</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44530</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>44439</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>44347</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>44255</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>44165</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>44043</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43951</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43861</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43769</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>43677</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>43585</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>43496</v>
       </c>
     </row>
-    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2292,8 +2462,10 @@
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
-    </row>
-    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U39" s="3"/>
+      <c r="V39" s="3"/>
+    </row>
+    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2314,47 +2486,49 @@
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
-    </row>
-    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U40" s="3"/>
+      <c r="V40" s="3"/>
+    </row>
+    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>3400</v>
+      </c>
+      <c r="E41" s="3">
+        <v>6700</v>
+      </c>
+      <c r="F41" s="3">
         <v>14400</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>1200</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>300</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>1400</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>1000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>800</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>300</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>300</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>1400</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>3500</v>
       </c>
-      <c r="N41" s="3">
-        <v>0</v>
-      </c>
-      <c r="O41" s="3">
-        <v>0</v>
-      </c>
       <c r="P41" s="3">
         <v>0</v>
       </c>
@@ -2370,8 +2544,14 @@
       <c r="T41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U41" s="3">
+        <v>0</v>
+      </c>
+      <c r="V41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2426,47 +2606,53 @@
       <c r="T42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U42" s="3">
+        <v>0</v>
+      </c>
+      <c r="V42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>53400</v>
+      </c>
+      <c r="E43" s="3">
         <v>44300</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
+        <v>44300</v>
+      </c>
+      <c r="G43" s="3">
         <v>65200</v>
       </c>
-      <c r="F43" s="3">
+      <c r="H43" s="3">
         <v>92300</v>
       </c>
-      <c r="G43" s="3">
+      <c r="I43" s="3">
         <v>105700</v>
       </c>
-      <c r="H43" s="3">
+      <c r="J43" s="3">
         <v>138500</v>
       </c>
-      <c r="I43" s="3">
+      <c r="K43" s="3">
         <v>192600</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>118600</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>43800</v>
       </c>
-      <c r="L43" s="3">
+      <c r="N43" s="3">
         <v>41100</v>
       </c>
-      <c r="M43" s="3">
+      <c r="O43" s="3">
         <v>39600</v>
       </c>
-      <c r="N43" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O43" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="P43" s="3" t="s">
         <v>5</v>
       </c>
@@ -2482,8 +2668,14 @@
       <c r="T43" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V43" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2538,49 +2730,55 @@
       <c r="T44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U44" s="3">
+        <v>0</v>
+      </c>
+      <c r="V44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>7300</v>
+      </c>
+      <c r="E45" s="3">
+        <v>9300</v>
+      </c>
+      <c r="F45" s="3">
         <v>3800</v>
       </c>
-      <c r="E45" s="3">
+      <c r="G45" s="3">
         <v>2300</v>
       </c>
-      <c r="F45" s="3">
+      <c r="H45" s="3">
         <v>2300</v>
       </c>
-      <c r="G45" s="3">
+      <c r="I45" s="3">
         <v>1400</v>
       </c>
-      <c r="H45" s="3">
+      <c r="J45" s="3">
         <v>500</v>
       </c>
-      <c r="I45" s="3">
+      <c r="K45" s="3">
         <v>1000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>600</v>
       </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
         <v>8400</v>
       </c>
-      <c r="L45" s="3">
+      <c r="N45" s="3">
         <v>2500</v>
       </c>
-      <c r="M45" s="3">
+      <c r="O45" s="3">
         <v>8300</v>
       </c>
-      <c r="N45" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O45" s="3">
-        <v>0</v>
-      </c>
-      <c r="P45" s="3">
-        <v>0</v>
+      <c r="P45" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="Q45" s="3">
         <v>0</v>
@@ -2594,47 +2792,53 @@
       <c r="T45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U45" s="3">
+        <v>0</v>
+      </c>
+      <c r="V45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>64100</v>
+      </c>
+      <c r="E46" s="3">
+        <v>60300</v>
+      </c>
+      <c r="F46" s="3">
         <v>62500</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>68700</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>94900</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>108500</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>140000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>194400</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>119600</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>52400</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>45000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>51500</v>
       </c>
-      <c r="N46" s="3">
-        <v>0</v>
-      </c>
-      <c r="O46" s="3">
-        <v>0</v>
-      </c>
       <c r="P46" s="3">
         <v>0</v>
       </c>
@@ -2650,20 +2854,26 @@
       <c r="T46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U46" s="3">
+        <v>0</v>
+      </c>
+      <c r="V46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>3600</v>
+      </c>
+      <c r="E47" s="3">
+        <v>3400</v>
+      </c>
+      <c r="F47" s="3">
         <v>10900</v>
       </c>
-      <c r="E47" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F47" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="G47" s="3" t="s">
         <v>5</v>
       </c>
@@ -2676,11 +2886,11 @@
       <c r="J47" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K47" s="3">
-        <v>0</v>
-      </c>
-      <c r="L47" s="3">
-        <v>0</v>
+      <c r="K47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L47" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="M47" s="3">
         <v>0</v>
@@ -2695,10 +2905,10 @@
         <v>0</v>
       </c>
       <c r="Q47" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="R47" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="S47" s="3">
         <v>200</v>
@@ -2706,47 +2916,53 @@
       <c r="T47" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U47" s="3">
+        <v>200</v>
+      </c>
+      <c r="V47" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>10600</v>
+      </c>
+      <c r="E48" s="3">
+        <v>10900</v>
+      </c>
+      <c r="F48" s="3">
         <v>12600</v>
       </c>
-      <c r="E48" s="3">
+      <c r="G48" s="3">
         <v>10800</v>
       </c>
-      <c r="F48" s="3">
+      <c r="H48" s="3">
         <v>2700</v>
       </c>
-      <c r="G48" s="3">
+      <c r="I48" s="3">
         <v>2600</v>
       </c>
-      <c r="H48" s="3">
+      <c r="J48" s="3">
         <v>2900</v>
       </c>
-      <c r="I48" s="3">
+      <c r="K48" s="3">
         <v>3300</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>3600</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>4000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>4100</v>
       </c>
-      <c r="M48" s="3">
+      <c r="O48" s="3">
         <v>4500</v>
       </c>
-      <c r="N48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O48" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="P48" s="3" t="s">
         <v>5</v>
       </c>
@@ -2762,47 +2978,53 @@
       <c r="T48" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V48" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>32900</v>
+      </c>
+      <c r="E49" s="3">
+        <v>33400</v>
+      </c>
+      <c r="F49" s="3">
         <v>21800</v>
       </c>
-      <c r="E49" s="3">
+      <c r="G49" s="3">
         <v>11400</v>
       </c>
-      <c r="F49" s="3">
+      <c r="H49" s="3">
         <v>11600</v>
       </c>
-      <c r="G49" s="3">
+      <c r="I49" s="3">
         <v>11800</v>
       </c>
-      <c r="H49" s="3">
+      <c r="J49" s="3">
         <v>12000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="K49" s="3">
         <v>12200</v>
       </c>
-      <c r="J49" s="3">
+      <c r="L49" s="3">
         <v>12300</v>
       </c>
-      <c r="K49" s="3">
+      <c r="M49" s="3">
         <v>12500</v>
       </c>
-      <c r="L49" s="3">
+      <c r="N49" s="3">
         <v>12700</v>
       </c>
-      <c r="M49" s="3">
+      <c r="O49" s="3">
         <v>13200</v>
       </c>
-      <c r="N49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O49" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="P49" s="3" t="s">
         <v>5</v>
       </c>
@@ -2818,8 +3040,14 @@
       <c r="T49" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V49" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2874,8 +3102,14 @@
       <c r="T50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U50" s="3">
+        <v>0</v>
+      </c>
+      <c r="V50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2930,47 +3164,53 @@
       <c r="T51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U51" s="3">
+        <v>0</v>
+      </c>
+      <c r="V51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>4500</v>
+      </c>
+      <c r="E52" s="3">
+        <v>3600</v>
+      </c>
+      <c r="F52" s="3">
         <v>3200</v>
       </c>
-      <c r="E52" s="3">
+      <c r="G52" s="3">
         <v>2600</v>
       </c>
-      <c r="F52" s="3">
+      <c r="H52" s="3">
         <v>2500</v>
       </c>
-      <c r="G52" s="3">
+      <c r="I52" s="3">
         <v>2000</v>
-      </c>
-      <c r="H52" s="3">
-        <v>500</v>
-      </c>
-      <c r="I52" s="3">
-        <v>900</v>
       </c>
       <c r="J52" s="3">
         <v>500</v>
       </c>
       <c r="K52" s="3">
+        <v>900</v>
+      </c>
+      <c r="L52" s="3">
+        <v>500</v>
+      </c>
+      <c r="M52" s="3">
         <v>600</v>
       </c>
-      <c r="L52" s="3">
+      <c r="N52" s="3">
         <v>400</v>
       </c>
-      <c r="M52" s="3">
+      <c r="O52" s="3">
         <v>500</v>
       </c>
-      <c r="N52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O52" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="P52" s="3" t="s">
         <v>5</v>
       </c>
@@ -2986,8 +3226,14 @@
       <c r="T52" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V52" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3042,55 +3288,61 @@
       <c r="T53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U53" s="3">
+        <v>0</v>
+      </c>
+      <c r="V53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>115700</v>
+      </c>
+      <c r="E54" s="3">
+        <v>111500</v>
+      </c>
+      <c r="F54" s="3">
         <v>110900</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>93500</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>111700</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>124900</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>155400</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>210700</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>136000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>69500</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>62200</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>69700</v>
       </c>
-      <c r="N54" s="3">
-        <v>0</v>
-      </c>
-      <c r="O54" s="3">
-        <v>0</v>
-      </c>
       <c r="P54" s="3">
         <v>0</v>
       </c>
       <c r="Q54" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="R54" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="S54" s="3">
         <v>200</v>
@@ -3098,8 +3350,14 @@
       <c r="T54" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U54" s="3">
+        <v>200</v>
+      </c>
+      <c r="V54" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3120,8 +3378,10 @@
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
-    </row>
-    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U55" s="3"/>
+      <c r="V55" s="3"/>
+    </row>
+    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3142,47 +3402,49 @@
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
-    </row>
-    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U56" s="3"/>
+      <c r="V56" s="3"/>
+    </row>
+    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>27000</v>
+      </c>
+      <c r="E57" s="3">
+        <v>25100</v>
+      </c>
+      <c r="F57" s="3">
         <v>23200</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>31000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>41700</v>
       </c>
-      <c r="G57" s="3">
+      <c r="I57" s="3">
         <v>49000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="J57" s="3">
         <v>59000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="K57" s="3">
         <v>76000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>48500</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>41400</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>35800</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>38800</v>
       </c>
-      <c r="N57" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O57" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="P57" s="3" t="s">
         <v>5</v>
       </c>
@@ -3198,158 +3460,176 @@
       <c r="T57" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V57" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>14600</v>
+      </c>
+      <c r="E58" s="3">
+        <v>12900</v>
+      </c>
+      <c r="F58" s="3">
         <v>28000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="G58" s="3">
         <v>21300</v>
       </c>
-      <c r="F58" s="3">
+      <c r="H58" s="3">
         <v>37800</v>
       </c>
-      <c r="G58" s="3">
+      <c r="I58" s="3">
         <v>39100</v>
       </c>
-      <c r="H58" s="3">
+      <c r="J58" s="3">
         <v>45700</v>
       </c>
-      <c r="I58" s="3">
+      <c r="K58" s="3">
         <v>34000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="L58" s="3">
         <v>42900</v>
       </c>
-      <c r="K58" s="3">
+      <c r="M58" s="3">
         <v>2700</v>
       </c>
-      <c r="L58" s="3">
+      <c r="N58" s="3">
         <v>5300</v>
       </c>
-      <c r="M58" s="3">
+      <c r="O58" s="3">
         <v>9700</v>
       </c>
-      <c r="N58" s="3">
+      <c r="P58" s="3">
         <v>300</v>
       </c>
-      <c r="O58" s="3">
+      <c r="Q58" s="3">
         <v>300</v>
       </c>
-      <c r="P58" s="3">
+      <c r="R58" s="3">
         <v>200</v>
       </c>
-      <c r="Q58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R58" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="S58" s="3" t="s">
         <v>5</v>
       </c>
       <c r="T58" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V58" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>11600</v>
+      </c>
+      <c r="E59" s="3">
+        <v>14500</v>
+      </c>
+      <c r="F59" s="3">
         <v>21000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>7900</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>9000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>16300</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>43500</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>81700</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>29900</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>11900</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>9000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>11700</v>
-      </c>
-      <c r="N59" s="3">
-        <v>600</v>
-      </c>
-      <c r="O59" s="3">
-        <v>600</v>
       </c>
       <c r="P59" s="3">
         <v>600</v>
       </c>
       <c r="Q59" s="3">
+        <v>600</v>
+      </c>
+      <c r="R59" s="3">
+        <v>600</v>
+      </c>
+      <c r="S59" s="3">
         <v>800</v>
       </c>
-      <c r="R59" s="3">
+      <c r="T59" s="3">
         <v>800</v>
       </c>
-      <c r="S59" s="3">
+      <c r="U59" s="3">
         <v>700</v>
       </c>
-      <c r="T59" s="3">
+      <c r="V59" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>53200</v>
+      </c>
+      <c r="E60" s="3">
+        <v>52400</v>
+      </c>
+      <c r="F60" s="3">
         <v>72200</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>60200</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>88400</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>104400</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>148200</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>191600</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>121300</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>55900</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>50100</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>60200</v>
-      </c>
-      <c r="N60" s="3">
-        <v>800</v>
-      </c>
-      <c r="O60" s="3">
-        <v>800</v>
       </c>
       <c r="P60" s="3">
         <v>800</v>
@@ -3361,52 +3641,58 @@
         <v>800</v>
       </c>
       <c r="S60" s="3">
+        <v>800</v>
+      </c>
+      <c r="T60" s="3">
+        <v>800</v>
+      </c>
+      <c r="U60" s="3">
         <v>700</v>
       </c>
-      <c r="T60" s="3">
+      <c r="V60" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>17500</v>
+      </c>
+      <c r="E61" s="3">
+        <v>12800</v>
+      </c>
+      <c r="F61" s="3">
         <v>1700</v>
       </c>
-      <c r="E61" s="3">
+      <c r="G61" s="3">
         <v>200</v>
       </c>
-      <c r="F61" s="3">
+      <c r="H61" s="3">
         <v>300</v>
       </c>
-      <c r="G61" s="3">
+      <c r="I61" s="3">
         <v>400</v>
       </c>
-      <c r="H61" s="3">
+      <c r="J61" s="3">
         <v>1300</v>
       </c>
-      <c r="I61" s="3">
+      <c r="K61" s="3">
         <v>3500</v>
       </c>
-      <c r="J61" s="3">
+      <c r="L61" s="3">
         <v>3400</v>
       </c>
-      <c r="K61" s="3">
+      <c r="M61" s="3">
         <v>3900</v>
       </c>
-      <c r="L61" s="3">
+      <c r="N61" s="3">
         <v>2000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="O61" s="3">
         <v>1800</v>
       </c>
-      <c r="N61" s="3">
-        <v>0</v>
-      </c>
-      <c r="O61" s="3">
-        <v>0</v>
-      </c>
       <c r="P61" s="3">
         <v>0</v>
       </c>
@@ -3422,47 +3708,53 @@
       <c r="T61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U61" s="3">
+        <v>0</v>
+      </c>
+      <c r="V61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>29700</v>
+      </c>
+      <c r="E62" s="3">
+        <v>28700</v>
+      </c>
+      <c r="F62" s="3">
         <v>20400</v>
       </c>
-      <c r="E62" s="3">
+      <c r="G62" s="3">
         <v>20700</v>
       </c>
-      <c r="F62" s="3">
+      <c r="H62" s="3">
         <v>13800</v>
       </c>
-      <c r="G62" s="3">
+      <c r="I62" s="3">
         <v>14300</v>
       </c>
-      <c r="H62" s="3">
+      <c r="J62" s="3">
         <v>2000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="K62" s="3">
         <v>2200</v>
       </c>
-      <c r="J62" s="3">
+      <c r="L62" s="3">
         <v>2600</v>
       </c>
-      <c r="K62" s="3">
+      <c r="M62" s="3">
         <v>3000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="N62" s="3">
         <v>3200</v>
       </c>
-      <c r="M62" s="3">
+      <c r="O62" s="3">
         <v>3700</v>
       </c>
-      <c r="N62" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O62" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="P62" s="3" t="s">
         <v>5</v>
       </c>
@@ -3478,8 +3770,14 @@
       <c r="T62" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V62" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3534,8 +3832,14 @@
       <c r="T63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U63" s="3">
+        <v>0</v>
+      </c>
+      <c r="V63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3590,8 +3894,14 @@
       <c r="T64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U64" s="3">
+        <v>0</v>
+      </c>
+      <c r="V64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3646,46 +3956,52 @@
       <c r="T65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U65" s="3">
+        <v>0</v>
+      </c>
+      <c r="V65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>103900</v>
+      </c>
+      <c r="E66" s="3">
+        <v>97500</v>
+      </c>
+      <c r="F66" s="3">
         <v>97900</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>81100</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>102500</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>119100</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>151500</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>197400</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>127200</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>62800</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>55300</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>65700</v>
-      </c>
-      <c r="N66" s="3">
-        <v>800</v>
-      </c>
-      <c r="O66" s="3">
-        <v>800</v>
       </c>
       <c r="P66" s="3">
         <v>800</v>
@@ -3697,13 +4013,19 @@
         <v>800</v>
       </c>
       <c r="S66" s="3">
+        <v>800</v>
+      </c>
+      <c r="T66" s="3">
+        <v>800</v>
+      </c>
+      <c r="U66" s="3">
         <v>700</v>
       </c>
-      <c r="T66" s="3">
+      <c r="V66" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3724,8 +4046,10 @@
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
-    </row>
-    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U67" s="3"/>
+      <c r="V67" s="3"/>
+    </row>
+    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3780,8 +4104,14 @@
       <c r="T68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U68" s="3">
+        <v>0</v>
+      </c>
+      <c r="V68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3836,8 +4166,14 @@
       <c r="T69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U69" s="3">
+        <v>0</v>
+      </c>
+      <c r="V69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3892,8 +4228,14 @@
       <c r="T70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U70" s="3">
+        <v>0</v>
+      </c>
+      <c r="V70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3948,64 +4290,76 @@
       <c r="T71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U71" s="3">
+        <v>0</v>
+      </c>
+      <c r="V71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>10800</v>
+      </c>
+      <c r="E72" s="3">
+        <v>13100</v>
+      </c>
+      <c r="F72" s="3">
         <v>12100</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>11400</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>8200</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>4900</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>2900</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>7800</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>3300</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>1300</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>1700</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>400</v>
-      </c>
-      <c r="N72" s="3">
-        <v>-1700</v>
-      </c>
-      <c r="O72" s="3">
-        <v>-1700</v>
       </c>
       <c r="P72" s="3">
         <v>-1700</v>
       </c>
       <c r="Q72" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="R72" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="S72" s="3">
         <v>-1500</v>
       </c>
-      <c r="R72" s="3">
+      <c r="T72" s="3">
         <v>-1400</v>
       </c>
-      <c r="S72" s="3">
+      <c r="U72" s="3">
         <v>-1400</v>
       </c>
-      <c r="T72" s="3">
+      <c r="V72" s="3">
         <v>-1300</v>
       </c>
     </row>
-    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4060,8 +4414,14 @@
       <c r="T73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U73" s="3">
+        <v>0</v>
+      </c>
+      <c r="V73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4116,8 +4476,14 @@
       <c r="T74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U74" s="3">
+        <v>0</v>
+      </c>
+      <c r="V74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4172,64 +4538,76 @@
       <c r="T75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U75" s="3">
+        <v>0</v>
+      </c>
+      <c r="V75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>11800</v>
+      </c>
+      <c r="E76" s="3">
+        <v>14000</v>
+      </c>
+      <c r="F76" s="3">
         <v>13100</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>12400</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>9200</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>5800</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>3900</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>13400</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>8800</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>6600</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>6900</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>3900</v>
-      </c>
-      <c r="N76" s="3">
-        <v>-800</v>
-      </c>
-      <c r="O76" s="3">
-        <v>-800</v>
       </c>
       <c r="P76" s="3">
         <v>-800</v>
       </c>
       <c r="Q76" s="3">
+        <v>-800</v>
+      </c>
+      <c r="R76" s="3">
+        <v>-800</v>
+      </c>
+      <c r="S76" s="3">
         <v>-600</v>
       </c>
-      <c r="R76" s="3">
+      <c r="T76" s="3">
         <v>-600</v>
       </c>
-      <c r="S76" s="3">
+      <c r="U76" s="3">
         <v>-500</v>
       </c>
-      <c r="T76" s="3">
+      <c r="V76" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4284,125 +4662,143 @@
       <c r="T77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U77" s="3">
+        <v>0</v>
+      </c>
+      <c r="V77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45169</v>
+      </c>
+      <c r="E80" s="2">
+        <v>45077</v>
+      </c>
+      <c r="F80" s="2">
         <v>44985</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44895</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44804</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44712</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44620</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44530</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>44439</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>44347</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>44255</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>44165</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>44043</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43951</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43861</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43769</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>43677</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>43585</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>43496</v>
       </c>
     </row>
-    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-2200</v>
+      </c>
+      <c r="E81" s="3">
+        <v>900</v>
+      </c>
+      <c r="F81" s="3">
         <v>700</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>3300</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>3300</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>2000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>-9500</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>4500</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>2000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>-400</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>1300</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>1400</v>
       </c>
-      <c r="N81" s="3">
-        <v>0</v>
-      </c>
-      <c r="O81" s="3">
-        <v>0</v>
-      </c>
       <c r="P81" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q81" s="3">
+        <v>0</v>
+      </c>
+      <c r="R81" s="3">
         <v>-200</v>
       </c>
-      <c r="Q81" s="3">
-        <v>0</v>
-      </c>
-      <c r="R81" s="3">
-        <v>0</v>
-      </c>
       <c r="S81" s="3">
         <v>0</v>
       </c>
       <c r="T81" s="3">
+        <v>0</v>
+      </c>
+      <c r="U81" s="3">
+        <v>0</v>
+      </c>
+      <c r="V81" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4423,16 +4819,18 @@
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
-    </row>
-    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U82" s="3"/>
+      <c r="V82" s="3"/>
+    </row>
+    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="E83" s="3">
-        <v>200</v>
+        <v>700</v>
       </c>
       <c r="F83" s="3">
         <v>200</v>
@@ -4455,11 +4853,11 @@
       <c r="L83" s="3">
         <v>200</v>
       </c>
-      <c r="M83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N83" s="3" t="s">
-        <v>5</v>
+      <c r="M83" s="3">
+        <v>200</v>
+      </c>
+      <c r="N83" s="3">
+        <v>200</v>
       </c>
       <c r="O83" s="3" t="s">
         <v>5</v>
@@ -4473,14 +4871,20 @@
       <c r="R83" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="S83" s="3">
-        <v>0</v>
-      </c>
-      <c r="T83" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="S83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U83" s="3">
+        <v>0</v>
+      </c>
+      <c r="V83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4535,8 +4939,14 @@
       <c r="T84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U84" s="3">
+        <v>0</v>
+      </c>
+      <c r="V84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4591,8 +5001,14 @@
       <c r="T85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U85" s="3">
+        <v>0</v>
+      </c>
+      <c r="V85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4647,8 +5063,14 @@
       <c r="T86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U86" s="3">
+        <v>0</v>
+      </c>
+      <c r="V86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4703,8 +5125,14 @@
       <c r="T87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U87" s="3">
+        <v>0</v>
+      </c>
+      <c r="V87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4759,47 +5187,53 @@
       <c r="T88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U88" s="3">
+        <v>0</v>
+      </c>
+      <c r="V88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-9300</v>
+      </c>
+      <c r="E89" s="3">
+        <v>1000</v>
+      </c>
+      <c r="F89" s="3">
         <v>15200</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>17600</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>300</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>8000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>-11600</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>10000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>-40400</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>400</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>-1200</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>600</v>
       </c>
-      <c r="N89" s="3">
-        <v>0</v>
-      </c>
-      <c r="O89" s="3">
-        <v>0</v>
-      </c>
       <c r="P89" s="3">
         <v>0</v>
       </c>
@@ -4815,8 +5249,14 @@
       <c r="T89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U89" s="3">
+        <v>0</v>
+      </c>
+      <c r="V89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4837,26 +5277,28 @@
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
-    </row>
-    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U90" s="3"/>
+      <c r="V90" s="3"/>
+    </row>
+    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E91" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="F91" s="3">
+        <v>0</v>
+      </c>
+      <c r="G91" s="3">
+        <v>0</v>
+      </c>
+      <c r="H91" s="3">
         <v>-100</v>
       </c>
-      <c r="G91" s="3">
-        <v>0</v>
-      </c>
-      <c r="H91" s="3">
-        <v>0</v>
-      </c>
       <c r="I91" s="3">
         <v>0</v>
       </c>
@@ -4869,11 +5311,11 @@
       <c r="L91" s="3">
         <v>0</v>
       </c>
-      <c r="M91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N91" s="3" t="s">
-        <v>5</v>
+      <c r="M91" s="3">
+        <v>0</v>
+      </c>
+      <c r="N91" s="3">
+        <v>0</v>
       </c>
       <c r="O91" s="3" t="s">
         <v>5</v>
@@ -4887,14 +5329,20 @@
       <c r="R91" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="S91" s="3">
-        <v>0</v>
-      </c>
-      <c r="T91" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="S91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U91" s="3">
+        <v>0</v>
+      </c>
+      <c r="V91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4949,8 +5397,14 @@
       <c r="T92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U92" s="3">
+        <v>0</v>
+      </c>
+      <c r="V92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5005,26 +5459,32 @@
       <c r="T93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U93" s="3">
+        <v>0</v>
+      </c>
+      <c r="V93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E94" s="3">
+        <v>1800</v>
+      </c>
+      <c r="F94" s="3">
         <v>8800</v>
       </c>
-      <c r="E94" s="3">
-        <v>0</v>
-      </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
+        <v>0</v>
+      </c>
+      <c r="H94" s="3">
         <v>-100</v>
       </c>
-      <c r="G94" s="3">
-        <v>0</v>
-      </c>
-      <c r="H94" s="3">
-        <v>0</v>
-      </c>
       <c r="I94" s="3">
         <v>0</v>
       </c>
@@ -5037,11 +5497,11 @@
       <c r="L94" s="3">
         <v>0</v>
       </c>
-      <c r="M94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N94" s="3" t="s">
-        <v>5</v>
+      <c r="M94" s="3">
+        <v>0</v>
+      </c>
+      <c r="N94" s="3">
+        <v>0</v>
       </c>
       <c r="O94" s="3" t="s">
         <v>5</v>
@@ -5058,11 +5518,17 @@
       <c r="S94" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="T94" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="T94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5083,8 +5549,10 @@
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
-    </row>
-    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U95" s="3"/>
+      <c r="V95" s="3"/>
+    </row>
+    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5139,8 +5607,14 @@
       <c r="T96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U96" s="3">
+        <v>0</v>
+      </c>
+      <c r="V96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5195,8 +5669,14 @@
       <c r="T97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U97" s="3">
+        <v>0</v>
+      </c>
+      <c r="V97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5251,8 +5731,14 @@
       <c r="T98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U98" s="3">
+        <v>0</v>
+      </c>
+      <c r="V98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5307,47 +5793,53 @@
       <c r="T99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U99" s="3">
+        <v>0</v>
+      </c>
+      <c r="V99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>6000</v>
+      </c>
+      <c r="E100" s="3">
+        <v>-10500</v>
+      </c>
+      <c r="F100" s="3">
         <v>-10800</v>
       </c>
-      <c r="E100" s="3">
+      <c r="G100" s="3">
         <v>-16600</v>
       </c>
-      <c r="F100" s="3">
+      <c r="H100" s="3">
         <v>-1400</v>
       </c>
-      <c r="G100" s="3">
+      <c r="I100" s="3">
         <v>-7600</v>
       </c>
-      <c r="H100" s="3">
+      <c r="J100" s="3">
         <v>11800</v>
       </c>
-      <c r="I100" s="3">
+      <c r="K100" s="3">
         <v>-9400</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>40500</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>-1500</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>-1000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>1600</v>
       </c>
-      <c r="N100" s="3">
-        <v>0</v>
-      </c>
-      <c r="O100" s="3">
-        <v>0</v>
-      </c>
       <c r="P100" s="3">
         <v>0</v>
       </c>
@@ -5360,34 +5852,40 @@
       <c r="S100" s="3">
         <v>0</v>
       </c>
-      <c r="T100" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="T100" s="3">
+        <v>0</v>
+      </c>
+      <c r="U100" s="3">
+        <v>0</v>
+      </c>
+      <c r="V100" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
         <v>0</v>
       </c>
-      <c r="E101" s="3">
-        <v>0</v>
-      </c>
-      <c r="F101" s="3">
-        <v>0</v>
-      </c>
-      <c r="G101" s="3">
-        <v>0</v>
-      </c>
-      <c r="H101" s="3">
-        <v>0</v>
-      </c>
-      <c r="I101" s="3">
-        <v>0</v>
-      </c>
-      <c r="J101" s="3">
-        <v>0</v>
+      <c r="E101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J101" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="K101" s="3">
         <v>0</v>
@@ -5419,47 +5917,53 @@
       <c r="T101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U101" s="3">
+        <v>0</v>
+      </c>
+      <c r="V101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-3400</v>
+      </c>
+      <c r="E102" s="3">
+        <v>-7700</v>
+      </c>
+      <c r="F102" s="3">
         <v>13200</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>1000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>-1200</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>400</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>200</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>500</v>
       </c>
-      <c r="J102" s="3">
-        <v>0</v>
-      </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
+        <v>0</v>
+      </c>
+      <c r="M102" s="3">
         <v>-1100</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>-2100</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>2200</v>
       </c>
-      <c r="N102" s="3">
-        <v>0</v>
-      </c>
-      <c r="O102" s="3">
-        <v>0</v>
-      </c>
       <c r="P102" s="3">
         <v>0</v>
       </c>
@@ -5473,6 +5977,12 @@
         <v>0</v>
       </c>
       <c r="T102" s="3">
+        <v>0</v>
+      </c>
+      <c r="U102" s="3">
+        <v>0</v>
+      </c>
+      <c r="V102" s="3">
         <v>0</v>
       </c>
     </row>
